--- a/documents/contract-rate.xlsx
+++ b/documents/contract-rate.xlsx
@@ -12,12 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
-    <sheet name="CV" sheetId="5" r:id="rId1"/>
-    <sheet name="CO CHE THU NHAP  GD1" sheetId="1" r:id="rId2"/>
-    <sheet name="CO CHE THU NHAP  GD2" sheetId="2" r:id="rId3"/>
-    <sheet name="van hanh b2" sheetId="3" r:id="rId4"/>
-    <sheet name="leader" sheetId="4" r:id="rId5"/>
-    <sheet name="CTV" sheetId="6" r:id="rId6"/>
+    <sheet name="CTV" sheetId="6" r:id="rId1"/>
+    <sheet name="CV" sheetId="5" r:id="rId2"/>
+    <sheet name="CO CHE THU NHAP  GD1" sheetId="1" r:id="rId3"/>
+    <sheet name="CO CHE THU NHAP  GD2" sheetId="2" r:id="rId4"/>
+    <sheet name="van hanh b2" sheetId="3" r:id="rId5"/>
+    <sheet name="leader" sheetId="4" r:id="rId6"/>
     <sheet name="Van hanh b1" sheetId="7" r:id="rId7"/>
     <sheet name="Kinh doanh" sheetId="8" r:id="rId8"/>
   </sheets>
@@ -1136,58 +1136,58 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1476,31 +1476,33 @@
   </sheetPr>
   <dimension ref="A5:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="82" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="88"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="84"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="76" t="s">
         <v>149</v>
       </c>
@@ -1543,40 +1545,40 @@
         <v>161</v>
       </c>
       <c r="B7" s="79">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C7" s="79">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D7" s="79">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E7" s="79">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="F7" s="79">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="G7" s="79">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="H7" s="79">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="I7" s="79">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="J7" s="79">
-        <v>783</v>
+        <v>761</v>
       </c>
       <c r="K7" s="79">
-        <v>870</v>
+        <v>845</v>
       </c>
       <c r="L7" s="79">
-        <v>957</v>
+        <v>930</v>
       </c>
       <c r="M7" s="79">
-        <v>1.044</v>
+        <v>1.014</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1584,40 +1586,40 @@
         <v>162</v>
       </c>
       <c r="B8" s="79">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C8" s="79">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D8" s="79">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E8" s="79">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="F8" s="79">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="G8" s="79">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="H8" s="79">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="I8" s="79">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="J8" s="79">
-        <v>900</v>
+        <v>878</v>
       </c>
       <c r="K8" s="79">
-        <v>1</v>
+        <v>975</v>
       </c>
       <c r="L8" s="79">
-        <v>1.1000000000000001</v>
+        <v>1.073</v>
       </c>
       <c r="M8" s="79">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1625,40 +1627,40 @@
         <v>163</v>
       </c>
       <c r="B9" s="79">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" s="79">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D9" s="79">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E9" s="79">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="F9" s="79">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="G9" s="79">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="H9" s="79">
-        <v>791</v>
+        <v>774</v>
       </c>
       <c r="I9" s="79">
-        <v>904</v>
+        <v>884</v>
       </c>
       <c r="J9" s="79">
-        <v>1.0169999999999999</v>
+        <v>995</v>
       </c>
       <c r="K9" s="79">
-        <v>1.1299999999999999</v>
+        <v>1.105</v>
       </c>
       <c r="L9" s="79">
-        <v>1.2430000000000001</v>
+        <v>1.216</v>
       </c>
       <c r="M9" s="79">
-        <v>1.3560000000000001</v>
+        <v>1.3260000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1666,40 +1668,40 @@
         <v>164</v>
       </c>
       <c r="B10" s="79">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C10" s="79">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D10" s="79">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E10" s="79">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="F10" s="79">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="G10" s="79">
-        <v>762</v>
+        <v>741</v>
       </c>
       <c r="H10" s="79">
-        <v>889</v>
+        <v>865</v>
       </c>
       <c r="I10" s="79">
-        <v>1.016</v>
+        <v>988</v>
       </c>
       <c r="J10" s="79">
-        <v>1.143</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="K10" s="79">
-        <v>1.27</v>
+        <v>1.2350000000000001</v>
       </c>
       <c r="L10" s="79">
-        <v>1.397</v>
+        <v>1.359</v>
       </c>
       <c r="M10" s="79">
-        <v>1.524</v>
+        <v>1.482</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1707,40 +1709,40 @@
         <v>165</v>
       </c>
       <c r="B11" s="79">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C11" s="79">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D11" s="79">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E11" s="79">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="F11" s="79">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="G11" s="79">
-        <v>840</v>
+        <v>819</v>
       </c>
       <c r="H11" s="79">
-        <v>980</v>
+        <v>956</v>
       </c>
       <c r="I11" s="79">
-        <v>1.1200000000000001</v>
+        <v>1.0920000000000001</v>
       </c>
       <c r="J11" s="79">
-        <v>1.26</v>
+        <v>1.2290000000000001</v>
       </c>
       <c r="K11" s="79">
-        <v>1.4</v>
+        <v>1.365</v>
       </c>
       <c r="L11" s="79">
-        <v>1.54</v>
+        <v>1.502</v>
       </c>
       <c r="M11" s="79">
-        <v>1.68</v>
+        <v>1.6379999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1748,40 +1750,40 @@
         <v>166</v>
       </c>
       <c r="B12" s="79">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C12" s="79">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D12" s="79">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="E12" s="79">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="F12" s="79">
-        <v>765</v>
+        <v>748</v>
       </c>
       <c r="G12" s="79">
-        <v>918</v>
+        <v>897</v>
       </c>
       <c r="H12" s="79">
-        <v>1.071</v>
+        <v>1.0469999999999999</v>
       </c>
       <c r="I12" s="79">
-        <v>1.224</v>
+        <v>1.196</v>
       </c>
       <c r="J12" s="79">
-        <v>1.377</v>
+        <v>1.3460000000000001</v>
       </c>
       <c r="K12" s="79">
-        <v>1.53</v>
+        <v>1.4950000000000001</v>
       </c>
       <c r="L12" s="79">
-        <v>1.6830000000000001</v>
+        <v>1.645</v>
       </c>
       <c r="M12" s="79">
-        <v>1.8360000000000001</v>
+        <v>1.794</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1789,40 +1791,40 @@
         <v>167</v>
       </c>
       <c r="B13" s="79">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C13" s="79">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D13" s="79">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="E13" s="79">
-        <v>668</v>
+        <v>650</v>
       </c>
       <c r="F13" s="79">
-        <v>835</v>
+        <v>813</v>
       </c>
       <c r="G13" s="79">
-        <v>1.002</v>
+        <v>975</v>
       </c>
       <c r="H13" s="79">
-        <v>1.169</v>
+        <v>1.1379999999999999</v>
       </c>
       <c r="I13" s="79">
-        <v>1.3360000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="J13" s="79">
-        <v>1.5029999999999999</v>
+        <v>1.4630000000000001</v>
       </c>
       <c r="K13" s="79">
-        <v>1.67</v>
+        <v>1.625</v>
       </c>
       <c r="L13" s="79">
-        <v>1.837</v>
+        <v>1.788</v>
       </c>
       <c r="M13" s="79">
-        <v>2.004</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1830,40 +1832,40 @@
         <v>168</v>
       </c>
       <c r="B14" s="79">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C14" s="79">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D14" s="79">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="E14" s="79">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="F14" s="79">
-        <v>900</v>
+        <v>878</v>
       </c>
       <c r="G14" s="79">
-        <v>1.08</v>
+        <v>1.0529999999999999</v>
       </c>
       <c r="H14" s="79">
-        <v>1.26</v>
+        <v>1.2290000000000001</v>
       </c>
       <c r="I14" s="79">
-        <v>1.44</v>
+        <v>1.4039999999999999</v>
       </c>
       <c r="J14" s="79">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="K14" s="79">
-        <v>1.8</v>
+        <v>1.7549999999999999</v>
       </c>
       <c r="L14" s="79">
-        <v>1.98</v>
+        <v>1.931</v>
       </c>
       <c r="M14" s="79">
-        <v>2.16</v>
+        <v>2.1059999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1871,40 +1873,40 @@
         <v>169</v>
       </c>
       <c r="B15" s="79">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C15" s="79">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D15" s="79">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="E15" s="79">
-        <v>772</v>
+        <v>754</v>
       </c>
       <c r="F15" s="79">
-        <v>965</v>
+        <v>943</v>
       </c>
       <c r="G15" s="79">
-        <v>1.1579999999999999</v>
+        <v>1.131</v>
       </c>
       <c r="H15" s="79">
-        <v>1.351</v>
+        <v>1.32</v>
       </c>
       <c r="I15" s="79">
-        <v>1.544</v>
+        <v>1.508</v>
       </c>
       <c r="J15" s="79">
-        <v>1.7370000000000001</v>
+        <v>1.6970000000000001</v>
       </c>
       <c r="K15" s="79">
-        <v>1.93</v>
+        <v>1.885</v>
       </c>
       <c r="L15" s="79">
-        <v>2.1230000000000002</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="M15" s="79">
-        <v>2.3159999999999998</v>
+        <v>2.262</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1912,40 +1914,40 @@
         <v>170</v>
       </c>
       <c r="B16" s="79">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C16" s="79">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D16" s="79">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="E16" s="79">
-        <v>828</v>
+        <v>806</v>
       </c>
       <c r="F16" s="79">
-        <v>1.0349999999999999</v>
+        <v>1.008</v>
       </c>
       <c r="G16" s="79">
-        <v>1.242</v>
+        <v>1.2090000000000001</v>
       </c>
       <c r="H16" s="79">
-        <v>1.4490000000000001</v>
+        <v>1.411</v>
       </c>
       <c r="I16" s="79">
-        <v>1.6559999999999999</v>
+        <v>1.6120000000000001</v>
       </c>
       <c r="J16" s="79">
-        <v>1.863</v>
+        <v>1.8140000000000001</v>
       </c>
       <c r="K16" s="79">
-        <v>2.0699999999999998</v>
+        <v>2.0150000000000001</v>
       </c>
       <c r="L16" s="79">
-        <v>2.2770000000000001</v>
+        <v>2.2170000000000001</v>
       </c>
       <c r="M16" s="79">
-        <v>2.484</v>
+        <v>2.4180000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1953,40 +1955,40 @@
         <v>171</v>
       </c>
       <c r="B17" s="79">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C17" s="79">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="D17" s="79">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="E17" s="79">
-        <v>880</v>
+        <v>858</v>
       </c>
       <c r="F17" s="79">
-        <v>1.1000000000000001</v>
+        <v>1.073</v>
       </c>
       <c r="G17" s="79">
-        <v>1.32</v>
+        <v>1.2869999999999999</v>
       </c>
       <c r="H17" s="79">
-        <v>1.54</v>
+        <v>1.502</v>
       </c>
       <c r="I17" s="79">
-        <v>1.76</v>
+        <v>1.716</v>
       </c>
       <c r="J17" s="79">
-        <v>1.98</v>
+        <v>1.931</v>
       </c>
       <c r="K17" s="79">
-        <v>2.2000000000000002</v>
+        <v>2.145</v>
       </c>
       <c r="L17" s="79">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="M17" s="79">
-        <v>2.64</v>
+        <v>2.5739999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1994,40 +1996,40 @@
         <v>172</v>
       </c>
       <c r="B18" s="79">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C18" s="79">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="D18" s="79">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="E18" s="79">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="F18" s="79">
-        <v>1.165</v>
+        <v>1.1379999999999999</v>
       </c>
       <c r="G18" s="79">
-        <v>1.3979999999999999</v>
+        <v>1.365</v>
       </c>
       <c r="H18" s="79">
-        <v>1.631</v>
+        <v>1.593</v>
       </c>
       <c r="I18" s="79">
-        <v>1.8640000000000001</v>
+        <v>1.82</v>
       </c>
       <c r="J18" s="79">
-        <v>2.097</v>
+        <v>2.048</v>
       </c>
       <c r="K18" s="79">
-        <v>2.33</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="L18" s="79">
-        <v>2.5630000000000002</v>
+        <v>2.5030000000000001</v>
       </c>
       <c r="M18" s="79">
-        <v>2.7959999999999998</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2035,40 +2037,40 @@
         <v>173</v>
       </c>
       <c r="B19" s="79">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C19" s="79">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="D19" s="79">
-        <v>741</v>
+        <v>722</v>
       </c>
       <c r="E19" s="79">
-        <v>988</v>
+        <v>962</v>
       </c>
       <c r="F19" s="79">
-        <v>1.2350000000000001</v>
+        <v>1.2030000000000001</v>
       </c>
       <c r="G19" s="79">
-        <v>1.482</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="H19" s="79">
-        <v>1.7290000000000001</v>
+        <v>1.6839999999999999</v>
       </c>
       <c r="I19" s="79">
-        <v>1.976</v>
+        <v>1.9239999999999999</v>
       </c>
       <c r="J19" s="79">
-        <v>2.2229999999999999</v>
+        <v>2.165</v>
       </c>
       <c r="K19" s="79">
-        <v>2.4700000000000002</v>
+        <v>2.4049999999999998</v>
       </c>
       <c r="L19" s="79">
-        <v>2.7170000000000001</v>
+        <v>2.6459999999999999</v>
       </c>
       <c r="M19" s="79">
-        <v>2.964</v>
+        <v>2.8860000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2076,40 +2078,40 @@
         <v>174</v>
       </c>
       <c r="B20" s="79">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C20" s="79">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="D20" s="79">
-        <v>780</v>
+        <v>761</v>
       </c>
       <c r="E20" s="79">
-        <v>1.04</v>
+        <v>1.014</v>
       </c>
       <c r="F20" s="79">
-        <v>1.3</v>
+        <v>1.268</v>
       </c>
       <c r="G20" s="79">
-        <v>1.56</v>
+        <v>1.5209999999999999</v>
       </c>
       <c r="H20" s="79">
-        <v>1.82</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="I20" s="79">
-        <v>2.08</v>
+        <v>2.028</v>
       </c>
       <c r="J20" s="79">
-        <v>2.34</v>
+        <v>2.282</v>
       </c>
       <c r="K20" s="79">
-        <v>2.6</v>
+        <v>2.5350000000000001</v>
       </c>
       <c r="L20" s="79">
-        <v>2.86</v>
+        <v>2.7890000000000001</v>
       </c>
       <c r="M20" s="79">
-        <v>3.12</v>
+        <v>3.0419999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2117,40 +2119,40 @@
         <v>175</v>
       </c>
       <c r="B21" s="79">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C21" s="79">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="D21" s="79">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="E21" s="79">
-        <v>1.0920000000000001</v>
+        <v>1.0660000000000001</v>
       </c>
       <c r="F21" s="79">
-        <v>1.365</v>
+        <v>1.333</v>
       </c>
       <c r="G21" s="79">
-        <v>1.6379999999999999</v>
+        <v>1.599</v>
       </c>
       <c r="H21" s="79">
-        <v>1.911</v>
+        <v>1.8660000000000001</v>
       </c>
       <c r="I21" s="79">
-        <v>2.1840000000000002</v>
+        <v>2.1320000000000001</v>
       </c>
       <c r="J21" s="79">
-        <v>2.4569999999999999</v>
+        <v>2.399</v>
       </c>
       <c r="K21" s="79">
-        <v>2.73</v>
+        <v>2.665</v>
       </c>
       <c r="L21" s="79">
-        <v>3.0030000000000001</v>
+        <v>2.9319999999999999</v>
       </c>
       <c r="M21" s="79">
-        <v>3.2759999999999998</v>
+        <v>3.198</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2158,40 +2160,40 @@
         <v>176</v>
       </c>
       <c r="B22" s="79">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C22" s="79">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="D22" s="79">
-        <v>861</v>
+        <v>839</v>
       </c>
       <c r="E22" s="79">
-        <v>1.1479999999999999</v>
+        <v>1.1180000000000001</v>
       </c>
       <c r="F22" s="79">
-        <v>1.4350000000000001</v>
+        <v>1.3979999999999999</v>
       </c>
       <c r="G22" s="79">
-        <v>1.722</v>
+        <v>1.677</v>
       </c>
       <c r="H22" s="79">
-        <v>2.0089999999999999</v>
+        <v>1.9570000000000001</v>
       </c>
       <c r="I22" s="79">
-        <v>2.2959999999999998</v>
+        <v>2.2360000000000002</v>
       </c>
       <c r="J22" s="79">
-        <v>2.5830000000000002</v>
+        <v>2.516</v>
       </c>
       <c r="K22" s="79">
-        <v>2.87</v>
+        <v>2.7949999999999999</v>
       </c>
       <c r="L22" s="79">
-        <v>3.157</v>
+        <v>3.0750000000000002</v>
       </c>
       <c r="M22" s="79">
-        <v>3.444</v>
+        <v>3.3540000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2199,40 +2201,40 @@
         <v>177</v>
       </c>
       <c r="B23" s="79">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C23" s="79">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="D23" s="79">
-        <v>900</v>
+        <v>878</v>
       </c>
       <c r="E23" s="79">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="F23" s="79">
-        <v>1.5</v>
+        <v>1.4630000000000001</v>
       </c>
       <c r="G23" s="79">
-        <v>1.8</v>
+        <v>1.7549999999999999</v>
       </c>
       <c r="H23" s="79">
-        <v>2.1</v>
+        <v>2.048</v>
       </c>
       <c r="I23" s="79">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="J23" s="79">
-        <v>2.7</v>
+        <v>2.633</v>
       </c>
       <c r="K23" s="79">
-        <v>3</v>
+        <v>2.9249999999999998</v>
       </c>
       <c r="L23" s="79">
-        <v>3.3</v>
+        <v>3.218</v>
       </c>
       <c r="M23" s="79">
-        <v>3.6</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2240,40 +2242,40 @@
         <v>178</v>
       </c>
       <c r="B24" s="79">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C24" s="79">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="D24" s="79">
-        <v>939</v>
+        <v>917</v>
       </c>
       <c r="E24" s="79">
-        <v>1.252</v>
+        <v>1.222</v>
       </c>
       <c r="F24" s="79">
-        <v>1.5649999999999999</v>
+        <v>1.528</v>
       </c>
       <c r="G24" s="79">
-        <v>1.8779999999999999</v>
+        <v>1.833</v>
       </c>
       <c r="H24" s="79">
-        <v>2.1909999999999998</v>
+        <v>2.1389999999999998</v>
       </c>
       <c r="I24" s="79">
-        <v>2.504</v>
+        <v>2.444</v>
       </c>
       <c r="J24" s="79">
-        <v>2.8170000000000002</v>
+        <v>2.75</v>
       </c>
       <c r="K24" s="79">
-        <v>3.13</v>
+        <v>3.0550000000000002</v>
       </c>
       <c r="L24" s="79">
-        <v>3.4430000000000001</v>
+        <v>3.3610000000000002</v>
       </c>
       <c r="M24" s="79">
-        <v>3.7559999999999998</v>
+        <v>3.6659999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2281,40 +2283,40 @@
         <v>179</v>
       </c>
       <c r="B25" s="79">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C25" s="79">
-        <v>654</v>
+        <v>637</v>
       </c>
       <c r="D25" s="79">
-        <v>981</v>
+        <v>956</v>
       </c>
       <c r="E25" s="79">
-        <v>1.3080000000000001</v>
+        <v>1.274</v>
       </c>
       <c r="F25" s="79">
-        <v>1.635</v>
+        <v>1.593</v>
       </c>
       <c r="G25" s="79">
-        <v>1.962</v>
+        <v>1.911</v>
       </c>
       <c r="H25" s="79">
-        <v>2.2890000000000001</v>
+        <v>2.23</v>
       </c>
       <c r="I25" s="79">
-        <v>2.6160000000000001</v>
+        <v>2.548</v>
       </c>
       <c r="J25" s="79">
-        <v>2.9430000000000001</v>
+        <v>2.867</v>
       </c>
       <c r="K25" s="79">
-        <v>3.27</v>
+        <v>3.1850000000000001</v>
       </c>
       <c r="L25" s="79">
-        <v>3.597</v>
+        <v>3.504</v>
       </c>
       <c r="M25" s="79">
-        <v>3.9239999999999999</v>
+        <v>3.8220000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2322,40 +2324,40 @@
         <v>180</v>
       </c>
       <c r="B26" s="79">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C26" s="79">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="D26" s="79">
-        <v>1.02</v>
+        <v>995</v>
       </c>
       <c r="E26" s="79">
-        <v>1.36</v>
+        <v>1.3260000000000001</v>
       </c>
       <c r="F26" s="79">
-        <v>1.7</v>
+        <v>1.6579999999999999</v>
       </c>
       <c r="G26" s="79">
-        <v>2.04</v>
+        <v>1.9890000000000001</v>
       </c>
       <c r="H26" s="79">
-        <v>2.38</v>
+        <v>2.3210000000000002</v>
       </c>
       <c r="I26" s="79">
-        <v>2.72</v>
+        <v>2.6520000000000001</v>
       </c>
       <c r="J26" s="79">
-        <v>3.06</v>
+        <v>2.984</v>
       </c>
       <c r="K26" s="79">
-        <v>3.4</v>
+        <v>3.3149999999999999</v>
       </c>
       <c r="L26" s="79">
-        <v>3.74</v>
+        <v>3.6469999999999998</v>
       </c>
       <c r="M26" s="79">
-        <v>4.08</v>
+        <v>3.9780000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2363,40 +2365,40 @@
         <v>181</v>
       </c>
       <c r="B27" s="79">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C27" s="79">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="D27" s="79">
-        <v>1.0589999999999999</v>
+        <v>1.034</v>
       </c>
       <c r="E27" s="79">
-        <v>1.4119999999999999</v>
+        <v>1.3779999999999999</v>
       </c>
       <c r="F27" s="79">
-        <v>1.7649999999999999</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="G27" s="79">
-        <v>2.1179999999999999</v>
+        <v>2.0670000000000002</v>
       </c>
       <c r="H27" s="79">
-        <v>2.4710000000000001</v>
+        <v>2.4119999999999999</v>
       </c>
       <c r="I27" s="79">
-        <v>2.8239999999999998</v>
+        <v>2.7559999999999998</v>
       </c>
       <c r="J27" s="79">
-        <v>3.177</v>
+        <v>3.101</v>
       </c>
       <c r="K27" s="79">
-        <v>3.53</v>
+        <v>3.4449999999999998</v>
       </c>
       <c r="L27" s="79">
-        <v>3.883</v>
+        <v>3.79</v>
       </c>
       <c r="M27" s="79">
-        <v>4.2359999999999998</v>
+        <v>4.1340000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2404,40 +2406,40 @@
         <v>182</v>
       </c>
       <c r="B28" s="79">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C28" s="79">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="D28" s="79">
-        <v>1.101</v>
+        <v>1.073</v>
       </c>
       <c r="E28" s="79">
-        <v>1.468</v>
+        <v>1.43</v>
       </c>
       <c r="F28" s="79">
-        <v>1.835</v>
+        <v>1.788</v>
       </c>
       <c r="G28" s="79">
-        <v>2.202</v>
+        <v>2.145</v>
       </c>
       <c r="H28" s="79">
-        <v>2.569</v>
+        <v>2.5030000000000001</v>
       </c>
       <c r="I28" s="79">
-        <v>2.9359999999999999</v>
+        <v>2.86</v>
       </c>
       <c r="J28" s="79">
-        <v>3.3029999999999999</v>
+        <v>3.218</v>
       </c>
       <c r="K28" s="79">
-        <v>3.67</v>
+        <v>3.5750000000000002</v>
       </c>
       <c r="L28" s="79">
-        <v>4.0369999999999999</v>
+        <v>3.9329999999999998</v>
       </c>
       <c r="M28" s="79">
-        <v>4.4039999999999999</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -2445,40 +2447,40 @@
         <v>183</v>
       </c>
       <c r="B29" s="79">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C29" s="79">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="D29" s="79">
-        <v>1.1399999999999999</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="E29" s="79">
-        <v>1.52</v>
+        <v>1.482</v>
       </c>
       <c r="F29" s="79">
-        <v>1.9</v>
+        <v>1.853</v>
       </c>
       <c r="G29" s="79">
-        <v>2.2799999999999998</v>
+        <v>2.2229999999999999</v>
       </c>
       <c r="H29" s="79">
-        <v>2.66</v>
+        <v>2.5939999999999999</v>
       </c>
       <c r="I29" s="79">
-        <v>3.04</v>
+        <v>2.964</v>
       </c>
       <c r="J29" s="79">
-        <v>3.42</v>
+        <v>3.335</v>
       </c>
       <c r="K29" s="79">
-        <v>3.8</v>
+        <v>3.7050000000000001</v>
       </c>
       <c r="L29" s="79">
-        <v>4.18</v>
+        <v>4.0759999999999996</v>
       </c>
       <c r="M29" s="79">
-        <v>4.5599999999999996</v>
+        <v>4.4459999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -2486,40 +2488,40 @@
         <v>184</v>
       </c>
       <c r="B30" s="79">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C30" s="79">
-        <v>786</v>
+        <v>767</v>
       </c>
       <c r="D30" s="79">
-        <v>1.179</v>
+        <v>1.151</v>
       </c>
       <c r="E30" s="79">
-        <v>1.5720000000000001</v>
+        <v>1.534</v>
       </c>
       <c r="F30" s="79">
-        <v>1.9650000000000001</v>
+        <v>1.9179999999999999</v>
       </c>
       <c r="G30" s="79">
-        <v>2.3580000000000001</v>
+        <v>2.3010000000000002</v>
       </c>
       <c r="H30" s="79">
-        <v>2.7509999999999999</v>
+        <v>2.6850000000000001</v>
       </c>
       <c r="I30" s="79">
-        <v>3.1440000000000001</v>
+        <v>3.0680000000000001</v>
       </c>
       <c r="J30" s="79">
-        <v>3.5369999999999999</v>
+        <v>3.452</v>
       </c>
       <c r="K30" s="79">
-        <v>3.93</v>
+        <v>3.835</v>
       </c>
       <c r="L30" s="79">
-        <v>4.3230000000000004</v>
+        <v>4.2190000000000003</v>
       </c>
       <c r="M30" s="79">
-        <v>4.7160000000000002</v>
+        <v>4.6020000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -2527,40 +2529,40 @@
         <v>185</v>
       </c>
       <c r="B31" s="79">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C31" s="79">
-        <v>814</v>
+        <v>793</v>
       </c>
       <c r="D31" s="79">
-        <v>1.2210000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="E31" s="79">
-        <v>1.6279999999999999</v>
+        <v>1.5860000000000001</v>
       </c>
       <c r="F31" s="79">
-        <v>2.0350000000000001</v>
+        <v>1.9830000000000001</v>
       </c>
       <c r="G31" s="79">
-        <v>2.4420000000000002</v>
+        <v>2.379</v>
       </c>
       <c r="H31" s="79">
-        <v>2.8490000000000002</v>
+        <v>2.7759999999999998</v>
       </c>
       <c r="I31" s="79">
-        <v>3.2559999999999998</v>
+        <v>3.1720000000000002</v>
       </c>
       <c r="J31" s="79">
-        <v>3.6629999999999998</v>
+        <v>3.569</v>
       </c>
       <c r="K31" s="79">
-        <v>4.07</v>
+        <v>3.9649999999999999</v>
       </c>
       <c r="L31" s="79">
-        <v>4.4770000000000003</v>
+        <v>4.3620000000000001</v>
       </c>
       <c r="M31" s="79">
-        <v>4.8840000000000003</v>
+        <v>4.758</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -2568,40 +2570,40 @@
         <v>186</v>
       </c>
       <c r="B32" s="79">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C32" s="79">
-        <v>840</v>
+        <v>819</v>
       </c>
       <c r="D32" s="79">
-        <v>1.26</v>
+        <v>1.2290000000000001</v>
       </c>
       <c r="E32" s="79">
-        <v>1.68</v>
+        <v>1.6379999999999999</v>
       </c>
       <c r="F32" s="79">
-        <v>2.1</v>
+        <v>2.048</v>
       </c>
       <c r="G32" s="79">
-        <v>2.52</v>
+        <v>2.4569999999999999</v>
       </c>
       <c r="H32" s="79">
-        <v>2.94</v>
+        <v>2.867</v>
       </c>
       <c r="I32" s="79">
-        <v>3.36</v>
+        <v>3.2759999999999998</v>
       </c>
       <c r="J32" s="79">
-        <v>3.78</v>
+        <v>3.6859999999999999</v>
       </c>
       <c r="K32" s="79">
-        <v>4.2</v>
+        <v>4.0949999999999998</v>
       </c>
       <c r="L32" s="79">
-        <v>4.62</v>
+        <v>4.5049999999999999</v>
       </c>
       <c r="M32" s="79">
-        <v>5.04</v>
+        <v>4.9139999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -2609,40 +2611,40 @@
         <v>187</v>
       </c>
       <c r="B33" s="79">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C33" s="79">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="D33" s="79">
-        <v>1.2989999999999999</v>
+        <v>1.268</v>
       </c>
       <c r="E33" s="79">
-        <v>1.732</v>
+        <v>1.69</v>
       </c>
       <c r="F33" s="79">
-        <v>2.165</v>
+        <v>2.113</v>
       </c>
       <c r="G33" s="79">
-        <v>2.5979999999999999</v>
+        <v>2.5350000000000001</v>
       </c>
       <c r="H33" s="79">
-        <v>3.0310000000000001</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="I33" s="79">
-        <v>3.464</v>
+        <v>3.38</v>
       </c>
       <c r="J33" s="79">
-        <v>3.8969999999999998</v>
+        <v>3.8029999999999999</v>
       </c>
       <c r="K33" s="79">
-        <v>4.33</v>
+        <v>4.2249999999999996</v>
       </c>
       <c r="L33" s="79">
-        <v>4.7629999999999999</v>
+        <v>4.6479999999999997</v>
       </c>
       <c r="M33" s="79">
-        <v>5.1959999999999997</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -2650,40 +2652,40 @@
         <v>188</v>
       </c>
       <c r="B34" s="79">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="C34" s="79">
-        <v>894</v>
+        <v>871</v>
       </c>
       <c r="D34" s="79">
-        <v>1.341</v>
+        <v>1.3069999999999999</v>
       </c>
       <c r="E34" s="79">
-        <v>1.788</v>
+        <v>1.742</v>
       </c>
       <c r="F34" s="79">
-        <v>2.2349999999999999</v>
+        <v>2.1779999999999999</v>
       </c>
       <c r="G34" s="79">
-        <v>2.6819999999999999</v>
+        <v>2.613</v>
       </c>
       <c r="H34" s="79">
-        <v>3.129</v>
+        <v>3.0489999999999999</v>
       </c>
       <c r="I34" s="79">
-        <v>3.5760000000000001</v>
+        <v>3.484</v>
       </c>
       <c r="J34" s="79">
-        <v>4.0229999999999997</v>
+        <v>3.92</v>
       </c>
       <c r="K34" s="79">
-        <v>4.47</v>
+        <v>4.3550000000000004</v>
       </c>
       <c r="L34" s="79">
-        <v>4.9169999999999998</v>
+        <v>4.7910000000000004</v>
       </c>
       <c r="M34" s="79">
-        <v>5.3639999999999999</v>
+        <v>5.226</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -2691,40 +2693,40 @@
         <v>189</v>
       </c>
       <c r="B35" s="79">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="C35" s="79">
-        <v>920</v>
+        <v>897</v>
       </c>
       <c r="D35" s="79">
-        <v>1.38</v>
+        <v>1.3460000000000001</v>
       </c>
       <c r="E35" s="79">
-        <v>1.84</v>
+        <v>1.794</v>
       </c>
       <c r="F35" s="79">
-        <v>2.2999999999999998</v>
+        <v>2.2429999999999999</v>
       </c>
       <c r="G35" s="79">
-        <v>2.76</v>
+        <v>2.6909999999999998</v>
       </c>
       <c r="H35" s="79">
-        <v>3.22</v>
+        <v>3.14</v>
       </c>
       <c r="I35" s="79">
-        <v>3.68</v>
+        <v>3.5880000000000001</v>
       </c>
       <c r="J35" s="79">
-        <v>4.1399999999999997</v>
+        <v>4.0369999999999999</v>
       </c>
       <c r="K35" s="79">
-        <v>4.5999999999999996</v>
+        <v>4.4850000000000003</v>
       </c>
       <c r="L35" s="79">
-        <v>5.0599999999999996</v>
+        <v>4.9340000000000002</v>
       </c>
       <c r="M35" s="79">
-        <v>5.52</v>
+        <v>5.3819999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -2732,40 +2734,40 @@
         <v>190</v>
       </c>
       <c r="B36" s="79">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="C36" s="79">
-        <v>946</v>
+        <v>923</v>
       </c>
       <c r="D36" s="79">
-        <v>1.419</v>
+        <v>1.385</v>
       </c>
       <c r="E36" s="79">
-        <v>1.8919999999999999</v>
+        <v>1.8460000000000001</v>
       </c>
       <c r="F36" s="79">
-        <v>2.3650000000000002</v>
+        <v>2.3079999999999998</v>
       </c>
       <c r="G36" s="79">
-        <v>2.8380000000000001</v>
+        <v>2.7690000000000001</v>
       </c>
       <c r="H36" s="79">
-        <v>3.3109999999999999</v>
+        <v>3.2309999999999999</v>
       </c>
       <c r="I36" s="79">
-        <v>3.7839999999999998</v>
+        <v>3.6920000000000002</v>
       </c>
       <c r="J36" s="79">
-        <v>4.2569999999999997</v>
+        <v>4.1539999999999999</v>
       </c>
       <c r="K36" s="79">
-        <v>4.7300000000000004</v>
+        <v>4.6150000000000002</v>
       </c>
       <c r="L36" s="79">
-        <v>5.2030000000000003</v>
+        <v>5.077</v>
       </c>
       <c r="M36" s="79">
-        <v>5.6760000000000002</v>
+        <v>5.5380000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -2773,40 +2775,40 @@
         <v>191</v>
       </c>
       <c r="B37" s="79">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="C37" s="79">
-        <v>974</v>
+        <v>949</v>
       </c>
       <c r="D37" s="79">
-        <v>1.4610000000000001</v>
+        <v>1.4239999999999999</v>
       </c>
       <c r="E37" s="79">
-        <v>1.948</v>
+        <v>1.8979999999999999</v>
       </c>
       <c r="F37" s="79">
-        <v>2.4350000000000001</v>
+        <v>2.3730000000000002</v>
       </c>
       <c r="G37" s="79">
-        <v>2.9220000000000002</v>
+        <v>2.847</v>
       </c>
       <c r="H37" s="79">
-        <v>3.4089999999999998</v>
+        <v>3.3220000000000001</v>
       </c>
       <c r="I37" s="79">
-        <v>3.8959999999999999</v>
+        <v>3.7959999999999998</v>
       </c>
       <c r="J37" s="79">
-        <v>4.383</v>
+        <v>4.2709999999999999</v>
       </c>
       <c r="K37" s="79">
-        <v>4.87</v>
+        <v>4.7450000000000001</v>
       </c>
       <c r="L37" s="79">
-        <v>5.3570000000000002</v>
+        <v>5.22</v>
       </c>
       <c r="M37" s="79">
-        <v>5.8440000000000003</v>
+        <v>5.694</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -2814,40 +2816,40 @@
         <v>192</v>
       </c>
       <c r="B38" s="79">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C38" s="79">
-        <v>1</v>
+        <v>975</v>
       </c>
       <c r="D38" s="79">
-        <v>1.5</v>
+        <v>1.4630000000000001</v>
       </c>
       <c r="E38" s="79">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="F38" s="79">
-        <v>2.5</v>
+        <v>2.4380000000000002</v>
       </c>
       <c r="G38" s="79">
-        <v>3</v>
+        <v>2.9249999999999998</v>
       </c>
       <c r="H38" s="79">
-        <v>3.5</v>
+        <v>3.4129999999999998</v>
       </c>
       <c r="I38" s="79">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J38" s="79">
-        <v>4.5</v>
+        <v>4.3879999999999999</v>
       </c>
       <c r="K38" s="79">
-        <v>5</v>
+        <v>4.875</v>
       </c>
       <c r="L38" s="79">
-        <v>5.5</v>
+        <v>5.3630000000000004</v>
       </c>
       <c r="M38" s="79">
-        <v>6</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -2855,40 +2857,40 @@
         <v>193</v>
       </c>
       <c r="B39" s="79">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="C39" s="79">
-        <v>1.026</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="D39" s="79">
-        <v>1.5389999999999999</v>
+        <v>1.502</v>
       </c>
       <c r="E39" s="79">
-        <v>2.052</v>
+        <v>2.0019999999999998</v>
       </c>
       <c r="F39" s="79">
-        <v>2.5649999999999999</v>
+        <v>2.5030000000000001</v>
       </c>
       <c r="G39" s="79">
-        <v>3.0779999999999998</v>
+        <v>3.0030000000000001</v>
       </c>
       <c r="H39" s="79">
-        <v>3.5910000000000002</v>
+        <v>3.504</v>
       </c>
       <c r="I39" s="79">
-        <v>4.1040000000000001</v>
+        <v>4.0039999999999996</v>
       </c>
       <c r="J39" s="79">
-        <v>4.617</v>
+        <v>4.5049999999999999</v>
       </c>
       <c r="K39" s="79">
-        <v>5.13</v>
+        <v>5.0049999999999999</v>
       </c>
       <c r="L39" s="79">
-        <v>5.6429999999999998</v>
+        <v>5.5060000000000002</v>
       </c>
       <c r="M39" s="79">
-        <v>6.1559999999999997</v>
+        <v>6.0060000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -2896,40 +2898,40 @@
         <v>194</v>
       </c>
       <c r="B40" s="79">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="C40" s="79">
-        <v>1.054</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="D40" s="79">
-        <v>1.581</v>
+        <v>1.5409999999999999</v>
       </c>
       <c r="E40" s="79">
-        <v>2.1080000000000001</v>
+        <v>2.0539999999999998</v>
       </c>
       <c r="F40" s="79">
-        <v>2.6349999999999998</v>
+        <v>2.5680000000000001</v>
       </c>
       <c r="G40" s="79">
-        <v>3.1619999999999999</v>
+        <v>3.081</v>
       </c>
       <c r="H40" s="79">
-        <v>3.6890000000000001</v>
+        <v>3.5950000000000002</v>
       </c>
       <c r="I40" s="79">
-        <v>4.2160000000000002</v>
+        <v>4.1079999999999997</v>
       </c>
       <c r="J40" s="79">
-        <v>4.7430000000000003</v>
+        <v>4.6219999999999999</v>
       </c>
       <c r="K40" s="79">
-        <v>5.27</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="L40" s="79">
-        <v>5.7969999999999997</v>
+        <v>5.649</v>
       </c>
       <c r="M40" s="79">
-        <v>6.3239999999999998</v>
+        <v>6.1619999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2942,6 +2944,1478 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A5:M40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="84"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="81"/>
+      <c r="B6" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="J6" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="K6" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="L6" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="M6" s="77" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="79">
+        <v>87</v>
+      </c>
+      <c r="C7" s="79">
+        <v>174</v>
+      </c>
+      <c r="D7" s="79">
+        <v>261</v>
+      </c>
+      <c r="E7" s="79">
+        <v>348</v>
+      </c>
+      <c r="F7" s="79">
+        <v>435</v>
+      </c>
+      <c r="G7" s="79">
+        <v>522</v>
+      </c>
+      <c r="H7" s="79">
+        <v>609</v>
+      </c>
+      <c r="I7" s="79">
+        <v>696</v>
+      </c>
+      <c r="J7" s="79">
+        <v>783</v>
+      </c>
+      <c r="K7" s="79">
+        <v>870</v>
+      </c>
+      <c r="L7" s="79">
+        <v>957</v>
+      </c>
+      <c r="M7" s="79">
+        <v>1.044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="79">
+        <v>100</v>
+      </c>
+      <c r="C8" s="79">
+        <v>200</v>
+      </c>
+      <c r="D8" s="79">
+        <v>300</v>
+      </c>
+      <c r="E8" s="79">
+        <v>400</v>
+      </c>
+      <c r="F8" s="79">
+        <v>500</v>
+      </c>
+      <c r="G8" s="79">
+        <v>600</v>
+      </c>
+      <c r="H8" s="79">
+        <v>700</v>
+      </c>
+      <c r="I8" s="79">
+        <v>800</v>
+      </c>
+      <c r="J8" s="79">
+        <v>900</v>
+      </c>
+      <c r="K8" s="79">
+        <v>1</v>
+      </c>
+      <c r="L8" s="79">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M8" s="79">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="79">
+        <v>113</v>
+      </c>
+      <c r="C9" s="79">
+        <v>226</v>
+      </c>
+      <c r="D9" s="79">
+        <v>339</v>
+      </c>
+      <c r="E9" s="79">
+        <v>452</v>
+      </c>
+      <c r="F9" s="79">
+        <v>565</v>
+      </c>
+      <c r="G9" s="79">
+        <v>678</v>
+      </c>
+      <c r="H9" s="79">
+        <v>791</v>
+      </c>
+      <c r="I9" s="79">
+        <v>904</v>
+      </c>
+      <c r="J9" s="79">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="K9" s="79">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L9" s="79">
+        <v>1.2430000000000001</v>
+      </c>
+      <c r="M9" s="79">
+        <v>1.3560000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="79">
+        <v>127</v>
+      </c>
+      <c r="C10" s="79">
+        <v>254</v>
+      </c>
+      <c r="D10" s="79">
+        <v>381</v>
+      </c>
+      <c r="E10" s="79">
+        <v>508</v>
+      </c>
+      <c r="F10" s="79">
+        <v>635</v>
+      </c>
+      <c r="G10" s="79">
+        <v>762</v>
+      </c>
+      <c r="H10" s="79">
+        <v>889</v>
+      </c>
+      <c r="I10" s="79">
+        <v>1.016</v>
+      </c>
+      <c r="J10" s="79">
+        <v>1.143</v>
+      </c>
+      <c r="K10" s="79">
+        <v>1.27</v>
+      </c>
+      <c r="L10" s="79">
+        <v>1.397</v>
+      </c>
+      <c r="M10" s="79">
+        <v>1.524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="79">
+        <v>140</v>
+      </c>
+      <c r="C11" s="79">
+        <v>280</v>
+      </c>
+      <c r="D11" s="79">
+        <v>420</v>
+      </c>
+      <c r="E11" s="79">
+        <v>560</v>
+      </c>
+      <c r="F11" s="79">
+        <v>700</v>
+      </c>
+      <c r="G11" s="79">
+        <v>840</v>
+      </c>
+      <c r="H11" s="79">
+        <v>980</v>
+      </c>
+      <c r="I11" s="79">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J11" s="79">
+        <v>1.26</v>
+      </c>
+      <c r="K11" s="79">
+        <v>1.4</v>
+      </c>
+      <c r="L11" s="79">
+        <v>1.54</v>
+      </c>
+      <c r="M11" s="79">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="79">
+        <v>153</v>
+      </c>
+      <c r="C12" s="79">
+        <v>306</v>
+      </c>
+      <c r="D12" s="79">
+        <v>459</v>
+      </c>
+      <c r="E12" s="79">
+        <v>612</v>
+      </c>
+      <c r="F12" s="79">
+        <v>765</v>
+      </c>
+      <c r="G12" s="79">
+        <v>918</v>
+      </c>
+      <c r="H12" s="79">
+        <v>1.071</v>
+      </c>
+      <c r="I12" s="79">
+        <v>1.224</v>
+      </c>
+      <c r="J12" s="79">
+        <v>1.377</v>
+      </c>
+      <c r="K12" s="79">
+        <v>1.53</v>
+      </c>
+      <c r="L12" s="79">
+        <v>1.6830000000000001</v>
+      </c>
+      <c r="M12" s="79">
+        <v>1.8360000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="79">
+        <v>167</v>
+      </c>
+      <c r="C13" s="79">
+        <v>334</v>
+      </c>
+      <c r="D13" s="79">
+        <v>501</v>
+      </c>
+      <c r="E13" s="79">
+        <v>668</v>
+      </c>
+      <c r="F13" s="79">
+        <v>835</v>
+      </c>
+      <c r="G13" s="79">
+        <v>1.002</v>
+      </c>
+      <c r="H13" s="79">
+        <v>1.169</v>
+      </c>
+      <c r="I13" s="79">
+        <v>1.3360000000000001</v>
+      </c>
+      <c r="J13" s="79">
+        <v>1.5029999999999999</v>
+      </c>
+      <c r="K13" s="79">
+        <v>1.67</v>
+      </c>
+      <c r="L13" s="79">
+        <v>1.837</v>
+      </c>
+      <c r="M13" s="79">
+        <v>2.004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="79">
+        <v>180</v>
+      </c>
+      <c r="C14" s="79">
+        <v>360</v>
+      </c>
+      <c r="D14" s="79">
+        <v>540</v>
+      </c>
+      <c r="E14" s="79">
+        <v>720</v>
+      </c>
+      <c r="F14" s="79">
+        <v>900</v>
+      </c>
+      <c r="G14" s="79">
+        <v>1.08</v>
+      </c>
+      <c r="H14" s="79">
+        <v>1.26</v>
+      </c>
+      <c r="I14" s="79">
+        <v>1.44</v>
+      </c>
+      <c r="J14" s="79">
+        <v>1.62</v>
+      </c>
+      <c r="K14" s="79">
+        <v>1.8</v>
+      </c>
+      <c r="L14" s="79">
+        <v>1.98</v>
+      </c>
+      <c r="M14" s="79">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="79">
+        <v>193</v>
+      </c>
+      <c r="C15" s="79">
+        <v>386</v>
+      </c>
+      <c r="D15" s="79">
+        <v>579</v>
+      </c>
+      <c r="E15" s="79">
+        <v>772</v>
+      </c>
+      <c r="F15" s="79">
+        <v>965</v>
+      </c>
+      <c r="G15" s="79">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="H15" s="79">
+        <v>1.351</v>
+      </c>
+      <c r="I15" s="79">
+        <v>1.544</v>
+      </c>
+      <c r="J15" s="79">
+        <v>1.7370000000000001</v>
+      </c>
+      <c r="K15" s="79">
+        <v>1.93</v>
+      </c>
+      <c r="L15" s="79">
+        <v>2.1230000000000002</v>
+      </c>
+      <c r="M15" s="79">
+        <v>2.3159999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="79">
+        <v>207</v>
+      </c>
+      <c r="C16" s="79">
+        <v>414</v>
+      </c>
+      <c r="D16" s="79">
+        <v>621</v>
+      </c>
+      <c r="E16" s="79">
+        <v>828</v>
+      </c>
+      <c r="F16" s="79">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="G16" s="79">
+        <v>1.242</v>
+      </c>
+      <c r="H16" s="79">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="I16" s="79">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="J16" s="79">
+        <v>1.863</v>
+      </c>
+      <c r="K16" s="79">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L16" s="79">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="M16" s="79">
+        <v>2.484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="79">
+        <v>220</v>
+      </c>
+      <c r="C17" s="79">
+        <v>440</v>
+      </c>
+      <c r="D17" s="79">
+        <v>660</v>
+      </c>
+      <c r="E17" s="79">
+        <v>880</v>
+      </c>
+      <c r="F17" s="79">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G17" s="79">
+        <v>1.32</v>
+      </c>
+      <c r="H17" s="79">
+        <v>1.54</v>
+      </c>
+      <c r="I17" s="79">
+        <v>1.76</v>
+      </c>
+      <c r="J17" s="79">
+        <v>1.98</v>
+      </c>
+      <c r="K17" s="79">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L17" s="79">
+        <v>2.42</v>
+      </c>
+      <c r="M17" s="79">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="79">
+        <v>233</v>
+      </c>
+      <c r="C18" s="79">
+        <v>466</v>
+      </c>
+      <c r="D18" s="79">
+        <v>699</v>
+      </c>
+      <c r="E18" s="79">
+        <v>932</v>
+      </c>
+      <c r="F18" s="79">
+        <v>1.165</v>
+      </c>
+      <c r="G18" s="79">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="H18" s="79">
+        <v>1.631</v>
+      </c>
+      <c r="I18" s="79">
+        <v>1.8640000000000001</v>
+      </c>
+      <c r="J18" s="79">
+        <v>2.097</v>
+      </c>
+      <c r="K18" s="79">
+        <v>2.33</v>
+      </c>
+      <c r="L18" s="79">
+        <v>2.5630000000000002</v>
+      </c>
+      <c r="M18" s="79">
+        <v>2.7959999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="79">
+        <v>247</v>
+      </c>
+      <c r="C19" s="79">
+        <v>494</v>
+      </c>
+      <c r="D19" s="79">
+        <v>741</v>
+      </c>
+      <c r="E19" s="79">
+        <v>988</v>
+      </c>
+      <c r="F19" s="79">
+        <v>1.2350000000000001</v>
+      </c>
+      <c r="G19" s="79">
+        <v>1.482</v>
+      </c>
+      <c r="H19" s="79">
+        <v>1.7290000000000001</v>
+      </c>
+      <c r="I19" s="79">
+        <v>1.976</v>
+      </c>
+      <c r="J19" s="79">
+        <v>2.2229999999999999</v>
+      </c>
+      <c r="K19" s="79">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="L19" s="79">
+        <v>2.7170000000000001</v>
+      </c>
+      <c r="M19" s="79">
+        <v>2.964</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="79">
+        <v>260</v>
+      </c>
+      <c r="C20" s="79">
+        <v>520</v>
+      </c>
+      <c r="D20" s="79">
+        <v>780</v>
+      </c>
+      <c r="E20" s="79">
+        <v>1.04</v>
+      </c>
+      <c r="F20" s="79">
+        <v>1.3</v>
+      </c>
+      <c r="G20" s="79">
+        <v>1.56</v>
+      </c>
+      <c r="H20" s="79">
+        <v>1.82</v>
+      </c>
+      <c r="I20" s="79">
+        <v>2.08</v>
+      </c>
+      <c r="J20" s="79">
+        <v>2.34</v>
+      </c>
+      <c r="K20" s="79">
+        <v>2.6</v>
+      </c>
+      <c r="L20" s="79">
+        <v>2.86</v>
+      </c>
+      <c r="M20" s="79">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="79">
+        <v>273</v>
+      </c>
+      <c r="C21" s="79">
+        <v>546</v>
+      </c>
+      <c r="D21" s="79">
+        <v>819</v>
+      </c>
+      <c r="E21" s="79">
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="F21" s="79">
+        <v>1.365</v>
+      </c>
+      <c r="G21" s="79">
+        <v>1.6379999999999999</v>
+      </c>
+      <c r="H21" s="79">
+        <v>1.911</v>
+      </c>
+      <c r="I21" s="79">
+        <v>2.1840000000000002</v>
+      </c>
+      <c r="J21" s="79">
+        <v>2.4569999999999999</v>
+      </c>
+      <c r="K21" s="79">
+        <v>2.73</v>
+      </c>
+      <c r="L21" s="79">
+        <v>3.0030000000000001</v>
+      </c>
+      <c r="M21" s="79">
+        <v>3.2759999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="79">
+        <v>287</v>
+      </c>
+      <c r="C22" s="79">
+        <v>574</v>
+      </c>
+      <c r="D22" s="79">
+        <v>861</v>
+      </c>
+      <c r="E22" s="79">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="F22" s="79">
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="G22" s="79">
+        <v>1.722</v>
+      </c>
+      <c r="H22" s="79">
+        <v>2.0089999999999999</v>
+      </c>
+      <c r="I22" s="79">
+        <v>2.2959999999999998</v>
+      </c>
+      <c r="J22" s="79">
+        <v>2.5830000000000002</v>
+      </c>
+      <c r="K22" s="79">
+        <v>2.87</v>
+      </c>
+      <c r="L22" s="79">
+        <v>3.157</v>
+      </c>
+      <c r="M22" s="79">
+        <v>3.444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="79">
+        <v>300</v>
+      </c>
+      <c r="C23" s="79">
+        <v>600</v>
+      </c>
+      <c r="D23" s="79">
+        <v>900</v>
+      </c>
+      <c r="E23" s="79">
+        <v>1.2</v>
+      </c>
+      <c r="F23" s="79">
+        <v>1.5</v>
+      </c>
+      <c r="G23" s="79">
+        <v>1.8</v>
+      </c>
+      <c r="H23" s="79">
+        <v>2.1</v>
+      </c>
+      <c r="I23" s="79">
+        <v>2.4</v>
+      </c>
+      <c r="J23" s="79">
+        <v>2.7</v>
+      </c>
+      <c r="K23" s="79">
+        <v>3</v>
+      </c>
+      <c r="L23" s="79">
+        <v>3.3</v>
+      </c>
+      <c r="M23" s="79">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="79">
+        <v>313</v>
+      </c>
+      <c r="C24" s="79">
+        <v>626</v>
+      </c>
+      <c r="D24" s="79">
+        <v>939</v>
+      </c>
+      <c r="E24" s="79">
+        <v>1.252</v>
+      </c>
+      <c r="F24" s="79">
+        <v>1.5649999999999999</v>
+      </c>
+      <c r="G24" s="79">
+        <v>1.8779999999999999</v>
+      </c>
+      <c r="H24" s="79">
+        <v>2.1909999999999998</v>
+      </c>
+      <c r="I24" s="79">
+        <v>2.504</v>
+      </c>
+      <c r="J24" s="79">
+        <v>2.8170000000000002</v>
+      </c>
+      <c r="K24" s="79">
+        <v>3.13</v>
+      </c>
+      <c r="L24" s="79">
+        <v>3.4430000000000001</v>
+      </c>
+      <c r="M24" s="79">
+        <v>3.7559999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="79">
+        <v>327</v>
+      </c>
+      <c r="C25" s="79">
+        <v>654</v>
+      </c>
+      <c r="D25" s="79">
+        <v>981</v>
+      </c>
+      <c r="E25" s="79">
+        <v>1.3080000000000001</v>
+      </c>
+      <c r="F25" s="79">
+        <v>1.635</v>
+      </c>
+      <c r="G25" s="79">
+        <v>1.962</v>
+      </c>
+      <c r="H25" s="79">
+        <v>2.2890000000000001</v>
+      </c>
+      <c r="I25" s="79">
+        <v>2.6160000000000001</v>
+      </c>
+      <c r="J25" s="79">
+        <v>2.9430000000000001</v>
+      </c>
+      <c r="K25" s="79">
+        <v>3.27</v>
+      </c>
+      <c r="L25" s="79">
+        <v>3.597</v>
+      </c>
+      <c r="M25" s="79">
+        <v>3.9239999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" s="79">
+        <v>340</v>
+      </c>
+      <c r="C26" s="79">
+        <v>680</v>
+      </c>
+      <c r="D26" s="79">
+        <v>1.02</v>
+      </c>
+      <c r="E26" s="79">
+        <v>1.36</v>
+      </c>
+      <c r="F26" s="79">
+        <v>1.7</v>
+      </c>
+      <c r="G26" s="79">
+        <v>2.04</v>
+      </c>
+      <c r="H26" s="79">
+        <v>2.38</v>
+      </c>
+      <c r="I26" s="79">
+        <v>2.72</v>
+      </c>
+      <c r="J26" s="79">
+        <v>3.06</v>
+      </c>
+      <c r="K26" s="79">
+        <v>3.4</v>
+      </c>
+      <c r="L26" s="79">
+        <v>3.74</v>
+      </c>
+      <c r="M26" s="79">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="79">
+        <v>353</v>
+      </c>
+      <c r="C27" s="79">
+        <v>706</v>
+      </c>
+      <c r="D27" s="79">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="E27" s="79">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="F27" s="79">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="G27" s="79">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="H27" s="79">
+        <v>2.4710000000000001</v>
+      </c>
+      <c r="I27" s="79">
+        <v>2.8239999999999998</v>
+      </c>
+      <c r="J27" s="79">
+        <v>3.177</v>
+      </c>
+      <c r="K27" s="79">
+        <v>3.53</v>
+      </c>
+      <c r="L27" s="79">
+        <v>3.883</v>
+      </c>
+      <c r="M27" s="79">
+        <v>4.2359999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="79">
+        <v>367</v>
+      </c>
+      <c r="C28" s="79">
+        <v>734</v>
+      </c>
+      <c r="D28" s="79">
+        <v>1.101</v>
+      </c>
+      <c r="E28" s="79">
+        <v>1.468</v>
+      </c>
+      <c r="F28" s="79">
+        <v>1.835</v>
+      </c>
+      <c r="G28" s="79">
+        <v>2.202</v>
+      </c>
+      <c r="H28" s="79">
+        <v>2.569</v>
+      </c>
+      <c r="I28" s="79">
+        <v>2.9359999999999999</v>
+      </c>
+      <c r="J28" s="79">
+        <v>3.3029999999999999</v>
+      </c>
+      <c r="K28" s="79">
+        <v>3.67</v>
+      </c>
+      <c r="L28" s="79">
+        <v>4.0369999999999999</v>
+      </c>
+      <c r="M28" s="79">
+        <v>4.4039999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="79">
+        <v>380</v>
+      </c>
+      <c r="C29" s="79">
+        <v>760</v>
+      </c>
+      <c r="D29" s="79">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E29" s="79">
+        <v>1.52</v>
+      </c>
+      <c r="F29" s="79">
+        <v>1.9</v>
+      </c>
+      <c r="G29" s="79">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H29" s="79">
+        <v>2.66</v>
+      </c>
+      <c r="I29" s="79">
+        <v>3.04</v>
+      </c>
+      <c r="J29" s="79">
+        <v>3.42</v>
+      </c>
+      <c r="K29" s="79">
+        <v>3.8</v>
+      </c>
+      <c r="L29" s="79">
+        <v>4.18</v>
+      </c>
+      <c r="M29" s="79">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="79">
+        <v>393</v>
+      </c>
+      <c r="C30" s="79">
+        <v>786</v>
+      </c>
+      <c r="D30" s="79">
+        <v>1.179</v>
+      </c>
+      <c r="E30" s="79">
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="F30" s="79">
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="G30" s="79">
+        <v>2.3580000000000001</v>
+      </c>
+      <c r="H30" s="79">
+        <v>2.7509999999999999</v>
+      </c>
+      <c r="I30" s="79">
+        <v>3.1440000000000001</v>
+      </c>
+      <c r="J30" s="79">
+        <v>3.5369999999999999</v>
+      </c>
+      <c r="K30" s="79">
+        <v>3.93</v>
+      </c>
+      <c r="L30" s="79">
+        <v>4.3230000000000004</v>
+      </c>
+      <c r="M30" s="79">
+        <v>4.7160000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="79">
+        <v>407</v>
+      </c>
+      <c r="C31" s="79">
+        <v>814</v>
+      </c>
+      <c r="D31" s="79">
+        <v>1.2210000000000001</v>
+      </c>
+      <c r="E31" s="79">
+        <v>1.6279999999999999</v>
+      </c>
+      <c r="F31" s="79">
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="G31" s="79">
+        <v>2.4420000000000002</v>
+      </c>
+      <c r="H31" s="79">
+        <v>2.8490000000000002</v>
+      </c>
+      <c r="I31" s="79">
+        <v>3.2559999999999998</v>
+      </c>
+      <c r="J31" s="79">
+        <v>3.6629999999999998</v>
+      </c>
+      <c r="K31" s="79">
+        <v>4.07</v>
+      </c>
+      <c r="L31" s="79">
+        <v>4.4770000000000003</v>
+      </c>
+      <c r="M31" s="79">
+        <v>4.8840000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="79">
+        <v>420</v>
+      </c>
+      <c r="C32" s="79">
+        <v>840</v>
+      </c>
+      <c r="D32" s="79">
+        <v>1.26</v>
+      </c>
+      <c r="E32" s="79">
+        <v>1.68</v>
+      </c>
+      <c r="F32" s="79">
+        <v>2.1</v>
+      </c>
+      <c r="G32" s="79">
+        <v>2.52</v>
+      </c>
+      <c r="H32" s="79">
+        <v>2.94</v>
+      </c>
+      <c r="I32" s="79">
+        <v>3.36</v>
+      </c>
+      <c r="J32" s="79">
+        <v>3.78</v>
+      </c>
+      <c r="K32" s="79">
+        <v>4.2</v>
+      </c>
+      <c r="L32" s="79">
+        <v>4.62</v>
+      </c>
+      <c r="M32" s="79">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" s="79">
+        <v>433</v>
+      </c>
+      <c r="C33" s="79">
+        <v>866</v>
+      </c>
+      <c r="D33" s="79">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="E33" s="79">
+        <v>1.732</v>
+      </c>
+      <c r="F33" s="79">
+        <v>2.165</v>
+      </c>
+      <c r="G33" s="79">
+        <v>2.5979999999999999</v>
+      </c>
+      <c r="H33" s="79">
+        <v>3.0310000000000001</v>
+      </c>
+      <c r="I33" s="79">
+        <v>3.464</v>
+      </c>
+      <c r="J33" s="79">
+        <v>3.8969999999999998</v>
+      </c>
+      <c r="K33" s="79">
+        <v>4.33</v>
+      </c>
+      <c r="L33" s="79">
+        <v>4.7629999999999999</v>
+      </c>
+      <c r="M33" s="79">
+        <v>5.1959999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="79">
+        <v>447</v>
+      </c>
+      <c r="C34" s="79">
+        <v>894</v>
+      </c>
+      <c r="D34" s="79">
+        <v>1.341</v>
+      </c>
+      <c r="E34" s="79">
+        <v>1.788</v>
+      </c>
+      <c r="F34" s="79">
+        <v>2.2349999999999999</v>
+      </c>
+      <c r="G34" s="79">
+        <v>2.6819999999999999</v>
+      </c>
+      <c r="H34" s="79">
+        <v>3.129</v>
+      </c>
+      <c r="I34" s="79">
+        <v>3.5760000000000001</v>
+      </c>
+      <c r="J34" s="79">
+        <v>4.0229999999999997</v>
+      </c>
+      <c r="K34" s="79">
+        <v>4.47</v>
+      </c>
+      <c r="L34" s="79">
+        <v>4.9169999999999998</v>
+      </c>
+      <c r="M34" s="79">
+        <v>5.3639999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" s="79">
+        <v>460</v>
+      </c>
+      <c r="C35" s="79">
+        <v>920</v>
+      </c>
+      <c r="D35" s="79">
+        <v>1.38</v>
+      </c>
+      <c r="E35" s="79">
+        <v>1.84</v>
+      </c>
+      <c r="F35" s="79">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G35" s="79">
+        <v>2.76</v>
+      </c>
+      <c r="H35" s="79">
+        <v>3.22</v>
+      </c>
+      <c r="I35" s="79">
+        <v>3.68</v>
+      </c>
+      <c r="J35" s="79">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="K35" s="79">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L35" s="79">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="M35" s="79">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" s="79">
+        <v>473</v>
+      </c>
+      <c r="C36" s="79">
+        <v>946</v>
+      </c>
+      <c r="D36" s="79">
+        <v>1.419</v>
+      </c>
+      <c r="E36" s="79">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="F36" s="79">
+        <v>2.3650000000000002</v>
+      </c>
+      <c r="G36" s="79">
+        <v>2.8380000000000001</v>
+      </c>
+      <c r="H36" s="79">
+        <v>3.3109999999999999</v>
+      </c>
+      <c r="I36" s="79">
+        <v>3.7839999999999998</v>
+      </c>
+      <c r="J36" s="79">
+        <v>4.2569999999999997</v>
+      </c>
+      <c r="K36" s="79">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="L36" s="79">
+        <v>5.2030000000000003</v>
+      </c>
+      <c r="M36" s="79">
+        <v>5.6760000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" s="79">
+        <v>487</v>
+      </c>
+      <c r="C37" s="79">
+        <v>974</v>
+      </c>
+      <c r="D37" s="79">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="E37" s="79">
+        <v>1.948</v>
+      </c>
+      <c r="F37" s="79">
+        <v>2.4350000000000001</v>
+      </c>
+      <c r="G37" s="79">
+        <v>2.9220000000000002</v>
+      </c>
+      <c r="H37" s="79">
+        <v>3.4089999999999998</v>
+      </c>
+      <c r="I37" s="79">
+        <v>3.8959999999999999</v>
+      </c>
+      <c r="J37" s="79">
+        <v>4.383</v>
+      </c>
+      <c r="K37" s="79">
+        <v>4.87</v>
+      </c>
+      <c r="L37" s="79">
+        <v>5.3570000000000002</v>
+      </c>
+      <c r="M37" s="79">
+        <v>5.8440000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" s="79">
+        <v>500</v>
+      </c>
+      <c r="C38" s="79">
+        <v>1</v>
+      </c>
+      <c r="D38" s="79">
+        <v>1.5</v>
+      </c>
+      <c r="E38" s="79">
+        <v>2</v>
+      </c>
+      <c r="F38" s="79">
+        <v>2.5</v>
+      </c>
+      <c r="G38" s="79">
+        <v>3</v>
+      </c>
+      <c r="H38" s="79">
+        <v>3.5</v>
+      </c>
+      <c r="I38" s="79">
+        <v>4</v>
+      </c>
+      <c r="J38" s="79">
+        <v>4.5</v>
+      </c>
+      <c r="K38" s="79">
+        <v>5</v>
+      </c>
+      <c r="L38" s="79">
+        <v>5.5</v>
+      </c>
+      <c r="M38" s="79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="79">
+        <v>513</v>
+      </c>
+      <c r="C39" s="79">
+        <v>1.026</v>
+      </c>
+      <c r="D39" s="79">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="E39" s="79">
+        <v>2.052</v>
+      </c>
+      <c r="F39" s="79">
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="G39" s="79">
+        <v>3.0779999999999998</v>
+      </c>
+      <c r="H39" s="79">
+        <v>3.5910000000000002</v>
+      </c>
+      <c r="I39" s="79">
+        <v>4.1040000000000001</v>
+      </c>
+      <c r="J39" s="79">
+        <v>4.617</v>
+      </c>
+      <c r="K39" s="79">
+        <v>5.13</v>
+      </c>
+      <c r="L39" s="79">
+        <v>5.6429999999999998</v>
+      </c>
+      <c r="M39" s="79">
+        <v>6.1559999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" s="79">
+        <v>527</v>
+      </c>
+      <c r="C40" s="79">
+        <v>1.054</v>
+      </c>
+      <c r="D40" s="79">
+        <v>1.581</v>
+      </c>
+      <c r="E40" s="79">
+        <v>2.1080000000000001</v>
+      </c>
+      <c r="F40" s="79">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="G40" s="79">
+        <v>3.1619999999999999</v>
+      </c>
+      <c r="H40" s="79">
+        <v>3.6890000000000001</v>
+      </c>
+      <c r="I40" s="79">
+        <v>4.2160000000000002</v>
+      </c>
+      <c r="J40" s="79">
+        <v>4.7430000000000003</v>
+      </c>
+      <c r="K40" s="79">
+        <v>5.27</v>
+      </c>
+      <c r="L40" s="79">
+        <v>5.7969999999999997</v>
+      </c>
+      <c r="M40" s="79">
+        <v>6.3239999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:M5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2982,15 +4456,15 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="86" t="s">
+      <c r="C6" s="92"/>
+      <c r="D6" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -3015,10 +4489,10 @@
       <c r="C10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="88"/>
+      <c r="E10" s="84"/>
       <c r="F10" s="8" t="s">
         <v>5</v>
       </c>
@@ -3027,13 +4501,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="90"/>
+      <c r="E11" s="89"/>
       <c r="F11" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -3042,11 +4516,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C12" s="81"/>
-      <c r="D12" s="89" t="s">
+      <c r="C12" s="86"/>
+      <c r="D12" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="90"/>
+      <c r="E12" s="89"/>
       <c r="F12" s="12">
         <v>0.01</v>
       </c>
@@ -3055,11 +4529,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C13" s="81"/>
-      <c r="D13" s="89" t="s">
+      <c r="C13" s="86"/>
+      <c r="D13" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="90"/>
+      <c r="E13" s="89"/>
       <c r="F13" s="12">
         <v>0.01</v>
       </c>
@@ -3068,11 +4542,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="87" x14ac:dyDescent="0.3">
-      <c r="C14" s="82"/>
-      <c r="D14" s="89" t="s">
+      <c r="C14" s="81"/>
+      <c r="D14" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="90"/>
+      <c r="E14" s="89"/>
       <c r="F14" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -3081,13 +4555,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="89" t="s">
+      <c r="D15" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="90"/>
+      <c r="E15" s="89"/>
       <c r="F15" s="12">
         <v>0.01</v>
       </c>
@@ -3096,11 +4570,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C16" s="81"/>
-      <c r="D16" s="89" t="s">
+      <c r="C16" s="86"/>
+      <c r="D16" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="90"/>
+      <c r="E16" s="89"/>
       <c r="F16" s="13" t="s">
         <v>17</v>
       </c>
@@ -3109,11 +4583,11 @@
       </c>
     </row>
     <row r="17" spans="3:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C17" s="81"/>
-      <c r="D17" s="89" t="s">
+      <c r="C17" s="86"/>
+      <c r="D17" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="90"/>
+      <c r="E17" s="89"/>
       <c r="F17" s="14" t="s">
         <v>17</v>
       </c>
@@ -3122,11 +4596,11 @@
       </c>
     </row>
     <row r="18" spans="3:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C18" s="81"/>
-      <c r="D18" s="89" t="s">
+      <c r="C18" s="86"/>
+      <c r="D18" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="90"/>
+      <c r="E18" s="89"/>
       <c r="F18" s="14" t="s">
         <v>17</v>
       </c>
@@ -3135,11 +4609,11 @@
       </c>
     </row>
     <row r="19" spans="3:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C19" s="81"/>
-      <c r="D19" s="89" t="s">
+      <c r="C19" s="86"/>
+      <c r="D19" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="90"/>
+      <c r="E19" s="89"/>
       <c r="F19" s="13" t="s">
         <v>17</v>
       </c>
@@ -3148,11 +4622,11 @@
       </c>
     </row>
     <row r="20" spans="3:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C20" s="81"/>
-      <c r="D20" s="89" t="s">
+      <c r="C20" s="86"/>
+      <c r="D20" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="90"/>
+      <c r="E20" s="89"/>
       <c r="F20" s="12">
         <v>0.01</v>
       </c>
@@ -3161,11 +4635,11 @@
       </c>
     </row>
     <row r="21" spans="3:7" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="C21" s="82"/>
-      <c r="D21" s="89" t="s">
+      <c r="C21" s="81"/>
+      <c r="D21" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="90"/>
+      <c r="E21" s="89"/>
       <c r="F21" s="12">
         <v>0.01</v>
       </c>
@@ -3174,13 +4648,13 @@
       </c>
     </row>
     <row r="22" spans="3:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="89" t="s">
+      <c r="D22" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="90"/>
+      <c r="E22" s="89"/>
       <c r="F22" s="13" t="s">
         <v>17</v>
       </c>
@@ -3189,11 +4663,11 @@
       </c>
     </row>
     <row r="23" spans="3:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C23" s="81"/>
-      <c r="D23" s="89" t="s">
+      <c r="C23" s="86"/>
+      <c r="D23" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="90"/>
+      <c r="E23" s="89"/>
       <c r="F23" s="12">
         <v>0.1</v>
       </c>
@@ -3202,8 +4676,8 @@
       </c>
     </row>
     <row r="24" spans="3:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C24" s="81"/>
-      <c r="D24" s="91" t="s">
+      <c r="C24" s="86"/>
+      <c r="D24" s="97" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="15" t="s">
@@ -3217,8 +4691,8 @@
       </c>
     </row>
     <row r="25" spans="3:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C25" s="81"/>
-      <c r="D25" s="92"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="98"/>
       <c r="E25" s="15" t="s">
         <v>31</v>
       </c>
@@ -3230,8 +4704,8 @@
       </c>
     </row>
     <row r="26" spans="3:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C26" s="81"/>
-      <c r="D26" s="90"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="89"/>
       <c r="E26" s="15" t="s">
         <v>32</v>
       </c>
@@ -3243,8 +4717,8 @@
       </c>
     </row>
     <row r="27" spans="3:7" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="C27" s="81"/>
-      <c r="D27" s="91" t="s">
+      <c r="C27" s="86"/>
+      <c r="D27" s="97" t="s">
         <v>33</v>
       </c>
       <c r="E27" s="15" t="s">
@@ -3258,8 +4732,8 @@
       </c>
     </row>
     <row r="28" spans="3:7" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="C28" s="81"/>
-      <c r="D28" s="90"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="89"/>
       <c r="E28" s="15" t="s">
         <v>35</v>
       </c>
@@ -3271,11 +4745,11 @@
       </c>
     </row>
     <row r="29" spans="3:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C29" s="82"/>
-      <c r="D29" s="89" t="s">
+      <c r="C29" s="81"/>
+      <c r="D29" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="90"/>
+      <c r="E29" s="89"/>
       <c r="F29" s="12">
         <v>0.01</v>
       </c>
@@ -3287,10 +4761,10 @@
       <c r="C30" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="89" t="s">
+      <c r="D30" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="90"/>
+      <c r="E30" s="89"/>
       <c r="F30" s="13" t="s">
         <v>17</v>
       </c>
@@ -3299,13 +4773,13 @@
       </c>
     </row>
     <row r="31" spans="3:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C31" s="83" t="s">
+      <c r="C31" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="89" t="s">
+      <c r="D31" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="90"/>
+      <c r="E31" s="89"/>
       <c r="F31" s="13" t="s">
         <v>30</v>
       </c>
@@ -3314,11 +4788,11 @@
       </c>
     </row>
     <row r="32" spans="3:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C32" s="82"/>
-      <c r="D32" s="89" t="s">
+      <c r="C32" s="81"/>
+      <c r="D32" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="90"/>
+      <c r="E32" s="89"/>
       <c r="F32" s="12">
         <v>0.03</v>
       </c>
@@ -3327,13 +4801,13 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="89" t="s">
+      <c r="D33" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="90"/>
+      <c r="E33" s="89"/>
       <c r="F33" s="12">
         <v>0.02</v>
       </c>
@@ -3342,11 +4816,11 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C34" s="81"/>
-      <c r="D34" s="89" t="s">
+      <c r="C34" s="86"/>
+      <c r="D34" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="90"/>
+      <c r="E34" s="89"/>
       <c r="F34" s="12">
         <v>0.01</v>
       </c>
@@ -3355,11 +4829,11 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C35" s="81"/>
-      <c r="D35" s="89" t="s">
+      <c r="C35" s="86"/>
+      <c r="D35" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="90"/>
+      <c r="E35" s="89"/>
       <c r="F35" s="13" t="s">
         <v>17</v>
       </c>
@@ -3368,11 +4842,11 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C36" s="81"/>
-      <c r="D36" s="89" t="s">
+      <c r="C36" s="86"/>
+      <c r="D36" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="90"/>
+      <c r="E36" s="89"/>
       <c r="F36" s="13" t="s">
         <v>17</v>
       </c>
@@ -3381,11 +4855,11 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="C37" s="82"/>
-      <c r="D37" s="89" t="s">
+      <c r="C37" s="81"/>
+      <c r="D37" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="90"/>
+      <c r="E37" s="89"/>
       <c r="F37" s="12">
         <v>0.01</v>
       </c>
@@ -3394,13 +4868,13 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="C38" s="80" t="s">
+      <c r="C38" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="89" t="s">
+      <c r="D38" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="90"/>
+      <c r="E38" s="89"/>
       <c r="F38" s="12">
         <v>0.1</v>
       </c>
@@ -3409,11 +4883,11 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C39" s="81"/>
-      <c r="D39" s="89" t="s">
+      <c r="C39" s="86"/>
+      <c r="D39" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="90"/>
+      <c r="E39" s="89"/>
       <c r="F39" s="12">
         <v>0.1</v>
       </c>
@@ -3422,11 +4896,11 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="C40" s="82"/>
-      <c r="D40" s="89" t="s">
+      <c r="C40" s="81"/>
+      <c r="D40" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="90"/>
+      <c r="E40" s="89"/>
       <c r="F40" s="13" t="s">
         <v>55</v>
       </c>
@@ -3435,13 +4909,13 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C41" s="93" t="s">
+      <c r="C41" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="89"/>
     </row>
     <row r="42" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="C42" s="17"/>
@@ -3472,10 +4946,10 @@
       <c r="C45" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="98" t="s">
+      <c r="D45" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="88"/>
+      <c r="E45" s="84"/>
       <c r="F45" s="23" t="s">
         <v>60</v>
       </c>
@@ -3506,10 +4980,10 @@
       <c r="C46" s="24">
         <v>1</v>
       </c>
-      <c r="D46" s="99" t="s">
+      <c r="D46" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="E46" s="90"/>
+      <c r="E46" s="89"/>
       <c r="F46" s="25">
         <v>0.8</v>
       </c>
@@ -3521,10 +4995,10 @@
       <c r="C47" s="24">
         <v>2</v>
       </c>
-      <c r="D47" s="99" t="s">
+      <c r="D47" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="90"/>
+      <c r="E47" s="89"/>
       <c r="F47" s="25">
         <v>0.65</v>
       </c>
@@ -3534,10 +5008,10 @@
       <c r="C48" s="24">
         <v>3</v>
       </c>
-      <c r="D48" s="99" t="s">
+      <c r="D48" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="90"/>
+      <c r="E48" s="89"/>
       <c r="F48" s="28" t="s">
         <v>66</v>
       </c>
@@ -3549,10 +5023,10 @@
       <c r="C49" s="24">
         <v>4</v>
       </c>
-      <c r="D49" s="99" t="s">
+      <c r="D49" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="90"/>
+      <c r="E49" s="89"/>
       <c r="F49" s="29" t="s">
         <v>69</v>
       </c>
@@ -3564,23 +5038,23 @@
       <c r="C50" s="24">
         <v>4</v>
       </c>
-      <c r="D50" s="99" t="s">
+      <c r="D50" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="94"/>
-      <c r="F50" s="94"/>
-      <c r="G50" s="90"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="89"/>
     </row>
     <row r="51" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="C51" s="24">
         <v>5</v>
       </c>
-      <c r="D51" s="99" t="s">
+      <c r="D51" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="94"/>
-      <c r="F51" s="94"/>
-      <c r="G51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="89"/>
     </row>
     <row r="52" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="C52" s="17"/>
@@ -3607,11 +5081,11 @@
     </row>
     <row r="55" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D55" s="18"/>
-      <c r="E55" s="95" t="s">
+      <c r="E55" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
+      <c r="F55" s="92"/>
+      <c r="G55" s="92"/>
     </row>
     <row r="56" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="C56" s="32"/>
@@ -3691,11 +5165,11 @@
       <c r="C64" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="D64" s="86" t="s">
+      <c r="D64" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
+      <c r="E64" s="92"/>
+      <c r="F64" s="92"/>
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -3725,7 +5199,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="4:7" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="D69" s="96" t="s">
+      <c r="D69" s="94" t="s">
         <v>82</v>
       </c>
       <c r="E69" s="11" t="s">
@@ -3737,7 +5211,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="4:7" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="D70" s="82"/>
+      <c r="D70" s="81"/>
       <c r="E70" s="11" t="s">
         <v>85</v>
       </c>
@@ -3747,7 +5221,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="4:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="D71" s="96" t="s">
+      <c r="D71" s="94" t="s">
         <v>87</v>
       </c>
       <c r="E71" s="11" t="s">
@@ -3759,7 +5233,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="4:7" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="D72" s="81"/>
+      <c r="D72" s="86"/>
       <c r="E72" s="11" t="s">
         <v>90</v>
       </c>
@@ -3769,7 +5243,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="4:7" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="D73" s="82"/>
+      <c r="D73" s="81"/>
       <c r="E73" s="11" t="s">
         <v>91</v>
       </c>
@@ -3779,7 +5253,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="4:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="D74" s="96" t="s">
+      <c r="D74" s="94" t="s">
         <v>92</v>
       </c>
       <c r="E74" s="11" t="s">
@@ -3791,7 +5265,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="4:7" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="D75" s="81"/>
+      <c r="D75" s="86"/>
       <c r="E75" s="11" t="s">
         <v>90</v>
       </c>
@@ -3801,7 +5275,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="4:7" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="D76" s="82"/>
+      <c r="D76" s="81"/>
       <c r="E76" s="11" t="s">
         <v>91</v>
       </c>
@@ -3879,7 +5353,7 @@
       </c>
     </row>
     <row r="87" spans="4:7" ht="87" x14ac:dyDescent="0.3">
-      <c r="D87" s="97" t="s">
+      <c r="D87" s="85" t="s">
         <v>100</v>
       </c>
       <c r="E87" s="52" t="s">
@@ -3893,7 +5367,7 @@
       </c>
     </row>
     <row r="88" spans="4:7" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="D88" s="81"/>
+      <c r="D88" s="86"/>
       <c r="E88" s="52" t="s">
         <v>103</v>
       </c>
@@ -3905,7 +5379,7 @@
       </c>
     </row>
     <row r="89" spans="4:7" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="D89" s="82"/>
+      <c r="D89" s="81"/>
       <c r="E89" s="52" t="s">
         <v>105</v>
       </c>
@@ -3917,7 +5391,7 @@
       </c>
     </row>
     <row r="90" spans="4:7" ht="87" x14ac:dyDescent="0.3">
-      <c r="D90" s="97" t="s">
+      <c r="D90" s="85" t="s">
         <v>92</v>
       </c>
       <c r="E90" s="52" t="s">
@@ -3931,7 +5405,7 @@
       </c>
     </row>
     <row r="91" spans="4:7" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="D91" s="81"/>
+      <c r="D91" s="86"/>
       <c r="E91" s="52" t="s">
         <v>103</v>
       </c>
@@ -3943,7 +5417,7 @@
       </c>
     </row>
     <row r="92" spans="4:7" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="D92" s="82"/>
+      <c r="D92" s="81"/>
       <c r="E92" s="52" t="s">
         <v>110</v>
       </c>
@@ -3983,7 +5457,7 @@
       </c>
     </row>
     <row r="95" spans="4:7" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="D95" s="97" t="s">
+      <c r="D95" s="85" t="s">
         <v>54</v>
       </c>
       <c r="E95" s="52" t="s">
@@ -3997,7 +5471,7 @@
       </c>
     </row>
     <row r="96" spans="4:7" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="D96" s="82"/>
+      <c r="D96" s="81"/>
       <c r="E96" s="52" t="s">
         <v>122</v>
       </c>
@@ -7636,6 +9110,43 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="C38:C40"/>
     <mergeCell ref="D87:D89"/>
     <mergeCell ref="D90:D92"/>
     <mergeCell ref="D95:D96"/>
@@ -7651,50 +9162,13 @@
     <mergeCell ref="D69:D70"/>
     <mergeCell ref="D71:D73"/>
     <mergeCell ref="D74:D76"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7771,18 +9245,18 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="86" t="s">
+      <c r="C6" s="92"/>
+      <c r="D6" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
@@ -7807,37 +9281,37 @@
       <c r="C10" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="100" t="s">
+      <c r="D10" s="103" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="88"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="84"/>
     </row>
     <row r="11" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B11" s="63"/>
       <c r="C11" s="64"/>
-      <c r="D11" s="100" t="s">
+      <c r="D11" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="101"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="100" t="s">
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="H11" s="101"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="100" t="s">
+      <c r="H11" s="83"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="K11" s="101"/>
-      <c r="L11" s="88"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="84"/>
       <c r="M11" s="65"/>
     </row>
     <row r="12" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.3">
@@ -17434,7 +18908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -17449,26 +18923,26 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="88"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="76" t="s">
         <v>149</v>
       </c>
@@ -18904,1478 +20378,6 @@
   <mergeCells count="2">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:M4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="B3:N38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="102" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="103" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="88"/>
-    </row>
-    <row r="4" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="82"/>
-      <c r="C4" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="77" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>153</v>
-      </c>
-      <c r="H4" s="77" t="s">
-        <v>154</v>
-      </c>
-      <c r="I4" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="J4" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="K4" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="L4" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="M4" s="77" t="s">
-        <v>159</v>
-      </c>
-      <c r="N4" s="77" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="79">
-        <v>89</v>
-      </c>
-      <c r="D5" s="79">
-        <v>178</v>
-      </c>
-      <c r="E5" s="79">
-        <v>267</v>
-      </c>
-      <c r="F5" s="79">
-        <v>356</v>
-      </c>
-      <c r="G5" s="79">
-        <v>445</v>
-      </c>
-      <c r="H5" s="79">
-        <v>534</v>
-      </c>
-      <c r="I5" s="79">
-        <v>623</v>
-      </c>
-      <c r="J5" s="79">
-        <v>712</v>
-      </c>
-      <c r="K5" s="79">
-        <v>801</v>
-      </c>
-      <c r="L5" s="79">
-        <v>890</v>
-      </c>
-      <c r="M5" s="79">
-        <v>979</v>
-      </c>
-      <c r="N5" s="79">
-        <v>1.0680000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="79">
-        <v>103</v>
-      </c>
-      <c r="D6" s="79">
-        <v>206</v>
-      </c>
-      <c r="E6" s="79">
-        <v>309</v>
-      </c>
-      <c r="F6" s="79">
-        <v>412</v>
-      </c>
-      <c r="G6" s="79">
-        <v>515</v>
-      </c>
-      <c r="H6" s="79">
-        <v>618</v>
-      </c>
-      <c r="I6" s="79">
-        <v>721</v>
-      </c>
-      <c r="J6" s="79">
-        <v>824</v>
-      </c>
-      <c r="K6" s="79">
-        <v>927</v>
-      </c>
-      <c r="L6" s="79">
-        <v>1.03</v>
-      </c>
-      <c r="M6" s="79">
-        <v>1.133</v>
-      </c>
-      <c r="N6" s="79">
-        <v>1.236</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="78" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="79">
-        <v>116</v>
-      </c>
-      <c r="D7" s="79">
-        <v>232</v>
-      </c>
-      <c r="E7" s="79">
-        <v>348</v>
-      </c>
-      <c r="F7" s="79">
-        <v>464</v>
-      </c>
-      <c r="G7" s="79">
-        <v>580</v>
-      </c>
-      <c r="H7" s="79">
-        <v>696</v>
-      </c>
-      <c r="I7" s="79">
-        <v>812</v>
-      </c>
-      <c r="J7" s="79">
-        <v>928</v>
-      </c>
-      <c r="K7" s="79">
-        <v>1.044</v>
-      </c>
-      <c r="L7" s="79">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="M7" s="79">
-        <v>1.276</v>
-      </c>
-      <c r="N7" s="79">
-        <v>1.3919999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="78" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="79">
-        <v>130</v>
-      </c>
-      <c r="D8" s="79">
-        <v>260</v>
-      </c>
-      <c r="E8" s="79">
-        <v>390</v>
-      </c>
-      <c r="F8" s="79">
-        <v>520</v>
-      </c>
-      <c r="G8" s="79">
-        <v>650</v>
-      </c>
-      <c r="H8" s="79">
-        <v>780</v>
-      </c>
-      <c r="I8" s="79">
-        <v>910</v>
-      </c>
-      <c r="J8" s="79">
-        <v>1.04</v>
-      </c>
-      <c r="K8" s="79">
-        <v>1.17</v>
-      </c>
-      <c r="L8" s="79">
-        <v>1.3</v>
-      </c>
-      <c r="M8" s="79">
-        <v>1.43</v>
-      </c>
-      <c r="N8" s="79">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="78" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="79">
-        <v>144</v>
-      </c>
-      <c r="D9" s="79">
-        <v>288</v>
-      </c>
-      <c r="E9" s="79">
-        <v>432</v>
-      </c>
-      <c r="F9" s="79">
-        <v>576</v>
-      </c>
-      <c r="G9" s="79">
-        <v>720</v>
-      </c>
-      <c r="H9" s="79">
-        <v>864</v>
-      </c>
-      <c r="I9" s="79">
-        <v>1.008</v>
-      </c>
-      <c r="J9" s="79">
-        <v>1.1519999999999999</v>
-      </c>
-      <c r="K9" s="79">
-        <v>1.296</v>
-      </c>
-      <c r="L9" s="79">
-        <v>1.44</v>
-      </c>
-      <c r="M9" s="79">
-        <v>1.5840000000000001</v>
-      </c>
-      <c r="N9" s="79">
-        <v>1.728</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="78" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="79">
-        <v>157</v>
-      </c>
-      <c r="D10" s="79">
-        <v>314</v>
-      </c>
-      <c r="E10" s="79">
-        <v>471</v>
-      </c>
-      <c r="F10" s="79">
-        <v>628</v>
-      </c>
-      <c r="G10" s="79">
-        <v>785</v>
-      </c>
-      <c r="H10" s="79">
-        <v>942</v>
-      </c>
-      <c r="I10" s="79">
-        <v>1.099</v>
-      </c>
-      <c r="J10" s="79">
-        <v>1.256</v>
-      </c>
-      <c r="K10" s="79">
-        <v>1.413</v>
-      </c>
-      <c r="L10" s="79">
-        <v>1.57</v>
-      </c>
-      <c r="M10" s="79">
-        <v>1.7270000000000001</v>
-      </c>
-      <c r="N10" s="79">
-        <v>1.8839999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="78" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="79">
-        <v>171</v>
-      </c>
-      <c r="D11" s="79">
-        <v>342</v>
-      </c>
-      <c r="E11" s="79">
-        <v>513</v>
-      </c>
-      <c r="F11" s="79">
-        <v>684</v>
-      </c>
-      <c r="G11" s="79">
-        <v>855</v>
-      </c>
-      <c r="H11" s="79">
-        <v>1.026</v>
-      </c>
-      <c r="I11" s="79">
-        <v>1.1970000000000001</v>
-      </c>
-      <c r="J11" s="79">
-        <v>1.3680000000000001</v>
-      </c>
-      <c r="K11" s="79">
-        <v>1.5389999999999999</v>
-      </c>
-      <c r="L11" s="79">
-        <v>1.71</v>
-      </c>
-      <c r="M11" s="79">
-        <v>1.881</v>
-      </c>
-      <c r="N11" s="79">
-        <v>2.052</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="78" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="79">
-        <v>185</v>
-      </c>
-      <c r="D12" s="79">
-        <v>370</v>
-      </c>
-      <c r="E12" s="79">
-        <v>555</v>
-      </c>
-      <c r="F12" s="79">
-        <v>740</v>
-      </c>
-      <c r="G12" s="79">
-        <v>925</v>
-      </c>
-      <c r="H12" s="79">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I12" s="79">
-        <v>1.2949999999999999</v>
-      </c>
-      <c r="J12" s="79">
-        <v>1.48</v>
-      </c>
-      <c r="K12" s="79">
-        <v>1.665</v>
-      </c>
-      <c r="L12" s="79">
-        <v>1.85</v>
-      </c>
-      <c r="M12" s="79">
-        <v>2.0350000000000001</v>
-      </c>
-      <c r="N12" s="79">
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="79">
-        <v>198</v>
-      </c>
-      <c r="D13" s="79">
-        <v>396</v>
-      </c>
-      <c r="E13" s="79">
-        <v>594</v>
-      </c>
-      <c r="F13" s="79">
-        <v>792</v>
-      </c>
-      <c r="G13" s="79">
-        <v>990</v>
-      </c>
-      <c r="H13" s="79">
-        <v>1.1879999999999999</v>
-      </c>
-      <c r="I13" s="79">
-        <v>1.3859999999999999</v>
-      </c>
-      <c r="J13" s="79">
-        <v>1.5840000000000001</v>
-      </c>
-      <c r="K13" s="79">
-        <v>1.782</v>
-      </c>
-      <c r="L13" s="79">
-        <v>1.98</v>
-      </c>
-      <c r="M13" s="79">
-        <v>2.1779999999999999</v>
-      </c>
-      <c r="N13" s="79">
-        <v>2.3759999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="78" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="79">
-        <v>212</v>
-      </c>
-      <c r="D14" s="79">
-        <v>424</v>
-      </c>
-      <c r="E14" s="79">
-        <v>636</v>
-      </c>
-      <c r="F14" s="79">
-        <v>848</v>
-      </c>
-      <c r="G14" s="79">
-        <v>1.06</v>
-      </c>
-      <c r="H14" s="79">
-        <v>1.272</v>
-      </c>
-      <c r="I14" s="79">
-        <v>1.484</v>
-      </c>
-      <c r="J14" s="79">
-        <v>1.696</v>
-      </c>
-      <c r="K14" s="79">
-        <v>1.9079999999999999</v>
-      </c>
-      <c r="L14" s="79">
-        <v>2.12</v>
-      </c>
-      <c r="M14" s="79">
-        <v>2.3319999999999999</v>
-      </c>
-      <c r="N14" s="79">
-        <v>2.544</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="79">
-        <v>226</v>
-      </c>
-      <c r="D15" s="79">
-        <v>452</v>
-      </c>
-      <c r="E15" s="79">
-        <v>678</v>
-      </c>
-      <c r="F15" s="79">
-        <v>904</v>
-      </c>
-      <c r="G15" s="79">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="H15" s="79">
-        <v>1.3560000000000001</v>
-      </c>
-      <c r="I15" s="79">
-        <v>1.5820000000000001</v>
-      </c>
-      <c r="J15" s="79">
-        <v>1.8080000000000001</v>
-      </c>
-      <c r="K15" s="79">
-        <v>2.0339999999999998</v>
-      </c>
-      <c r="L15" s="79">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="M15" s="79">
-        <v>2.4860000000000002</v>
-      </c>
-      <c r="N15" s="79">
-        <v>2.7120000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="78" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="79">
-        <v>239</v>
-      </c>
-      <c r="D16" s="79">
-        <v>478</v>
-      </c>
-      <c r="E16" s="79">
-        <v>717</v>
-      </c>
-      <c r="F16" s="79">
-        <v>956</v>
-      </c>
-      <c r="G16" s="79">
-        <v>1.1950000000000001</v>
-      </c>
-      <c r="H16" s="79">
-        <v>1.4339999999999999</v>
-      </c>
-      <c r="I16" s="79">
-        <v>1.673</v>
-      </c>
-      <c r="J16" s="79">
-        <v>1.9119999999999999</v>
-      </c>
-      <c r="K16" s="79">
-        <v>2.1509999999999998</v>
-      </c>
-      <c r="L16" s="79">
-        <v>2.39</v>
-      </c>
-      <c r="M16" s="79">
-        <v>2.629</v>
-      </c>
-      <c r="N16" s="79">
-        <v>2.8679999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="78" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="79">
-        <v>253</v>
-      </c>
-      <c r="D17" s="79">
-        <v>506</v>
-      </c>
-      <c r="E17" s="79">
-        <v>759</v>
-      </c>
-      <c r="F17" s="79">
-        <v>1.012</v>
-      </c>
-      <c r="G17" s="79">
-        <v>1.2649999999999999</v>
-      </c>
-      <c r="H17" s="79">
-        <v>1.518</v>
-      </c>
-      <c r="I17" s="79">
-        <v>1.7709999999999999</v>
-      </c>
-      <c r="J17" s="79">
-        <v>2.024</v>
-      </c>
-      <c r="K17" s="79">
-        <v>2.2770000000000001</v>
-      </c>
-      <c r="L17" s="79">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="M17" s="79">
-        <v>2.7829999999999999</v>
-      </c>
-      <c r="N17" s="79">
-        <v>3.036</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="78" t="s">
-        <v>174</v>
-      </c>
-      <c r="C18" s="79">
-        <v>267</v>
-      </c>
-      <c r="D18" s="79">
-        <v>534</v>
-      </c>
-      <c r="E18" s="79">
-        <v>801</v>
-      </c>
-      <c r="F18" s="79">
-        <v>1.0680000000000001</v>
-      </c>
-      <c r="G18" s="79">
-        <v>1.335</v>
-      </c>
-      <c r="H18" s="79">
-        <v>1.6020000000000001</v>
-      </c>
-      <c r="I18" s="79">
-        <v>1.869</v>
-      </c>
-      <c r="J18" s="79">
-        <v>2.1360000000000001</v>
-      </c>
-      <c r="K18" s="79">
-        <v>2.403</v>
-      </c>
-      <c r="L18" s="79">
-        <v>2.67</v>
-      </c>
-      <c r="M18" s="79">
-        <v>2.9369999999999998</v>
-      </c>
-      <c r="N18" s="79">
-        <v>3.2040000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="79">
-        <v>280</v>
-      </c>
-      <c r="D19" s="79">
-        <v>560</v>
-      </c>
-      <c r="E19" s="79">
-        <v>840</v>
-      </c>
-      <c r="F19" s="79">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G19" s="79">
-        <v>1.4</v>
-      </c>
-      <c r="H19" s="79">
-        <v>1.68</v>
-      </c>
-      <c r="I19" s="79">
-        <v>1.96</v>
-      </c>
-      <c r="J19" s="79">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="K19" s="79">
-        <v>2.52</v>
-      </c>
-      <c r="L19" s="79">
-        <v>2.8</v>
-      </c>
-      <c r="M19" s="79">
-        <v>3.08</v>
-      </c>
-      <c r="N19" s="79">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="78" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="79">
-        <v>294</v>
-      </c>
-      <c r="D20" s="79">
-        <v>588</v>
-      </c>
-      <c r="E20" s="79">
-        <v>882</v>
-      </c>
-      <c r="F20" s="79">
-        <v>1.1759999999999999</v>
-      </c>
-      <c r="G20" s="79">
-        <v>1.47</v>
-      </c>
-      <c r="H20" s="79">
-        <v>1.764</v>
-      </c>
-      <c r="I20" s="79">
-        <v>2.0579999999999998</v>
-      </c>
-      <c r="J20" s="79">
-        <v>2.3519999999999999</v>
-      </c>
-      <c r="K20" s="79">
-        <v>2.6459999999999999</v>
-      </c>
-      <c r="L20" s="79">
-        <v>2.94</v>
-      </c>
-      <c r="M20" s="79">
-        <v>3.234</v>
-      </c>
-      <c r="N20" s="79">
-        <v>3.528</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="C21" s="79">
-        <v>308</v>
-      </c>
-      <c r="D21" s="79">
-        <v>616</v>
-      </c>
-      <c r="E21" s="79">
-        <v>924</v>
-      </c>
-      <c r="F21" s="79">
-        <v>1.232</v>
-      </c>
-      <c r="G21" s="79">
-        <v>1.54</v>
-      </c>
-      <c r="H21" s="79">
-        <v>1.8480000000000001</v>
-      </c>
-      <c r="I21" s="79">
-        <v>2.1560000000000001</v>
-      </c>
-      <c r="J21" s="79">
-        <v>2.464</v>
-      </c>
-      <c r="K21" s="79">
-        <v>2.7719999999999998</v>
-      </c>
-      <c r="L21" s="79">
-        <v>3.08</v>
-      </c>
-      <c r="M21" s="79">
-        <v>3.3879999999999999</v>
-      </c>
-      <c r="N21" s="79">
-        <v>3.6960000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="79">
-        <v>321</v>
-      </c>
-      <c r="D22" s="79">
-        <v>642</v>
-      </c>
-      <c r="E22" s="79">
-        <v>963</v>
-      </c>
-      <c r="F22" s="79">
-        <v>1.284</v>
-      </c>
-      <c r="G22" s="79">
-        <v>1.605</v>
-      </c>
-      <c r="H22" s="79">
-        <v>1.9259999999999999</v>
-      </c>
-      <c r="I22" s="79">
-        <v>2.2469999999999999</v>
-      </c>
-      <c r="J22" s="79">
-        <v>2.5680000000000001</v>
-      </c>
-      <c r="K22" s="79">
-        <v>2.8889999999999998</v>
-      </c>
-      <c r="L22" s="79">
-        <v>3.21</v>
-      </c>
-      <c r="M22" s="79">
-        <v>3.5310000000000001</v>
-      </c>
-      <c r="N22" s="79">
-        <v>3.8519999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="78" t="s">
-        <v>179</v>
-      </c>
-      <c r="C23" s="79">
-        <v>335</v>
-      </c>
-      <c r="D23" s="79">
-        <v>670</v>
-      </c>
-      <c r="E23" s="79">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="F23" s="79">
-        <v>1.34</v>
-      </c>
-      <c r="G23" s="79">
-        <v>1.675</v>
-      </c>
-      <c r="H23" s="79">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="I23" s="79">
-        <v>2.3450000000000002</v>
-      </c>
-      <c r="J23" s="79">
-        <v>2.68</v>
-      </c>
-      <c r="K23" s="79">
-        <v>3.0150000000000001</v>
-      </c>
-      <c r="L23" s="79">
-        <v>3.35</v>
-      </c>
-      <c r="M23" s="79">
-        <v>3.6850000000000001</v>
-      </c>
-      <c r="N23" s="79">
-        <v>4.0199999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="C24" s="79">
-        <v>349</v>
-      </c>
-      <c r="D24" s="79">
-        <v>698</v>
-      </c>
-      <c r="E24" s="79">
-        <v>1.0469999999999999</v>
-      </c>
-      <c r="F24" s="79">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="G24" s="79">
-        <v>1.7450000000000001</v>
-      </c>
-      <c r="H24" s="79">
-        <v>2.0939999999999999</v>
-      </c>
-      <c r="I24" s="79">
-        <v>2.4430000000000001</v>
-      </c>
-      <c r="J24" s="79">
-        <v>2.7919999999999998</v>
-      </c>
-      <c r="K24" s="79">
-        <v>3.141</v>
-      </c>
-      <c r="L24" s="79">
-        <v>3.49</v>
-      </c>
-      <c r="M24" s="79">
-        <v>3.839</v>
-      </c>
-      <c r="N24" s="79">
-        <v>4.1879999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="C25" s="79">
-        <v>362</v>
-      </c>
-      <c r="D25" s="79">
-        <v>724</v>
-      </c>
-      <c r="E25" s="79">
-        <v>1.0860000000000001</v>
-      </c>
-      <c r="F25" s="79">
-        <v>1.448</v>
-      </c>
-      <c r="G25" s="79">
-        <v>1.81</v>
-      </c>
-      <c r="H25" s="79">
-        <v>2.1720000000000002</v>
-      </c>
-      <c r="I25" s="79">
-        <v>2.5339999999999998</v>
-      </c>
-      <c r="J25" s="79">
-        <v>2.8959999999999999</v>
-      </c>
-      <c r="K25" s="79">
-        <v>3.258</v>
-      </c>
-      <c r="L25" s="79">
-        <v>3.62</v>
-      </c>
-      <c r="M25" s="79">
-        <v>3.9820000000000002</v>
-      </c>
-      <c r="N25" s="79">
-        <v>4.3440000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="78" t="s">
-        <v>182</v>
-      </c>
-      <c r="C26" s="79">
-        <v>376</v>
-      </c>
-      <c r="D26" s="79">
-        <v>752</v>
-      </c>
-      <c r="E26" s="79">
-        <v>1.1279999999999999</v>
-      </c>
-      <c r="F26" s="79">
-        <v>1.504</v>
-      </c>
-      <c r="G26" s="79">
-        <v>1.88</v>
-      </c>
-      <c r="H26" s="79">
-        <v>2.2559999999999998</v>
-      </c>
-      <c r="I26" s="79">
-        <v>2.6320000000000001</v>
-      </c>
-      <c r="J26" s="79">
-        <v>3.008</v>
-      </c>
-      <c r="K26" s="79">
-        <v>3.3839999999999999</v>
-      </c>
-      <c r="L26" s="79">
-        <v>3.76</v>
-      </c>
-      <c r="M26" s="79">
-        <v>4.1360000000000001</v>
-      </c>
-      <c r="N26" s="79">
-        <v>4.5119999999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" s="79">
-        <v>390</v>
-      </c>
-      <c r="D27" s="79">
-        <v>780</v>
-      </c>
-      <c r="E27" s="79">
-        <v>1.17</v>
-      </c>
-      <c r="F27" s="79">
-        <v>1.56</v>
-      </c>
-      <c r="G27" s="79">
-        <v>1.95</v>
-      </c>
-      <c r="H27" s="79">
-        <v>2.34</v>
-      </c>
-      <c r="I27" s="79">
-        <v>2.73</v>
-      </c>
-      <c r="J27" s="79">
-        <v>3.12</v>
-      </c>
-      <c r="K27" s="79">
-        <v>3.51</v>
-      </c>
-      <c r="L27" s="79">
-        <v>3.9</v>
-      </c>
-      <c r="M27" s="79">
-        <v>4.29</v>
-      </c>
-      <c r="N27" s="79">
-        <v>4.68</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="78" t="s">
-        <v>184</v>
-      </c>
-      <c r="C28" s="79">
-        <v>403</v>
-      </c>
-      <c r="D28" s="79">
-        <v>806</v>
-      </c>
-      <c r="E28" s="79">
-        <v>1.2090000000000001</v>
-      </c>
-      <c r="F28" s="79">
-        <v>1.6120000000000001</v>
-      </c>
-      <c r="G28" s="79">
-        <v>2.0150000000000001</v>
-      </c>
-      <c r="H28" s="79">
-        <v>2.4180000000000001</v>
-      </c>
-      <c r="I28" s="79">
-        <v>2.8210000000000002</v>
-      </c>
-      <c r="J28" s="79">
-        <v>3.2240000000000002</v>
-      </c>
-      <c r="K28" s="79">
-        <v>3.6269999999999998</v>
-      </c>
-      <c r="L28" s="79">
-        <v>4.03</v>
-      </c>
-      <c r="M28" s="79">
-        <v>4.4329999999999998</v>
-      </c>
-      <c r="N28" s="79">
-        <v>4.8360000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B29" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" s="79">
-        <v>417</v>
-      </c>
-      <c r="D29" s="79">
-        <v>834</v>
-      </c>
-      <c r="E29" s="79">
-        <v>1.2509999999999999</v>
-      </c>
-      <c r="F29" s="79">
-        <v>1.6679999999999999</v>
-      </c>
-      <c r="G29" s="79">
-        <v>2.085</v>
-      </c>
-      <c r="H29" s="79">
-        <v>2.5019999999999998</v>
-      </c>
-      <c r="I29" s="79">
-        <v>2.919</v>
-      </c>
-      <c r="J29" s="79">
-        <v>3.3359999999999999</v>
-      </c>
-      <c r="K29" s="79">
-        <v>3.7530000000000001</v>
-      </c>
-      <c r="L29" s="79">
-        <v>4.17</v>
-      </c>
-      <c r="M29" s="79">
-        <v>4.5869999999999997</v>
-      </c>
-      <c r="N29" s="79">
-        <v>5.0039999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B30" s="78" t="s">
-        <v>186</v>
-      </c>
-      <c r="C30" s="79">
-        <v>431</v>
-      </c>
-      <c r="D30" s="79">
-        <v>862</v>
-      </c>
-      <c r="E30" s="79">
-        <v>1.2929999999999999</v>
-      </c>
-      <c r="F30" s="79">
-        <v>1.724</v>
-      </c>
-      <c r="G30" s="79">
-        <v>2.1549999999999998</v>
-      </c>
-      <c r="H30" s="79">
-        <v>2.5859999999999999</v>
-      </c>
-      <c r="I30" s="79">
-        <v>3.0169999999999999</v>
-      </c>
-      <c r="J30" s="79">
-        <v>3.448</v>
-      </c>
-      <c r="K30" s="79">
-        <v>3.879</v>
-      </c>
-      <c r="L30" s="79">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="M30" s="79">
-        <v>4.7409999999999997</v>
-      </c>
-      <c r="N30" s="79">
-        <v>5.1719999999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B31" s="78" t="s">
-        <v>187</v>
-      </c>
-      <c r="C31" s="79">
-        <v>444</v>
-      </c>
-      <c r="D31" s="79">
-        <v>888</v>
-      </c>
-      <c r="E31" s="79">
-        <v>1.3320000000000001</v>
-      </c>
-      <c r="F31" s="79">
-        <v>1.776</v>
-      </c>
-      <c r="G31" s="79">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="H31" s="79">
-        <v>2.6640000000000001</v>
-      </c>
-      <c r="I31" s="79">
-        <v>3.1080000000000001</v>
-      </c>
-      <c r="J31" s="79">
-        <v>3.552</v>
-      </c>
-      <c r="K31" s="79">
-        <v>3.996</v>
-      </c>
-      <c r="L31" s="79">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="M31" s="79">
-        <v>4.8840000000000003</v>
-      </c>
-      <c r="N31" s="79">
-        <v>5.3280000000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B32" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="C32" s="79">
-        <v>458</v>
-      </c>
-      <c r="D32" s="79">
-        <v>916</v>
-      </c>
-      <c r="E32" s="79">
-        <v>1.3740000000000001</v>
-      </c>
-      <c r="F32" s="79">
-        <v>1.8320000000000001</v>
-      </c>
-      <c r="G32" s="79">
-        <v>2.29</v>
-      </c>
-      <c r="H32" s="79">
-        <v>2.7480000000000002</v>
-      </c>
-      <c r="I32" s="79">
-        <v>3.206</v>
-      </c>
-      <c r="J32" s="79">
-        <v>3.6640000000000001</v>
-      </c>
-      <c r="K32" s="79">
-        <v>4.1219999999999999</v>
-      </c>
-      <c r="L32" s="79">
-        <v>4.58</v>
-      </c>
-      <c r="M32" s="79">
-        <v>5.0380000000000003</v>
-      </c>
-      <c r="N32" s="79">
-        <v>5.4960000000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B33" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="C33" s="79">
-        <v>472</v>
-      </c>
-      <c r="D33" s="79">
-        <v>944</v>
-      </c>
-      <c r="E33" s="79">
-        <v>1.4159999999999999</v>
-      </c>
-      <c r="F33" s="79">
-        <v>1.8879999999999999</v>
-      </c>
-      <c r="G33" s="79">
-        <v>2.36</v>
-      </c>
-      <c r="H33" s="79">
-        <v>2.8319999999999999</v>
-      </c>
-      <c r="I33" s="79">
-        <v>3.3039999999999998</v>
-      </c>
-      <c r="J33" s="79">
-        <v>3.7759999999999998</v>
-      </c>
-      <c r="K33" s="79">
-        <v>4.2480000000000002</v>
-      </c>
-      <c r="L33" s="79">
-        <v>4.72</v>
-      </c>
-      <c r="M33" s="79">
-        <v>5.1920000000000002</v>
-      </c>
-      <c r="N33" s="79">
-        <v>5.6639999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B34" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="C34" s="79">
-        <v>485</v>
-      </c>
-      <c r="D34" s="79">
-        <v>970</v>
-      </c>
-      <c r="E34" s="79">
-        <v>1.4550000000000001</v>
-      </c>
-      <c r="F34" s="79">
-        <v>1.94</v>
-      </c>
-      <c r="G34" s="79">
-        <v>2.4249999999999998</v>
-      </c>
-      <c r="H34" s="79">
-        <v>2.91</v>
-      </c>
-      <c r="I34" s="79">
-        <v>3.395</v>
-      </c>
-      <c r="J34" s="79">
-        <v>3.88</v>
-      </c>
-      <c r="K34" s="79">
-        <v>4.3650000000000002</v>
-      </c>
-      <c r="L34" s="79">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="M34" s="79">
-        <v>5.335</v>
-      </c>
-      <c r="N34" s="79">
-        <v>5.82</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B35" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="C35" s="79">
-        <v>499</v>
-      </c>
-      <c r="D35" s="79">
-        <v>998</v>
-      </c>
-      <c r="E35" s="79">
-        <v>1.4970000000000001</v>
-      </c>
-      <c r="F35" s="79">
-        <v>1.996</v>
-      </c>
-      <c r="G35" s="79">
-        <v>2.4950000000000001</v>
-      </c>
-      <c r="H35" s="79">
-        <v>2.9940000000000002</v>
-      </c>
-      <c r="I35" s="79">
-        <v>3.4929999999999999</v>
-      </c>
-      <c r="J35" s="79">
-        <v>3.992</v>
-      </c>
-      <c r="K35" s="79">
-        <v>4.4909999999999997</v>
-      </c>
-      <c r="L35" s="79">
-        <v>4.99</v>
-      </c>
-      <c r="M35" s="79">
-        <v>5.4889999999999999</v>
-      </c>
-      <c r="N35" s="79">
-        <v>5.9880000000000004</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B36" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="C36" s="79">
-        <v>513</v>
-      </c>
-      <c r="D36" s="79">
-        <v>1.026</v>
-      </c>
-      <c r="E36" s="79">
-        <v>1.5389999999999999</v>
-      </c>
-      <c r="F36" s="79">
-        <v>2.052</v>
-      </c>
-      <c r="G36" s="79">
-        <v>2.5649999999999999</v>
-      </c>
-      <c r="H36" s="79">
-        <v>3.0779999999999998</v>
-      </c>
-      <c r="I36" s="79">
-        <v>3.5910000000000002</v>
-      </c>
-      <c r="J36" s="79">
-        <v>4.1040000000000001</v>
-      </c>
-      <c r="K36" s="79">
-        <v>4.617</v>
-      </c>
-      <c r="L36" s="79">
-        <v>5.13</v>
-      </c>
-      <c r="M36" s="79">
-        <v>5.6429999999999998</v>
-      </c>
-      <c r="N36" s="79">
-        <v>6.1559999999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B37" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="C37" s="79">
-        <v>526</v>
-      </c>
-      <c r="D37" s="79">
-        <v>1.052</v>
-      </c>
-      <c r="E37" s="79">
-        <v>1.5780000000000001</v>
-      </c>
-      <c r="F37" s="79">
-        <v>2.1040000000000001</v>
-      </c>
-      <c r="G37" s="79">
-        <v>2.63</v>
-      </c>
-      <c r="H37" s="79">
-        <v>3.1560000000000001</v>
-      </c>
-      <c r="I37" s="79">
-        <v>3.6819999999999999</v>
-      </c>
-      <c r="J37" s="79">
-        <v>4.2080000000000002</v>
-      </c>
-      <c r="K37" s="79">
-        <v>4.734</v>
-      </c>
-      <c r="L37" s="79">
-        <v>5.26</v>
-      </c>
-      <c r="M37" s="79">
-        <v>5.7859999999999996</v>
-      </c>
-      <c r="N37" s="79">
-        <v>6.3120000000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B38" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="C38" s="79">
-        <v>540</v>
-      </c>
-      <c r="D38" s="79">
-        <v>1.08</v>
-      </c>
-      <c r="E38" s="79">
-        <v>1.62</v>
-      </c>
-      <c r="F38" s="79">
-        <v>2.16</v>
-      </c>
-      <c r="G38" s="79">
-        <v>2.7</v>
-      </c>
-      <c r="H38" s="79">
-        <v>3.24</v>
-      </c>
-      <c r="I38" s="79">
-        <v>3.78</v>
-      </c>
-      <c r="J38" s="79">
-        <v>4.32</v>
-      </c>
-      <c r="K38" s="79">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="L38" s="79">
-        <v>5.4</v>
-      </c>
-      <c r="M38" s="79">
-        <v>5.94</v>
-      </c>
-      <c r="N38" s="79">
-        <v>6.48</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20386,1468 +20388,1468 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A5:M40"/>
+  <dimension ref="B3:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="102" t="s">
+    <row r="3" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="103" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="88"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
-      <c r="B6" s="76" t="s">
+      <c r="C3" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="84"/>
+    </row>
+    <row r="4" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="81"/>
+      <c r="C4" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="D4" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="E4" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="77" t="s">
+      <c r="F4" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="77" t="s">
+      <c r="G4" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="G6" s="77" t="s">
+      <c r="H4" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="H6" s="77" t="s">
+      <c r="I4" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="I6" s="77" t="s">
+      <c r="J4" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="J6" s="77" t="s">
+      <c r="K4" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="K6" s="77" t="s">
+      <c r="L4" s="77" t="s">
         <v>158</v>
       </c>
-      <c r="L6" s="77" t="s">
+      <c r="M4" s="77" t="s">
         <v>159</v>
       </c>
-      <c r="M6" s="77" t="s">
+      <c r="N4" s="77" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="78" t="s">
+    <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="79">
-        <v>85</v>
+      <c r="C5" s="79">
+        <v>89</v>
+      </c>
+      <c r="D5" s="79">
+        <v>178</v>
+      </c>
+      <c r="E5" s="79">
+        <v>267</v>
+      </c>
+      <c r="F5" s="79">
+        <v>356</v>
+      </c>
+      <c r="G5" s="79">
+        <v>445</v>
+      </c>
+      <c r="H5" s="79">
+        <v>534</v>
+      </c>
+      <c r="I5" s="79">
+        <v>623</v>
+      </c>
+      <c r="J5" s="79">
+        <v>712</v>
+      </c>
+      <c r="K5" s="79">
+        <v>801</v>
+      </c>
+      <c r="L5" s="79">
+        <v>890</v>
+      </c>
+      <c r="M5" s="79">
+        <v>979</v>
+      </c>
+      <c r="N5" s="79">
+        <v>1.0680000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="79">
+        <v>103</v>
+      </c>
+      <c r="D6" s="79">
+        <v>206</v>
+      </c>
+      <c r="E6" s="79">
+        <v>309</v>
+      </c>
+      <c r="F6" s="79">
+        <v>412</v>
+      </c>
+      <c r="G6" s="79">
+        <v>515</v>
+      </c>
+      <c r="H6" s="79">
+        <v>618</v>
+      </c>
+      <c r="I6" s="79">
+        <v>721</v>
+      </c>
+      <c r="J6" s="79">
+        <v>824</v>
+      </c>
+      <c r="K6" s="79">
+        <v>927</v>
+      </c>
+      <c r="L6" s="79">
+        <v>1.03</v>
+      </c>
+      <c r="M6" s="79">
+        <v>1.133</v>
+      </c>
+      <c r="N6" s="79">
+        <v>1.236</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="78" t="s">
+        <v>163</v>
       </c>
       <c r="C7" s="79">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="D7" s="79">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="E7" s="79">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="F7" s="79">
-        <v>423</v>
+        <v>464</v>
       </c>
       <c r="G7" s="79">
-        <v>507</v>
+        <v>580</v>
       </c>
       <c r="H7" s="79">
-        <v>592</v>
+        <v>696</v>
       </c>
       <c r="I7" s="79">
-        <v>676</v>
+        <v>812</v>
       </c>
       <c r="J7" s="79">
-        <v>761</v>
+        <v>928</v>
       </c>
       <c r="K7" s="79">
-        <v>845</v>
+        <v>1.044</v>
       </c>
       <c r="L7" s="79">
-        <v>930</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="M7" s="79">
-        <v>1.014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="79">
-        <v>98</v>
+        <v>1.276</v>
+      </c>
+      <c r="N7" s="79">
+        <v>1.3919999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="78" t="s">
+        <v>164</v>
       </c>
       <c r="C8" s="79">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="D8" s="79">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="E8" s="79">
         <v>390</v>
       </c>
       <c r="F8" s="79">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="G8" s="79">
-        <v>585</v>
+        <v>650</v>
       </c>
       <c r="H8" s="79">
-        <v>683</v>
+        <v>780</v>
       </c>
       <c r="I8" s="79">
+        <v>910</v>
+      </c>
+      <c r="J8" s="79">
+        <v>1.04</v>
+      </c>
+      <c r="K8" s="79">
+        <v>1.17</v>
+      </c>
+      <c r="L8" s="79">
+        <v>1.3</v>
+      </c>
+      <c r="M8" s="79">
+        <v>1.43</v>
+      </c>
+      <c r="N8" s="79">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="79">
+        <v>144</v>
+      </c>
+      <c r="D9" s="79">
+        <v>288</v>
+      </c>
+      <c r="E9" s="79">
+        <v>432</v>
+      </c>
+      <c r="F9" s="79">
+        <v>576</v>
+      </c>
+      <c r="G9" s="79">
+        <v>720</v>
+      </c>
+      <c r="H9" s="79">
+        <v>864</v>
+      </c>
+      <c r="I9" s="79">
+        <v>1.008</v>
+      </c>
+      <c r="J9" s="79">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="K9" s="79">
+        <v>1.296</v>
+      </c>
+      <c r="L9" s="79">
+        <v>1.44</v>
+      </c>
+      <c r="M9" s="79">
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="N9" s="79">
+        <v>1.728</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="79">
+        <v>157</v>
+      </c>
+      <c r="D10" s="79">
+        <v>314</v>
+      </c>
+      <c r="E10" s="79">
+        <v>471</v>
+      </c>
+      <c r="F10" s="79">
+        <v>628</v>
+      </c>
+      <c r="G10" s="79">
+        <v>785</v>
+      </c>
+      <c r="H10" s="79">
+        <v>942</v>
+      </c>
+      <c r="I10" s="79">
+        <v>1.099</v>
+      </c>
+      <c r="J10" s="79">
+        <v>1.256</v>
+      </c>
+      <c r="K10" s="79">
+        <v>1.413</v>
+      </c>
+      <c r="L10" s="79">
+        <v>1.57</v>
+      </c>
+      <c r="M10" s="79">
+        <v>1.7270000000000001</v>
+      </c>
+      <c r="N10" s="79">
+        <v>1.8839999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="79">
+        <v>171</v>
+      </c>
+      <c r="D11" s="79">
+        <v>342</v>
+      </c>
+      <c r="E11" s="79">
+        <v>513</v>
+      </c>
+      <c r="F11" s="79">
+        <v>684</v>
+      </c>
+      <c r="G11" s="79">
+        <v>855</v>
+      </c>
+      <c r="H11" s="79">
+        <v>1.026</v>
+      </c>
+      <c r="I11" s="79">
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="J11" s="79">
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="K11" s="79">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="L11" s="79">
+        <v>1.71</v>
+      </c>
+      <c r="M11" s="79">
+        <v>1.881</v>
+      </c>
+      <c r="N11" s="79">
+        <v>2.052</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="79">
+        <v>185</v>
+      </c>
+      <c r="D12" s="79">
+        <v>370</v>
+      </c>
+      <c r="E12" s="79">
+        <v>555</v>
+      </c>
+      <c r="F12" s="79">
+        <v>740</v>
+      </c>
+      <c r="G12" s="79">
+        <v>925</v>
+      </c>
+      <c r="H12" s="79">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I12" s="79">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="J12" s="79">
+        <v>1.48</v>
+      </c>
+      <c r="K12" s="79">
+        <v>1.665</v>
+      </c>
+      <c r="L12" s="79">
+        <v>1.85</v>
+      </c>
+      <c r="M12" s="79">
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="N12" s="79">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="79">
+        <v>198</v>
+      </c>
+      <c r="D13" s="79">
+        <v>396</v>
+      </c>
+      <c r="E13" s="79">
+        <v>594</v>
+      </c>
+      <c r="F13" s="79">
+        <v>792</v>
+      </c>
+      <c r="G13" s="79">
+        <v>990</v>
+      </c>
+      <c r="H13" s="79">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="I13" s="79">
+        <v>1.3859999999999999</v>
+      </c>
+      <c r="J13" s="79">
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="K13" s="79">
+        <v>1.782</v>
+      </c>
+      <c r="L13" s="79">
+        <v>1.98</v>
+      </c>
+      <c r="M13" s="79">
+        <v>2.1779999999999999</v>
+      </c>
+      <c r="N13" s="79">
+        <v>2.3759999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="79">
+        <v>212</v>
+      </c>
+      <c r="D14" s="79">
+        <v>424</v>
+      </c>
+      <c r="E14" s="79">
+        <v>636</v>
+      </c>
+      <c r="F14" s="79">
+        <v>848</v>
+      </c>
+      <c r="G14" s="79">
+        <v>1.06</v>
+      </c>
+      <c r="H14" s="79">
+        <v>1.272</v>
+      </c>
+      <c r="I14" s="79">
+        <v>1.484</v>
+      </c>
+      <c r="J14" s="79">
+        <v>1.696</v>
+      </c>
+      <c r="K14" s="79">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="L14" s="79">
+        <v>2.12</v>
+      </c>
+      <c r="M14" s="79">
+        <v>2.3319999999999999</v>
+      </c>
+      <c r="N14" s="79">
+        <v>2.544</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="79">
+        <v>226</v>
+      </c>
+      <c r="D15" s="79">
+        <v>452</v>
+      </c>
+      <c r="E15" s="79">
+        <v>678</v>
+      </c>
+      <c r="F15" s="79">
+        <v>904</v>
+      </c>
+      <c r="G15" s="79">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H15" s="79">
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="I15" s="79">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="J15" s="79">
+        <v>1.8080000000000001</v>
+      </c>
+      <c r="K15" s="79">
+        <v>2.0339999999999998</v>
+      </c>
+      <c r="L15" s="79">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="M15" s="79">
+        <v>2.4860000000000002</v>
+      </c>
+      <c r="N15" s="79">
+        <v>2.7120000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="79">
+        <v>239</v>
+      </c>
+      <c r="D16" s="79">
+        <v>478</v>
+      </c>
+      <c r="E16" s="79">
+        <v>717</v>
+      </c>
+      <c r="F16" s="79">
+        <v>956</v>
+      </c>
+      <c r="G16" s="79">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="H16" s="79">
+        <v>1.4339999999999999</v>
+      </c>
+      <c r="I16" s="79">
+        <v>1.673</v>
+      </c>
+      <c r="J16" s="79">
+        <v>1.9119999999999999</v>
+      </c>
+      <c r="K16" s="79">
+        <v>2.1509999999999998</v>
+      </c>
+      <c r="L16" s="79">
+        <v>2.39</v>
+      </c>
+      <c r="M16" s="79">
+        <v>2.629</v>
+      </c>
+      <c r="N16" s="79">
+        <v>2.8679999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="79">
+        <v>253</v>
+      </c>
+      <c r="D17" s="79">
+        <v>506</v>
+      </c>
+      <c r="E17" s="79">
+        <v>759</v>
+      </c>
+      <c r="F17" s="79">
+        <v>1.012</v>
+      </c>
+      <c r="G17" s="79">
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="H17" s="79">
+        <v>1.518</v>
+      </c>
+      <c r="I17" s="79">
+        <v>1.7709999999999999</v>
+      </c>
+      <c r="J17" s="79">
+        <v>2.024</v>
+      </c>
+      <c r="K17" s="79">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="L17" s="79">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="M17" s="79">
+        <v>2.7829999999999999</v>
+      </c>
+      <c r="N17" s="79">
+        <v>3.036</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="79">
+        <v>267</v>
+      </c>
+      <c r="D18" s="79">
+        <v>534</v>
+      </c>
+      <c r="E18" s="79">
+        <v>801</v>
+      </c>
+      <c r="F18" s="79">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="G18" s="79">
+        <v>1.335</v>
+      </c>
+      <c r="H18" s="79">
+        <v>1.6020000000000001</v>
+      </c>
+      <c r="I18" s="79">
+        <v>1.869</v>
+      </c>
+      <c r="J18" s="79">
+        <v>2.1360000000000001</v>
+      </c>
+      <c r="K18" s="79">
+        <v>2.403</v>
+      </c>
+      <c r="L18" s="79">
+        <v>2.67</v>
+      </c>
+      <c r="M18" s="79">
+        <v>2.9369999999999998</v>
+      </c>
+      <c r="N18" s="79">
+        <v>3.2040000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="79">
+        <v>280</v>
+      </c>
+      <c r="D19" s="79">
+        <v>560</v>
+      </c>
+      <c r="E19" s="79">
+        <v>840</v>
+      </c>
+      <c r="F19" s="79">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G19" s="79">
+        <v>1.4</v>
+      </c>
+      <c r="H19" s="79">
+        <v>1.68</v>
+      </c>
+      <c r="I19" s="79">
+        <v>1.96</v>
+      </c>
+      <c r="J19" s="79">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="K19" s="79">
+        <v>2.52</v>
+      </c>
+      <c r="L19" s="79">
+        <v>2.8</v>
+      </c>
+      <c r="M19" s="79">
+        <v>3.08</v>
+      </c>
+      <c r="N19" s="79">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="79">
+        <v>294</v>
+      </c>
+      <c r="D20" s="79">
+        <v>588</v>
+      </c>
+      <c r="E20" s="79">
+        <v>882</v>
+      </c>
+      <c r="F20" s="79">
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="G20" s="79">
+        <v>1.47</v>
+      </c>
+      <c r="H20" s="79">
+        <v>1.764</v>
+      </c>
+      <c r="I20" s="79">
+        <v>2.0579999999999998</v>
+      </c>
+      <c r="J20" s="79">
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="K20" s="79">
+        <v>2.6459999999999999</v>
+      </c>
+      <c r="L20" s="79">
+        <v>2.94</v>
+      </c>
+      <c r="M20" s="79">
+        <v>3.234</v>
+      </c>
+      <c r="N20" s="79">
+        <v>3.528</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="79">
+        <v>308</v>
+      </c>
+      <c r="D21" s="79">
+        <v>616</v>
+      </c>
+      <c r="E21" s="79">
+        <v>924</v>
+      </c>
+      <c r="F21" s="79">
+        <v>1.232</v>
+      </c>
+      <c r="G21" s="79">
+        <v>1.54</v>
+      </c>
+      <c r="H21" s="79">
+        <v>1.8480000000000001</v>
+      </c>
+      <c r="I21" s="79">
+        <v>2.1560000000000001</v>
+      </c>
+      <c r="J21" s="79">
+        <v>2.464</v>
+      </c>
+      <c r="K21" s="79">
+        <v>2.7719999999999998</v>
+      </c>
+      <c r="L21" s="79">
+        <v>3.08</v>
+      </c>
+      <c r="M21" s="79">
+        <v>3.3879999999999999</v>
+      </c>
+      <c r="N21" s="79">
+        <v>3.6960000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="79">
+        <v>321</v>
+      </c>
+      <c r="D22" s="79">
+        <v>642</v>
+      </c>
+      <c r="E22" s="79">
+        <v>963</v>
+      </c>
+      <c r="F22" s="79">
+        <v>1.284</v>
+      </c>
+      <c r="G22" s="79">
+        <v>1.605</v>
+      </c>
+      <c r="H22" s="79">
+        <v>1.9259999999999999</v>
+      </c>
+      <c r="I22" s="79">
+        <v>2.2469999999999999</v>
+      </c>
+      <c r="J22" s="79">
+        <v>2.5680000000000001</v>
+      </c>
+      <c r="K22" s="79">
+        <v>2.8889999999999998</v>
+      </c>
+      <c r="L22" s="79">
+        <v>3.21</v>
+      </c>
+      <c r="M22" s="79">
+        <v>3.5310000000000001</v>
+      </c>
+      <c r="N22" s="79">
+        <v>3.8519999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="79">
+        <v>335</v>
+      </c>
+      <c r="D23" s="79">
+        <v>670</v>
+      </c>
+      <c r="E23" s="79">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="F23" s="79">
+        <v>1.34</v>
+      </c>
+      <c r="G23" s="79">
+        <v>1.675</v>
+      </c>
+      <c r="H23" s="79">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I23" s="79">
+        <v>2.3450000000000002</v>
+      </c>
+      <c r="J23" s="79">
+        <v>2.68</v>
+      </c>
+      <c r="K23" s="79">
+        <v>3.0150000000000001</v>
+      </c>
+      <c r="L23" s="79">
+        <v>3.35</v>
+      </c>
+      <c r="M23" s="79">
+        <v>3.6850000000000001</v>
+      </c>
+      <c r="N23" s="79">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="79">
+        <v>349</v>
+      </c>
+      <c r="D24" s="79">
+        <v>698</v>
+      </c>
+      <c r="E24" s="79">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="F24" s="79">
+        <v>1.3959999999999999</v>
+      </c>
+      <c r="G24" s="79">
+        <v>1.7450000000000001</v>
+      </c>
+      <c r="H24" s="79">
+        <v>2.0939999999999999</v>
+      </c>
+      <c r="I24" s="79">
+        <v>2.4430000000000001</v>
+      </c>
+      <c r="J24" s="79">
+        <v>2.7919999999999998</v>
+      </c>
+      <c r="K24" s="79">
+        <v>3.141</v>
+      </c>
+      <c r="L24" s="79">
+        <v>3.49</v>
+      </c>
+      <c r="M24" s="79">
+        <v>3.839</v>
+      </c>
+      <c r="N24" s="79">
+        <v>4.1879999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="79">
+        <v>362</v>
+      </c>
+      <c r="D25" s="79">
+        <v>724</v>
+      </c>
+      <c r="E25" s="79">
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="F25" s="79">
+        <v>1.448</v>
+      </c>
+      <c r="G25" s="79">
+        <v>1.81</v>
+      </c>
+      <c r="H25" s="79">
+        <v>2.1720000000000002</v>
+      </c>
+      <c r="I25" s="79">
+        <v>2.5339999999999998</v>
+      </c>
+      <c r="J25" s="79">
+        <v>2.8959999999999999</v>
+      </c>
+      <c r="K25" s="79">
+        <v>3.258</v>
+      </c>
+      <c r="L25" s="79">
+        <v>3.62</v>
+      </c>
+      <c r="M25" s="79">
+        <v>3.9820000000000002</v>
+      </c>
+      <c r="N25" s="79">
+        <v>4.3440000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="79">
+        <v>376</v>
+      </c>
+      <c r="D26" s="79">
+        <v>752</v>
+      </c>
+      <c r="E26" s="79">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="F26" s="79">
+        <v>1.504</v>
+      </c>
+      <c r="G26" s="79">
+        <v>1.88</v>
+      </c>
+      <c r="H26" s="79">
+        <v>2.2559999999999998</v>
+      </c>
+      <c r="I26" s="79">
+        <v>2.6320000000000001</v>
+      </c>
+      <c r="J26" s="79">
+        <v>3.008</v>
+      </c>
+      <c r="K26" s="79">
+        <v>3.3839999999999999</v>
+      </c>
+      <c r="L26" s="79">
+        <v>3.76</v>
+      </c>
+      <c r="M26" s="79">
+        <v>4.1360000000000001</v>
+      </c>
+      <c r="N26" s="79">
+        <v>4.5119999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="79">
+        <v>390</v>
+      </c>
+      <c r="D27" s="79">
         <v>780</v>
       </c>
-      <c r="J8" s="79">
-        <v>878</v>
-      </c>
-      <c r="K8" s="79">
-        <v>975</v>
-      </c>
-      <c r="L8" s="79">
-        <v>1.073</v>
-      </c>
-      <c r="M8" s="79">
+      <c r="E27" s="79">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="78" t="s">
-        <v>163</v>
-      </c>
-      <c r="B9" s="79">
-        <v>111</v>
-      </c>
-      <c r="C9" s="79">
-        <v>221</v>
-      </c>
-      <c r="D9" s="79">
-        <v>332</v>
-      </c>
-      <c r="E9" s="79">
-        <v>442</v>
-      </c>
-      <c r="F9" s="79">
-        <v>553</v>
-      </c>
-      <c r="G9" s="79">
-        <v>663</v>
-      </c>
-      <c r="H9" s="79">
-        <v>774</v>
-      </c>
-      <c r="I9" s="79">
-        <v>884</v>
-      </c>
-      <c r="J9" s="79">
-        <v>995</v>
-      </c>
-      <c r="K9" s="79">
-        <v>1.105</v>
-      </c>
-      <c r="L9" s="79">
-        <v>1.216</v>
-      </c>
-      <c r="M9" s="79">
-        <v>1.3260000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="78" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" s="79">
-        <v>124</v>
-      </c>
-      <c r="C10" s="79">
-        <v>247</v>
-      </c>
-      <c r="D10" s="79">
-        <v>371</v>
-      </c>
-      <c r="E10" s="79">
-        <v>494</v>
-      </c>
-      <c r="F10" s="79">
-        <v>618</v>
-      </c>
-      <c r="G10" s="79">
-        <v>741</v>
-      </c>
-      <c r="H10" s="79">
-        <v>865</v>
-      </c>
-      <c r="I10" s="79">
-        <v>988</v>
-      </c>
-      <c r="J10" s="79">
-        <v>1.1120000000000001</v>
-      </c>
-      <c r="K10" s="79">
-        <v>1.2350000000000001</v>
-      </c>
-      <c r="L10" s="79">
-        <v>1.359</v>
-      </c>
-      <c r="M10" s="79">
-        <v>1.482</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="78" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="79">
-        <v>137</v>
-      </c>
-      <c r="C11" s="79">
-        <v>273</v>
-      </c>
-      <c r="D11" s="79">
-        <v>410</v>
-      </c>
-      <c r="E11" s="79">
-        <v>546</v>
-      </c>
-      <c r="F11" s="79">
-        <v>683</v>
-      </c>
-      <c r="G11" s="79">
-        <v>819</v>
-      </c>
-      <c r="H11" s="79">
-        <v>956</v>
-      </c>
-      <c r="I11" s="79">
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="J11" s="79">
-        <v>1.2290000000000001</v>
-      </c>
-      <c r="K11" s="79">
-        <v>1.365</v>
-      </c>
-      <c r="L11" s="79">
-        <v>1.502</v>
-      </c>
-      <c r="M11" s="79">
-        <v>1.6379999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="78" t="s">
-        <v>166</v>
-      </c>
-      <c r="B12" s="79">
-        <v>150</v>
-      </c>
-      <c r="C12" s="79">
-        <v>299</v>
-      </c>
-      <c r="D12" s="79">
-        <v>449</v>
-      </c>
-      <c r="E12" s="79">
-        <v>598</v>
-      </c>
-      <c r="F12" s="79">
-        <v>748</v>
-      </c>
-      <c r="G12" s="79">
-        <v>897</v>
-      </c>
-      <c r="H12" s="79">
-        <v>1.0469999999999999</v>
-      </c>
-      <c r="I12" s="79">
-        <v>1.196</v>
-      </c>
-      <c r="J12" s="79">
-        <v>1.3460000000000001</v>
-      </c>
-      <c r="K12" s="79">
-        <v>1.4950000000000001</v>
-      </c>
-      <c r="L12" s="79">
-        <v>1.645</v>
-      </c>
-      <c r="M12" s="79">
-        <v>1.794</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="78" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="79">
-        <v>163</v>
-      </c>
-      <c r="C13" s="79">
-        <v>325</v>
-      </c>
-      <c r="D13" s="79">
-        <v>488</v>
-      </c>
-      <c r="E13" s="79">
-        <v>650</v>
-      </c>
-      <c r="F13" s="79">
-        <v>813</v>
-      </c>
-      <c r="G13" s="79">
-        <v>975</v>
-      </c>
-      <c r="H13" s="79">
-        <v>1.1379999999999999</v>
-      </c>
-      <c r="I13" s="79">
-        <v>1.3</v>
-      </c>
-      <c r="J13" s="79">
-        <v>1.4630000000000001</v>
-      </c>
-      <c r="K13" s="79">
-        <v>1.625</v>
-      </c>
-      <c r="L13" s="79">
-        <v>1.788</v>
-      </c>
-      <c r="M13" s="79">
+      <c r="F27" s="79">
+        <v>1.56</v>
+      </c>
+      <c r="G27" s="79">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78" t="s">
-        <v>168</v>
-      </c>
-      <c r="B14" s="79">
-        <v>176</v>
-      </c>
-      <c r="C14" s="79">
-        <v>351</v>
-      </c>
-      <c r="D14" s="79">
-        <v>527</v>
-      </c>
-      <c r="E14" s="79">
-        <v>702</v>
-      </c>
-      <c r="F14" s="79">
-        <v>878</v>
-      </c>
-      <c r="G14" s="79">
-        <v>1.0529999999999999</v>
-      </c>
-      <c r="H14" s="79">
-        <v>1.2290000000000001</v>
-      </c>
-      <c r="I14" s="79">
-        <v>1.4039999999999999</v>
-      </c>
-      <c r="J14" s="79">
-        <v>1.58</v>
-      </c>
-      <c r="K14" s="79">
-        <v>1.7549999999999999</v>
-      </c>
-      <c r="L14" s="79">
-        <v>1.931</v>
-      </c>
-      <c r="M14" s="79">
-        <v>2.1059999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15" s="79">
+      <c r="H27" s="79">
+        <v>2.34</v>
+      </c>
+      <c r="I27" s="79">
+        <v>2.73</v>
+      </c>
+      <c r="J27" s="79">
+        <v>3.12</v>
+      </c>
+      <c r="K27" s="79">
+        <v>3.51</v>
+      </c>
+      <c r="L27" s="79">
+        <v>3.9</v>
+      </c>
+      <c r="M27" s="79">
+        <v>4.29</v>
+      </c>
+      <c r="N27" s="79">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="79">
+        <v>403</v>
+      </c>
+      <c r="D28" s="79">
+        <v>806</v>
+      </c>
+      <c r="E28" s="79">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="F28" s="79">
+        <v>1.6120000000000001</v>
+      </c>
+      <c r="G28" s="79">
+        <v>2.0150000000000001</v>
+      </c>
+      <c r="H28" s="79">
+        <v>2.4180000000000001</v>
+      </c>
+      <c r="I28" s="79">
+        <v>2.8210000000000002</v>
+      </c>
+      <c r="J28" s="79">
+        <v>3.2240000000000002</v>
+      </c>
+      <c r="K28" s="79">
+        <v>3.6269999999999998</v>
+      </c>
+      <c r="L28" s="79">
+        <v>4.03</v>
+      </c>
+      <c r="M28" s="79">
+        <v>4.4329999999999998</v>
+      </c>
+      <c r="N28" s="79">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B29" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="79">
+        <v>417</v>
+      </c>
+      <c r="D29" s="79">
+        <v>834</v>
+      </c>
+      <c r="E29" s="79">
+        <v>1.2509999999999999</v>
+      </c>
+      <c r="F29" s="79">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="G29" s="79">
+        <v>2.085</v>
+      </c>
+      <c r="H29" s="79">
+        <v>2.5019999999999998</v>
+      </c>
+      <c r="I29" s="79">
+        <v>2.919</v>
+      </c>
+      <c r="J29" s="79">
+        <v>3.3359999999999999</v>
+      </c>
+      <c r="K29" s="79">
+        <v>3.7530000000000001</v>
+      </c>
+      <c r="L29" s="79">
+        <v>4.17</v>
+      </c>
+      <c r="M29" s="79">
+        <v>4.5869999999999997</v>
+      </c>
+      <c r="N29" s="79">
+        <v>5.0039999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B30" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="79">
+        <v>431</v>
+      </c>
+      <c r="D30" s="79">
+        <v>862</v>
+      </c>
+      <c r="E30" s="79">
+        <v>1.2929999999999999</v>
+      </c>
+      <c r="F30" s="79">
+        <v>1.724</v>
+      </c>
+      <c r="G30" s="79">
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="H30" s="79">
+        <v>2.5859999999999999</v>
+      </c>
+      <c r="I30" s="79">
+        <v>3.0169999999999999</v>
+      </c>
+      <c r="J30" s="79">
+        <v>3.448</v>
+      </c>
+      <c r="K30" s="79">
+        <v>3.879</v>
+      </c>
+      <c r="L30" s="79">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="M30" s="79">
+        <v>4.7409999999999997</v>
+      </c>
+      <c r="N30" s="79">
+        <v>5.1719999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B31" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="79">
+        <v>444</v>
+      </c>
+      <c r="D31" s="79">
+        <v>888</v>
+      </c>
+      <c r="E31" s="79">
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="F31" s="79">
+        <v>1.776</v>
+      </c>
+      <c r="G31" s="79">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H31" s="79">
+        <v>2.6640000000000001</v>
+      </c>
+      <c r="I31" s="79">
+        <v>3.1080000000000001</v>
+      </c>
+      <c r="J31" s="79">
+        <v>3.552</v>
+      </c>
+      <c r="K31" s="79">
+        <v>3.996</v>
+      </c>
+      <c r="L31" s="79">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="M31" s="79">
+        <v>4.8840000000000003</v>
+      </c>
+      <c r="N31" s="79">
+        <v>5.3280000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B32" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="79">
+        <v>458</v>
+      </c>
+      <c r="D32" s="79">
+        <v>916</v>
+      </c>
+      <c r="E32" s="79">
+        <v>1.3740000000000001</v>
+      </c>
+      <c r="F32" s="79">
+        <v>1.8320000000000001</v>
+      </c>
+      <c r="G32" s="79">
+        <v>2.29</v>
+      </c>
+      <c r="H32" s="79">
+        <v>2.7480000000000002</v>
+      </c>
+      <c r="I32" s="79">
+        <v>3.206</v>
+      </c>
+      <c r="J32" s="79">
+        <v>3.6640000000000001</v>
+      </c>
+      <c r="K32" s="79">
+        <v>4.1219999999999999</v>
+      </c>
+      <c r="L32" s="79">
+        <v>4.58</v>
+      </c>
+      <c r="M32" s="79">
+        <v>5.0380000000000003</v>
+      </c>
+      <c r="N32" s="79">
+        <v>5.4960000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B33" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="79">
-        <v>377</v>
-      </c>
-      <c r="D15" s="79">
-        <v>566</v>
-      </c>
-      <c r="E15" s="79">
-        <v>754</v>
-      </c>
-      <c r="F15" s="79">
-        <v>943</v>
-      </c>
-      <c r="G15" s="79">
-        <v>1.131</v>
-      </c>
-      <c r="H15" s="79">
-        <v>1.32</v>
-      </c>
-      <c r="I15" s="79">
-        <v>1.508</v>
-      </c>
-      <c r="J15" s="79">
-        <v>1.6970000000000001</v>
-      </c>
-      <c r="K15" s="79">
-        <v>1.885</v>
-      </c>
-      <c r="L15" s="79">
-        <v>2.0739999999999998</v>
-      </c>
-      <c r="M15" s="79">
-        <v>2.262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="78" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="79">
-        <v>202</v>
-      </c>
-      <c r="C16" s="79">
-        <v>403</v>
-      </c>
-      <c r="D16" s="79">
-        <v>605</v>
-      </c>
-      <c r="E16" s="79">
-        <v>806</v>
-      </c>
-      <c r="F16" s="79">
-        <v>1.008</v>
-      </c>
-      <c r="G16" s="79">
-        <v>1.2090000000000001</v>
-      </c>
-      <c r="H16" s="79">
-        <v>1.411</v>
-      </c>
-      <c r="I16" s="79">
-        <v>1.6120000000000001</v>
-      </c>
-      <c r="J16" s="79">
-        <v>1.8140000000000001</v>
-      </c>
-      <c r="K16" s="79">
-        <v>2.0150000000000001</v>
-      </c>
-      <c r="L16" s="79">
-        <v>2.2170000000000001</v>
-      </c>
-      <c r="M16" s="79">
-        <v>2.4180000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="79">
-        <v>215</v>
-      </c>
-      <c r="C17" s="79">
-        <v>429</v>
-      </c>
-      <c r="D17" s="79">
-        <v>644</v>
-      </c>
-      <c r="E17" s="79">
-        <v>858</v>
-      </c>
-      <c r="F17" s="79">
-        <v>1.073</v>
-      </c>
-      <c r="G17" s="79">
-        <v>1.2869999999999999</v>
-      </c>
-      <c r="H17" s="79">
-        <v>1.502</v>
-      </c>
-      <c r="I17" s="79">
-        <v>1.716</v>
-      </c>
-      <c r="J17" s="79">
-        <v>1.931</v>
-      </c>
-      <c r="K17" s="79">
-        <v>2.145</v>
-      </c>
-      <c r="L17" s="79">
+      <c r="C33" s="79">
+        <v>472</v>
+      </c>
+      <c r="D33" s="79">
+        <v>944</v>
+      </c>
+      <c r="E33" s="79">
+        <v>1.4159999999999999</v>
+      </c>
+      <c r="F33" s="79">
+        <v>1.8879999999999999</v>
+      </c>
+      <c r="G33" s="79">
         <v>2.36</v>
       </c>
-      <c r="M17" s="79">
-        <v>2.5739999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="78" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18" s="79">
-        <v>228</v>
-      </c>
-      <c r="C18" s="79">
-        <v>455</v>
-      </c>
-      <c r="D18" s="79">
-        <v>683</v>
-      </c>
-      <c r="E18" s="79">
-        <v>910</v>
-      </c>
-      <c r="F18" s="79">
-        <v>1.1379999999999999</v>
-      </c>
-      <c r="G18" s="79">
-        <v>1.365</v>
-      </c>
-      <c r="H18" s="79">
-        <v>1.593</v>
-      </c>
-      <c r="I18" s="79">
-        <v>1.82</v>
-      </c>
-      <c r="J18" s="79">
-        <v>2.048</v>
-      </c>
-      <c r="K18" s="79">
-        <v>2.2749999999999999</v>
-      </c>
-      <c r="L18" s="79">
-        <v>2.5030000000000001</v>
-      </c>
-      <c r="M18" s="79">
-        <v>2.73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="78" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="79">
-        <v>241</v>
-      </c>
-      <c r="C19" s="79">
-        <v>481</v>
-      </c>
-      <c r="D19" s="79">
-        <v>722</v>
-      </c>
-      <c r="E19" s="79">
-        <v>962</v>
-      </c>
-      <c r="F19" s="79">
-        <v>1.2030000000000001</v>
-      </c>
-      <c r="G19" s="79">
-        <v>1.4430000000000001</v>
-      </c>
-      <c r="H19" s="79">
-        <v>1.6839999999999999</v>
-      </c>
-      <c r="I19" s="79">
-        <v>1.9239999999999999</v>
-      </c>
-      <c r="J19" s="79">
-        <v>2.165</v>
-      </c>
-      <c r="K19" s="79">
-        <v>2.4049999999999998</v>
-      </c>
-      <c r="L19" s="79">
-        <v>2.6459999999999999</v>
-      </c>
-      <c r="M19" s="79">
-        <v>2.8860000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="78" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="79">
-        <v>254</v>
-      </c>
-      <c r="C20" s="79">
-        <v>507</v>
-      </c>
-      <c r="D20" s="79">
-        <v>761</v>
-      </c>
-      <c r="E20" s="79">
-        <v>1.014</v>
-      </c>
-      <c r="F20" s="79">
-        <v>1.268</v>
-      </c>
-      <c r="G20" s="79">
-        <v>1.5209999999999999</v>
-      </c>
-      <c r="H20" s="79">
-        <v>1.7749999999999999</v>
-      </c>
-      <c r="I20" s="79">
-        <v>2.028</v>
-      </c>
-      <c r="J20" s="79">
-        <v>2.282</v>
-      </c>
-      <c r="K20" s="79">
-        <v>2.5350000000000001</v>
-      </c>
-      <c r="L20" s="79">
-        <v>2.7890000000000001</v>
-      </c>
-      <c r="M20" s="79">
-        <v>3.0419999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="B21" s="79">
-        <v>267</v>
-      </c>
-      <c r="C21" s="79">
-        <v>533</v>
-      </c>
-      <c r="D21" s="79">
-        <v>800</v>
-      </c>
-      <c r="E21" s="79">
-        <v>1.0660000000000001</v>
-      </c>
-      <c r="F21" s="79">
-        <v>1.333</v>
-      </c>
-      <c r="G21" s="79">
-        <v>1.599</v>
-      </c>
-      <c r="H21" s="79">
-        <v>1.8660000000000001</v>
-      </c>
-      <c r="I21" s="79">
-        <v>2.1320000000000001</v>
-      </c>
-      <c r="J21" s="79">
-        <v>2.399</v>
-      </c>
-      <c r="K21" s="79">
-        <v>2.665</v>
-      </c>
-      <c r="L21" s="79">
-        <v>2.9319999999999999</v>
-      </c>
-      <c r="M21" s="79">
-        <v>3.198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="78" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="79">
-        <v>280</v>
-      </c>
-      <c r="C22" s="79">
-        <v>559</v>
-      </c>
-      <c r="D22" s="79">
-        <v>839</v>
-      </c>
-      <c r="E22" s="79">
-        <v>1.1180000000000001</v>
-      </c>
-      <c r="F22" s="79">
-        <v>1.3979999999999999</v>
-      </c>
-      <c r="G22" s="79">
-        <v>1.677</v>
-      </c>
-      <c r="H22" s="79">
-        <v>1.9570000000000001</v>
-      </c>
-      <c r="I22" s="79">
-        <v>2.2360000000000002</v>
-      </c>
-      <c r="J22" s="79">
-        <v>2.516</v>
-      </c>
-      <c r="K22" s="79">
-        <v>2.7949999999999999</v>
-      </c>
-      <c r="L22" s="79">
-        <v>3.0750000000000002</v>
-      </c>
-      <c r="M22" s="79">
-        <v>3.3540000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="B23" s="79">
-        <v>293</v>
-      </c>
-      <c r="C23" s="79">
-        <v>585</v>
-      </c>
-      <c r="D23" s="79">
-        <v>878</v>
-      </c>
-      <c r="E23" s="79">
-        <v>1.17</v>
-      </c>
-      <c r="F23" s="79">
-        <v>1.4630000000000001</v>
-      </c>
-      <c r="G23" s="79">
-        <v>1.7549999999999999</v>
-      </c>
-      <c r="H23" s="79">
-        <v>2.048</v>
-      </c>
-      <c r="I23" s="79">
-        <v>2.34</v>
-      </c>
-      <c r="J23" s="79">
-        <v>2.633</v>
-      </c>
-      <c r="K23" s="79">
-        <v>2.9249999999999998</v>
-      </c>
-      <c r="L23" s="79">
-        <v>3.218</v>
-      </c>
-      <c r="M23" s="79">
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="B24" s="79">
-        <v>306</v>
-      </c>
-      <c r="C24" s="79">
-        <v>611</v>
-      </c>
-      <c r="D24" s="79">
-        <v>917</v>
-      </c>
-      <c r="E24" s="79">
-        <v>1.222</v>
-      </c>
-      <c r="F24" s="79">
-        <v>1.528</v>
-      </c>
-      <c r="G24" s="79">
-        <v>1.833</v>
-      </c>
-      <c r="H24" s="79">
-        <v>2.1389999999999998</v>
-      </c>
-      <c r="I24" s="79">
-        <v>2.444</v>
-      </c>
-      <c r="J24" s="79">
-        <v>2.75</v>
-      </c>
-      <c r="K24" s="79">
-        <v>3.0550000000000002</v>
-      </c>
-      <c r="L24" s="79">
-        <v>3.3610000000000002</v>
-      </c>
-      <c r="M24" s="79">
-        <v>3.6659999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="78" t="s">
-        <v>179</v>
-      </c>
-      <c r="B25" s="79">
-        <v>319</v>
-      </c>
-      <c r="C25" s="79">
-        <v>637</v>
-      </c>
-      <c r="D25" s="79">
-        <v>956</v>
-      </c>
-      <c r="E25" s="79">
-        <v>1.274</v>
-      </c>
-      <c r="F25" s="79">
-        <v>1.593</v>
-      </c>
-      <c r="G25" s="79">
-        <v>1.911</v>
-      </c>
-      <c r="H25" s="79">
-        <v>2.23</v>
-      </c>
-      <c r="I25" s="79">
-        <v>2.548</v>
-      </c>
-      <c r="J25" s="79">
-        <v>2.867</v>
-      </c>
-      <c r="K25" s="79">
-        <v>3.1850000000000001</v>
-      </c>
-      <c r="L25" s="79">
-        <v>3.504</v>
-      </c>
-      <c r="M25" s="79">
-        <v>3.8220000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="B26" s="79">
-        <v>332</v>
-      </c>
-      <c r="C26" s="79">
-        <v>663</v>
-      </c>
-      <c r="D26" s="79">
-        <v>995</v>
-      </c>
-      <c r="E26" s="79">
-        <v>1.3260000000000001</v>
-      </c>
-      <c r="F26" s="79">
-        <v>1.6579999999999999</v>
-      </c>
-      <c r="G26" s="79">
-        <v>1.9890000000000001</v>
-      </c>
-      <c r="H26" s="79">
-        <v>2.3210000000000002</v>
-      </c>
-      <c r="I26" s="79">
-        <v>2.6520000000000001</v>
-      </c>
-      <c r="J26" s="79">
-        <v>2.984</v>
-      </c>
-      <c r="K26" s="79">
-        <v>3.3149999999999999</v>
-      </c>
-      <c r="L26" s="79">
-        <v>3.6469999999999998</v>
-      </c>
-      <c r="M26" s="79">
-        <v>3.9780000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="B27" s="79">
-        <v>345</v>
-      </c>
-      <c r="C27" s="79">
-        <v>689</v>
-      </c>
-      <c r="D27" s="79">
-        <v>1.034</v>
-      </c>
-      <c r="E27" s="79">
-        <v>1.3779999999999999</v>
-      </c>
-      <c r="F27" s="79">
-        <v>1.7230000000000001</v>
-      </c>
-      <c r="G27" s="79">
-        <v>2.0670000000000002</v>
-      </c>
-      <c r="H27" s="79">
-        <v>2.4119999999999999</v>
-      </c>
-      <c r="I27" s="79">
-        <v>2.7559999999999998</v>
-      </c>
-      <c r="J27" s="79">
-        <v>3.101</v>
-      </c>
-      <c r="K27" s="79">
-        <v>3.4449999999999998</v>
-      </c>
-      <c r="L27" s="79">
-        <v>3.79</v>
-      </c>
-      <c r="M27" s="79">
-        <v>4.1340000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="78" t="s">
-        <v>182</v>
-      </c>
-      <c r="B28" s="79">
-        <v>358</v>
-      </c>
-      <c r="C28" s="79">
-        <v>715</v>
-      </c>
-      <c r="D28" s="79">
-        <v>1.073</v>
-      </c>
-      <c r="E28" s="79">
-        <v>1.43</v>
-      </c>
-      <c r="F28" s="79">
-        <v>1.788</v>
-      </c>
-      <c r="G28" s="79">
-        <v>2.145</v>
-      </c>
-      <c r="H28" s="79">
-        <v>2.5030000000000001</v>
-      </c>
-      <c r="I28" s="79">
-        <v>2.86</v>
-      </c>
-      <c r="J28" s="79">
-        <v>3.218</v>
-      </c>
-      <c r="K28" s="79">
-        <v>3.5750000000000002</v>
-      </c>
-      <c r="L28" s="79">
-        <v>3.9329999999999998</v>
-      </c>
-      <c r="M28" s="79">
-        <v>4.29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="B29" s="79">
-        <v>371</v>
-      </c>
-      <c r="C29" s="79">
-        <v>741</v>
-      </c>
-      <c r="D29" s="79">
-        <v>1.1120000000000001</v>
-      </c>
-      <c r="E29" s="79">
-        <v>1.482</v>
-      </c>
-      <c r="F29" s="79">
-        <v>1.853</v>
-      </c>
-      <c r="G29" s="79">
-        <v>2.2229999999999999</v>
-      </c>
-      <c r="H29" s="79">
-        <v>2.5939999999999999</v>
-      </c>
-      <c r="I29" s="79">
-        <v>2.964</v>
-      </c>
-      <c r="J29" s="79">
-        <v>3.335</v>
-      </c>
-      <c r="K29" s="79">
-        <v>3.7050000000000001</v>
-      </c>
-      <c r="L29" s="79">
-        <v>4.0759999999999996</v>
-      </c>
-      <c r="M29" s="79">
-        <v>4.4459999999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="78" t="s">
-        <v>184</v>
-      </c>
-      <c r="B30" s="79">
-        <v>384</v>
-      </c>
-      <c r="C30" s="79">
-        <v>767</v>
-      </c>
-      <c r="D30" s="79">
-        <v>1.151</v>
-      </c>
-      <c r="E30" s="79">
-        <v>1.534</v>
-      </c>
-      <c r="F30" s="79">
-        <v>1.9179999999999999</v>
-      </c>
-      <c r="G30" s="79">
-        <v>2.3010000000000002</v>
-      </c>
-      <c r="H30" s="79">
-        <v>2.6850000000000001</v>
-      </c>
-      <c r="I30" s="79">
-        <v>3.0680000000000001</v>
-      </c>
-      <c r="J30" s="79">
-        <v>3.452</v>
-      </c>
-      <c r="K30" s="79">
-        <v>3.835</v>
-      </c>
-      <c r="L30" s="79">
-        <v>4.2190000000000003</v>
-      </c>
-      <c r="M30" s="79">
-        <v>4.6020000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="B31" s="79">
-        <v>397</v>
-      </c>
-      <c r="C31" s="79">
-        <v>793</v>
-      </c>
-      <c r="D31" s="79">
-        <v>1.19</v>
-      </c>
-      <c r="E31" s="79">
-        <v>1.5860000000000001</v>
-      </c>
-      <c r="F31" s="79">
-        <v>1.9830000000000001</v>
-      </c>
-      <c r="G31" s="79">
-        <v>2.379</v>
-      </c>
-      <c r="H31" s="79">
-        <v>2.7759999999999998</v>
-      </c>
-      <c r="I31" s="79">
-        <v>3.1720000000000002</v>
-      </c>
-      <c r="J31" s="79">
-        <v>3.569</v>
-      </c>
-      <c r="K31" s="79">
-        <v>3.9649999999999999</v>
-      </c>
-      <c r="L31" s="79">
-        <v>4.3620000000000001</v>
-      </c>
-      <c r="M31" s="79">
-        <v>4.758</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="78" t="s">
-        <v>186</v>
-      </c>
-      <c r="B32" s="79">
-        <v>410</v>
-      </c>
-      <c r="C32" s="79">
-        <v>819</v>
-      </c>
-      <c r="D32" s="79">
-        <v>1.2290000000000001</v>
-      </c>
-      <c r="E32" s="79">
-        <v>1.6379999999999999</v>
-      </c>
-      <c r="F32" s="79">
-        <v>2.048</v>
-      </c>
-      <c r="G32" s="79">
-        <v>2.4569999999999999</v>
-      </c>
-      <c r="H32" s="79">
-        <v>2.867</v>
-      </c>
-      <c r="I32" s="79">
-        <v>3.2759999999999998</v>
-      </c>
-      <c r="J32" s="79">
-        <v>3.6859999999999999</v>
-      </c>
-      <c r="K32" s="79">
-        <v>4.0949999999999998</v>
-      </c>
-      <c r="L32" s="79">
-        <v>4.5049999999999999</v>
-      </c>
-      <c r="M32" s="79">
-        <v>4.9139999999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="78" t="s">
-        <v>187</v>
-      </c>
-      <c r="B33" s="79">
-        <v>423</v>
-      </c>
-      <c r="C33" s="79">
-        <v>845</v>
-      </c>
-      <c r="D33" s="79">
-        <v>1.268</v>
-      </c>
-      <c r="E33" s="79">
-        <v>1.69</v>
-      </c>
-      <c r="F33" s="79">
-        <v>2.113</v>
-      </c>
-      <c r="G33" s="79">
-        <v>2.5350000000000001</v>
-      </c>
       <c r="H33" s="79">
-        <v>2.9580000000000002</v>
+        <v>2.8319999999999999</v>
       </c>
       <c r="I33" s="79">
-        <v>3.38</v>
+        <v>3.3039999999999998</v>
       </c>
       <c r="J33" s="79">
-        <v>3.8029999999999999</v>
+        <v>3.7759999999999998</v>
       </c>
       <c r="K33" s="79">
-        <v>4.2249999999999996</v>
+        <v>4.2480000000000002</v>
       </c>
       <c r="L33" s="79">
-        <v>4.6479999999999997</v>
+        <v>4.72</v>
       </c>
       <c r="M33" s="79">
-        <v>5.07</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="B34" s="79">
-        <v>436</v>
+        <v>5.1920000000000002</v>
+      </c>
+      <c r="N33" s="79">
+        <v>5.6639999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B34" s="78" t="s">
+        <v>190</v>
       </c>
       <c r="C34" s="79">
-        <v>871</v>
+        <v>485</v>
       </c>
       <c r="D34" s="79">
-        <v>1.3069999999999999</v>
+        <v>970</v>
       </c>
       <c r="E34" s="79">
-        <v>1.742</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="F34" s="79">
-        <v>2.1779999999999999</v>
+        <v>1.94</v>
       </c>
       <c r="G34" s="79">
-        <v>2.613</v>
+        <v>2.4249999999999998</v>
       </c>
       <c r="H34" s="79">
-        <v>3.0489999999999999</v>
+        <v>2.91</v>
       </c>
       <c r="I34" s="79">
-        <v>3.484</v>
+        <v>3.395</v>
       </c>
       <c r="J34" s="79">
-        <v>3.92</v>
+        <v>3.88</v>
       </c>
       <c r="K34" s="79">
-        <v>4.3550000000000004</v>
+        <v>4.3650000000000002</v>
       </c>
       <c r="L34" s="79">
-        <v>4.7910000000000004</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="M34" s="79">
-        <v>5.226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="B35" s="79">
-        <v>449</v>
+        <v>5.335</v>
+      </c>
+      <c r="N34" s="79">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B35" s="78" t="s">
+        <v>191</v>
       </c>
       <c r="C35" s="79">
-        <v>897</v>
+        <v>499</v>
       </c>
       <c r="D35" s="79">
-        <v>1.3460000000000001</v>
+        <v>998</v>
       </c>
       <c r="E35" s="79">
-        <v>1.794</v>
+        <v>1.4970000000000001</v>
       </c>
       <c r="F35" s="79">
-        <v>2.2429999999999999</v>
+        <v>1.996</v>
       </c>
       <c r="G35" s="79">
-        <v>2.6909999999999998</v>
+        <v>2.4950000000000001</v>
       </c>
       <c r="H35" s="79">
-        <v>3.14</v>
+        <v>2.9940000000000002</v>
       </c>
       <c r="I35" s="79">
-        <v>3.5880000000000001</v>
+        <v>3.4929999999999999</v>
       </c>
       <c r="J35" s="79">
-        <v>4.0369999999999999</v>
+        <v>3.992</v>
       </c>
       <c r="K35" s="79">
-        <v>4.4850000000000003</v>
+        <v>4.4909999999999997</v>
       </c>
       <c r="L35" s="79">
-        <v>4.9340000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="M35" s="79">
-        <v>5.3819999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="B36" s="79">
-        <v>462</v>
+        <v>5.4889999999999999</v>
+      </c>
+      <c r="N35" s="79">
+        <v>5.9880000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B36" s="78" t="s">
+        <v>192</v>
       </c>
       <c r="C36" s="79">
-        <v>923</v>
+        <v>513</v>
       </c>
       <c r="D36" s="79">
-        <v>1.385</v>
+        <v>1.026</v>
       </c>
       <c r="E36" s="79">
-        <v>1.8460000000000001</v>
+        <v>1.5389999999999999</v>
       </c>
       <c r="F36" s="79">
-        <v>2.3079999999999998</v>
+        <v>2.052</v>
       </c>
       <c r="G36" s="79">
-        <v>2.7690000000000001</v>
+        <v>2.5649999999999999</v>
       </c>
       <c r="H36" s="79">
-        <v>3.2309999999999999</v>
+        <v>3.0779999999999998</v>
       </c>
       <c r="I36" s="79">
-        <v>3.6920000000000002</v>
+        <v>3.5910000000000002</v>
       </c>
       <c r="J36" s="79">
-        <v>4.1539999999999999</v>
+        <v>4.1040000000000001</v>
       </c>
       <c r="K36" s="79">
-        <v>4.6150000000000002</v>
+        <v>4.617</v>
       </c>
       <c r="L36" s="79">
-        <v>5.077</v>
+        <v>5.13</v>
       </c>
       <c r="M36" s="79">
-        <v>5.5380000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="B37" s="79">
-        <v>475</v>
+        <v>5.6429999999999998</v>
+      </c>
+      <c r="N36" s="79">
+        <v>6.1559999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B37" s="78" t="s">
+        <v>193</v>
       </c>
       <c r="C37" s="79">
-        <v>949</v>
+        <v>526</v>
       </c>
       <c r="D37" s="79">
-        <v>1.4239999999999999</v>
+        <v>1.052</v>
       </c>
       <c r="E37" s="79">
-        <v>1.8979999999999999</v>
+        <v>1.5780000000000001</v>
       </c>
       <c r="F37" s="79">
-        <v>2.3730000000000002</v>
+        <v>2.1040000000000001</v>
       </c>
       <c r="G37" s="79">
-        <v>2.847</v>
+        <v>2.63</v>
       </c>
       <c r="H37" s="79">
-        <v>3.3220000000000001</v>
+        <v>3.1560000000000001</v>
       </c>
       <c r="I37" s="79">
-        <v>3.7959999999999998</v>
+        <v>3.6819999999999999</v>
       </c>
       <c r="J37" s="79">
-        <v>4.2709999999999999</v>
+        <v>4.2080000000000002</v>
       </c>
       <c r="K37" s="79">
-        <v>4.7450000000000001</v>
+        <v>4.734</v>
       </c>
       <c r="L37" s="79">
-        <v>5.22</v>
+        <v>5.26</v>
       </c>
       <c r="M37" s="79">
-        <v>5.694</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="B38" s="79">
-        <v>488</v>
+        <v>5.7859999999999996</v>
+      </c>
+      <c r="N37" s="79">
+        <v>6.3120000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B38" s="78" t="s">
+        <v>194</v>
       </c>
       <c r="C38" s="79">
-        <v>975</v>
+        <v>540</v>
       </c>
       <c r="D38" s="79">
-        <v>1.4630000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="E38" s="79">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="F38" s="79">
-        <v>2.4380000000000002</v>
+        <v>2.16</v>
       </c>
       <c r="G38" s="79">
-        <v>2.9249999999999998</v>
+        <v>2.7</v>
       </c>
       <c r="H38" s="79">
-        <v>3.4129999999999998</v>
+        <v>3.24</v>
       </c>
       <c r="I38" s="79">
-        <v>3.9</v>
+        <v>3.78</v>
       </c>
       <c r="J38" s="79">
-        <v>4.3879999999999999</v>
+        <v>4.32</v>
       </c>
       <c r="K38" s="79">
-        <v>4.875</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="L38" s="79">
-        <v>5.3630000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="M38" s="79">
-        <v>5.85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="B39" s="79">
-        <v>501</v>
-      </c>
-      <c r="C39" s="79">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="D39" s="79">
-        <v>1.502</v>
-      </c>
-      <c r="E39" s="79">
-        <v>2.0019999999999998</v>
-      </c>
-      <c r="F39" s="79">
-        <v>2.5030000000000001</v>
-      </c>
-      <c r="G39" s="79">
-        <v>3.0030000000000001</v>
-      </c>
-      <c r="H39" s="79">
-        <v>3.504</v>
-      </c>
-      <c r="I39" s="79">
-        <v>4.0039999999999996</v>
-      </c>
-      <c r="J39" s="79">
-        <v>4.5049999999999999</v>
-      </c>
-      <c r="K39" s="79">
-        <v>5.0049999999999999</v>
-      </c>
-      <c r="L39" s="79">
-        <v>5.5060000000000002</v>
-      </c>
-      <c r="M39" s="79">
-        <v>6.0060000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="B40" s="79">
-        <v>514</v>
-      </c>
-      <c r="C40" s="79">
-        <v>1.0269999999999999</v>
-      </c>
-      <c r="D40" s="79">
-        <v>1.5409999999999999</v>
-      </c>
-      <c r="E40" s="79">
-        <v>2.0539999999999998</v>
-      </c>
-      <c r="F40" s="79">
-        <v>2.5680000000000001</v>
-      </c>
-      <c r="G40" s="79">
-        <v>3.081</v>
-      </c>
-      <c r="H40" s="79">
-        <v>3.5950000000000002</v>
-      </c>
-      <c r="I40" s="79">
-        <v>4.1079999999999997</v>
-      </c>
-      <c r="J40" s="79">
-        <v>4.6219999999999999</v>
-      </c>
-      <c r="K40" s="79">
-        <v>5.1349999999999998</v>
-      </c>
-      <c r="L40" s="79">
-        <v>5.649</v>
-      </c>
-      <c r="M40" s="79">
-        <v>6.1619999999999999</v>
+        <v>5.94</v>
+      </c>
+      <c r="N38" s="79">
+        <v>6.48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21865,30 +21867,30 @@
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="88"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="84"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="76" t="s">
         <v>149</v>
       </c>

--- a/documents/contract-rate.xlsx
+++ b/documents/contract-rate.xlsx
@@ -12,13 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
-    <sheet name="CTV" sheetId="6" r:id="rId1"/>
-    <sheet name="CV" sheetId="5" r:id="rId2"/>
-    <sheet name="CO CHE THU NHAP  GD1" sheetId="1" r:id="rId3"/>
-    <sheet name="CO CHE THU NHAP  GD2" sheetId="2" r:id="rId4"/>
-    <sheet name="van hanh b2" sheetId="3" r:id="rId5"/>
-    <sheet name="leader" sheetId="4" r:id="rId6"/>
-    <sheet name="Van hanh b1" sheetId="7" r:id="rId7"/>
+    <sheet name="leader" sheetId="4" r:id="rId1"/>
+    <sheet name="van hanh b2" sheetId="3" r:id="rId2"/>
+    <sheet name="Van hanh b1" sheetId="7" r:id="rId3"/>
+    <sheet name="CTV" sheetId="6" r:id="rId4"/>
+    <sheet name="CV" sheetId="5" r:id="rId5"/>
+    <sheet name="CO CHE THU NHAP  GD1" sheetId="1" r:id="rId6"/>
+    <sheet name="CO CHE THU NHAP  GD2" sheetId="2" r:id="rId7"/>
     <sheet name="Kinh doanh" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -1171,10 +1171,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1187,6 +1183,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1474,9 +1474,4541 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B3:N38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="84"/>
+    </row>
+    <row r="4" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="81"/>
+      <c r="C4" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="L4" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="M4" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="N4" s="77" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="79">
+        <v>89</v>
+      </c>
+      <c r="D5" s="79">
+        <v>178</v>
+      </c>
+      <c r="E5" s="79">
+        <v>267</v>
+      </c>
+      <c r="F5" s="79">
+        <v>356</v>
+      </c>
+      <c r="G5" s="79">
+        <v>445</v>
+      </c>
+      <c r="H5" s="79">
+        <v>534</v>
+      </c>
+      <c r="I5" s="79">
+        <v>623</v>
+      </c>
+      <c r="J5" s="79">
+        <v>712</v>
+      </c>
+      <c r="K5" s="79">
+        <v>801</v>
+      </c>
+      <c r="L5" s="79">
+        <v>890</v>
+      </c>
+      <c r="M5" s="79">
+        <v>979</v>
+      </c>
+      <c r="N5" s="79">
+        <v>1.0680000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="79">
+        <v>103</v>
+      </c>
+      <c r="D6" s="79">
+        <v>206</v>
+      </c>
+      <c r="E6" s="79">
+        <v>309</v>
+      </c>
+      <c r="F6" s="79">
+        <v>412</v>
+      </c>
+      <c r="G6" s="79">
+        <v>515</v>
+      </c>
+      <c r="H6" s="79">
+        <v>618</v>
+      </c>
+      <c r="I6" s="79">
+        <v>721</v>
+      </c>
+      <c r="J6" s="79">
+        <v>824</v>
+      </c>
+      <c r="K6" s="79">
+        <v>927</v>
+      </c>
+      <c r="L6" s="79">
+        <v>1.03</v>
+      </c>
+      <c r="M6" s="79">
+        <v>1.133</v>
+      </c>
+      <c r="N6" s="79">
+        <v>1.236</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="79">
+        <v>116</v>
+      </c>
+      <c r="D7" s="79">
+        <v>232</v>
+      </c>
+      <c r="E7" s="79">
+        <v>348</v>
+      </c>
+      <c r="F7" s="79">
+        <v>464</v>
+      </c>
+      <c r="G7" s="79">
+        <v>580</v>
+      </c>
+      <c r="H7" s="79">
+        <v>696</v>
+      </c>
+      <c r="I7" s="79">
+        <v>812</v>
+      </c>
+      <c r="J7" s="79">
+        <v>928</v>
+      </c>
+      <c r="K7" s="79">
+        <v>1.044</v>
+      </c>
+      <c r="L7" s="79">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="M7" s="79">
+        <v>1.276</v>
+      </c>
+      <c r="N7" s="79">
+        <v>1.3919999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="79">
+        <v>130</v>
+      </c>
+      <c r="D8" s="79">
+        <v>260</v>
+      </c>
+      <c r="E8" s="79">
+        <v>390</v>
+      </c>
+      <c r="F8" s="79">
+        <v>520</v>
+      </c>
+      <c r="G8" s="79">
+        <v>650</v>
+      </c>
+      <c r="H8" s="79">
+        <v>780</v>
+      </c>
+      <c r="I8" s="79">
+        <v>910</v>
+      </c>
+      <c r="J8" s="79">
+        <v>1.04</v>
+      </c>
+      <c r="K8" s="79">
+        <v>1.17</v>
+      </c>
+      <c r="L8" s="79">
+        <v>1.3</v>
+      </c>
+      <c r="M8" s="79">
+        <v>1.43</v>
+      </c>
+      <c r="N8" s="79">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="79">
+        <v>144</v>
+      </c>
+      <c r="D9" s="79">
+        <v>288</v>
+      </c>
+      <c r="E9" s="79">
+        <v>432</v>
+      </c>
+      <c r="F9" s="79">
+        <v>576</v>
+      </c>
+      <c r="G9" s="79">
+        <v>720</v>
+      </c>
+      <c r="H9" s="79">
+        <v>864</v>
+      </c>
+      <c r="I9" s="79">
+        <v>1.008</v>
+      </c>
+      <c r="J9" s="79">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="K9" s="79">
+        <v>1.296</v>
+      </c>
+      <c r="L9" s="79">
+        <v>1.44</v>
+      </c>
+      <c r="M9" s="79">
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="N9" s="79">
+        <v>1.728</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="79">
+        <v>157</v>
+      </c>
+      <c r="D10" s="79">
+        <v>314</v>
+      </c>
+      <c r="E10" s="79">
+        <v>471</v>
+      </c>
+      <c r="F10" s="79">
+        <v>628</v>
+      </c>
+      <c r="G10" s="79">
+        <v>785</v>
+      </c>
+      <c r="H10" s="79">
+        <v>942</v>
+      </c>
+      <c r="I10" s="79">
+        <v>1.099</v>
+      </c>
+      <c r="J10" s="79">
+        <v>1.256</v>
+      </c>
+      <c r="K10" s="79">
+        <v>1.413</v>
+      </c>
+      <c r="L10" s="79">
+        <v>1.57</v>
+      </c>
+      <c r="M10" s="79">
+        <v>1.7270000000000001</v>
+      </c>
+      <c r="N10" s="79">
+        <v>1.8839999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="79">
+        <v>171</v>
+      </c>
+      <c r="D11" s="79">
+        <v>342</v>
+      </c>
+      <c r="E11" s="79">
+        <v>513</v>
+      </c>
+      <c r="F11" s="79">
+        <v>684</v>
+      </c>
+      <c r="G11" s="79">
+        <v>855</v>
+      </c>
+      <c r="H11" s="79">
+        <v>1.026</v>
+      </c>
+      <c r="I11" s="79">
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="J11" s="79">
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="K11" s="79">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="L11" s="79">
+        <v>1.71</v>
+      </c>
+      <c r="M11" s="79">
+        <v>1.881</v>
+      </c>
+      <c r="N11" s="79">
+        <v>2.052</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="79">
+        <v>185</v>
+      </c>
+      <c r="D12" s="79">
+        <v>370</v>
+      </c>
+      <c r="E12" s="79">
+        <v>555</v>
+      </c>
+      <c r="F12" s="79">
+        <v>740</v>
+      </c>
+      <c r="G12" s="79">
+        <v>925</v>
+      </c>
+      <c r="H12" s="79">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I12" s="79">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="J12" s="79">
+        <v>1.48</v>
+      </c>
+      <c r="K12" s="79">
+        <v>1.665</v>
+      </c>
+      <c r="L12" s="79">
+        <v>1.85</v>
+      </c>
+      <c r="M12" s="79">
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="N12" s="79">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="79">
+        <v>198</v>
+      </c>
+      <c r="D13" s="79">
+        <v>396</v>
+      </c>
+      <c r="E13" s="79">
+        <v>594</v>
+      </c>
+      <c r="F13" s="79">
+        <v>792</v>
+      </c>
+      <c r="G13" s="79">
+        <v>990</v>
+      </c>
+      <c r="H13" s="79">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="I13" s="79">
+        <v>1.3859999999999999</v>
+      </c>
+      <c r="J13" s="79">
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="K13" s="79">
+        <v>1.782</v>
+      </c>
+      <c r="L13" s="79">
+        <v>1.98</v>
+      </c>
+      <c r="M13" s="79">
+        <v>2.1779999999999999</v>
+      </c>
+      <c r="N13" s="79">
+        <v>2.3759999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="79">
+        <v>212</v>
+      </c>
+      <c r="D14" s="79">
+        <v>424</v>
+      </c>
+      <c r="E14" s="79">
+        <v>636</v>
+      </c>
+      <c r="F14" s="79">
+        <v>848</v>
+      </c>
+      <c r="G14" s="79">
+        <v>1.06</v>
+      </c>
+      <c r="H14" s="79">
+        <v>1.272</v>
+      </c>
+      <c r="I14" s="79">
+        <v>1.484</v>
+      </c>
+      <c r="J14" s="79">
+        <v>1.696</v>
+      </c>
+      <c r="K14" s="79">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="L14" s="79">
+        <v>2.12</v>
+      </c>
+      <c r="M14" s="79">
+        <v>2.3319999999999999</v>
+      </c>
+      <c r="N14" s="79">
+        <v>2.544</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="79">
+        <v>226</v>
+      </c>
+      <c r="D15" s="79">
+        <v>452</v>
+      </c>
+      <c r="E15" s="79">
+        <v>678</v>
+      </c>
+      <c r="F15" s="79">
+        <v>904</v>
+      </c>
+      <c r="G15" s="79">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H15" s="79">
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="I15" s="79">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="J15" s="79">
+        <v>1.8080000000000001</v>
+      </c>
+      <c r="K15" s="79">
+        <v>2.0339999999999998</v>
+      </c>
+      <c r="L15" s="79">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="M15" s="79">
+        <v>2.4860000000000002</v>
+      </c>
+      <c r="N15" s="79">
+        <v>2.7120000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="79">
+        <v>239</v>
+      </c>
+      <c r="D16" s="79">
+        <v>478</v>
+      </c>
+      <c r="E16" s="79">
+        <v>717</v>
+      </c>
+      <c r="F16" s="79">
+        <v>956</v>
+      </c>
+      <c r="G16" s="79">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="H16" s="79">
+        <v>1.4339999999999999</v>
+      </c>
+      <c r="I16" s="79">
+        <v>1.673</v>
+      </c>
+      <c r="J16" s="79">
+        <v>1.9119999999999999</v>
+      </c>
+      <c r="K16" s="79">
+        <v>2.1509999999999998</v>
+      </c>
+      <c r="L16" s="79">
+        <v>2.39</v>
+      </c>
+      <c r="M16" s="79">
+        <v>2.629</v>
+      </c>
+      <c r="N16" s="79">
+        <v>2.8679999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="79">
+        <v>253</v>
+      </c>
+      <c r="D17" s="79">
+        <v>506</v>
+      </c>
+      <c r="E17" s="79">
+        <v>759</v>
+      </c>
+      <c r="F17" s="79">
+        <v>1.012</v>
+      </c>
+      <c r="G17" s="79">
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="H17" s="79">
+        <v>1.518</v>
+      </c>
+      <c r="I17" s="79">
+        <v>1.7709999999999999</v>
+      </c>
+      <c r="J17" s="79">
+        <v>2.024</v>
+      </c>
+      <c r="K17" s="79">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="L17" s="79">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="M17" s="79">
+        <v>2.7829999999999999</v>
+      </c>
+      <c r="N17" s="79">
+        <v>3.036</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="79">
+        <v>267</v>
+      </c>
+      <c r="D18" s="79">
+        <v>534</v>
+      </c>
+      <c r="E18" s="79">
+        <v>801</v>
+      </c>
+      <c r="F18" s="79">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="G18" s="79">
+        <v>1.335</v>
+      </c>
+      <c r="H18" s="79">
+        <v>1.6020000000000001</v>
+      </c>
+      <c r="I18" s="79">
+        <v>1.869</v>
+      </c>
+      <c r="J18" s="79">
+        <v>2.1360000000000001</v>
+      </c>
+      <c r="K18" s="79">
+        <v>2.403</v>
+      </c>
+      <c r="L18" s="79">
+        <v>2.67</v>
+      </c>
+      <c r="M18" s="79">
+        <v>2.9369999999999998</v>
+      </c>
+      <c r="N18" s="79">
+        <v>3.2040000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="79">
+        <v>280</v>
+      </c>
+      <c r="D19" s="79">
+        <v>560</v>
+      </c>
+      <c r="E19" s="79">
+        <v>840</v>
+      </c>
+      <c r="F19" s="79">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G19" s="79">
+        <v>1.4</v>
+      </c>
+      <c r="H19" s="79">
+        <v>1.68</v>
+      </c>
+      <c r="I19" s="79">
+        <v>1.96</v>
+      </c>
+      <c r="J19" s="79">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="K19" s="79">
+        <v>2.52</v>
+      </c>
+      <c r="L19" s="79">
+        <v>2.8</v>
+      </c>
+      <c r="M19" s="79">
+        <v>3.08</v>
+      </c>
+      <c r="N19" s="79">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="79">
+        <v>294</v>
+      </c>
+      <c r="D20" s="79">
+        <v>588</v>
+      </c>
+      <c r="E20" s="79">
+        <v>882</v>
+      </c>
+      <c r="F20" s="79">
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="G20" s="79">
+        <v>1.47</v>
+      </c>
+      <c r="H20" s="79">
+        <v>1.764</v>
+      </c>
+      <c r="I20" s="79">
+        <v>2.0579999999999998</v>
+      </c>
+      <c r="J20" s="79">
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="K20" s="79">
+        <v>2.6459999999999999</v>
+      </c>
+      <c r="L20" s="79">
+        <v>2.94</v>
+      </c>
+      <c r="M20" s="79">
+        <v>3.234</v>
+      </c>
+      <c r="N20" s="79">
+        <v>3.528</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="79">
+        <v>308</v>
+      </c>
+      <c r="D21" s="79">
+        <v>616</v>
+      </c>
+      <c r="E21" s="79">
+        <v>924</v>
+      </c>
+      <c r="F21" s="79">
+        <v>1.232</v>
+      </c>
+      <c r="G21" s="79">
+        <v>1.54</v>
+      </c>
+      <c r="H21" s="79">
+        <v>1.8480000000000001</v>
+      </c>
+      <c r="I21" s="79">
+        <v>2.1560000000000001</v>
+      </c>
+      <c r="J21" s="79">
+        <v>2.464</v>
+      </c>
+      <c r="K21" s="79">
+        <v>2.7719999999999998</v>
+      </c>
+      <c r="L21" s="79">
+        <v>3.08</v>
+      </c>
+      <c r="M21" s="79">
+        <v>3.3879999999999999</v>
+      </c>
+      <c r="N21" s="79">
+        <v>3.6960000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="79">
+        <v>321</v>
+      </c>
+      <c r="D22" s="79">
+        <v>642</v>
+      </c>
+      <c r="E22" s="79">
+        <v>963</v>
+      </c>
+      <c r="F22" s="79">
+        <v>1.284</v>
+      </c>
+      <c r="G22" s="79">
+        <v>1.605</v>
+      </c>
+      <c r="H22" s="79">
+        <v>1.9259999999999999</v>
+      </c>
+      <c r="I22" s="79">
+        <v>2.2469999999999999</v>
+      </c>
+      <c r="J22" s="79">
+        <v>2.5680000000000001</v>
+      </c>
+      <c r="K22" s="79">
+        <v>2.8889999999999998</v>
+      </c>
+      <c r="L22" s="79">
+        <v>3.21</v>
+      </c>
+      <c r="M22" s="79">
+        <v>3.5310000000000001</v>
+      </c>
+      <c r="N22" s="79">
+        <v>3.8519999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="79">
+        <v>335</v>
+      </c>
+      <c r="D23" s="79">
+        <v>670</v>
+      </c>
+      <c r="E23" s="79">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="F23" s="79">
+        <v>1.34</v>
+      </c>
+      <c r="G23" s="79">
+        <v>1.675</v>
+      </c>
+      <c r="H23" s="79">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I23" s="79">
+        <v>2.3450000000000002</v>
+      </c>
+      <c r="J23" s="79">
+        <v>2.68</v>
+      </c>
+      <c r="K23" s="79">
+        <v>3.0150000000000001</v>
+      </c>
+      <c r="L23" s="79">
+        <v>3.35</v>
+      </c>
+      <c r="M23" s="79">
+        <v>3.6850000000000001</v>
+      </c>
+      <c r="N23" s="79">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="79">
+        <v>349</v>
+      </c>
+      <c r="D24" s="79">
+        <v>698</v>
+      </c>
+      <c r="E24" s="79">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="F24" s="79">
+        <v>1.3959999999999999</v>
+      </c>
+      <c r="G24" s="79">
+        <v>1.7450000000000001</v>
+      </c>
+      <c r="H24" s="79">
+        <v>2.0939999999999999</v>
+      </c>
+      <c r="I24" s="79">
+        <v>2.4430000000000001</v>
+      </c>
+      <c r="J24" s="79">
+        <v>2.7919999999999998</v>
+      </c>
+      <c r="K24" s="79">
+        <v>3.141</v>
+      </c>
+      <c r="L24" s="79">
+        <v>3.49</v>
+      </c>
+      <c r="M24" s="79">
+        <v>3.839</v>
+      </c>
+      <c r="N24" s="79">
+        <v>4.1879999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="79">
+        <v>362</v>
+      </c>
+      <c r="D25" s="79">
+        <v>724</v>
+      </c>
+      <c r="E25" s="79">
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="F25" s="79">
+        <v>1.448</v>
+      </c>
+      <c r="G25" s="79">
+        <v>1.81</v>
+      </c>
+      <c r="H25" s="79">
+        <v>2.1720000000000002</v>
+      </c>
+      <c r="I25" s="79">
+        <v>2.5339999999999998</v>
+      </c>
+      <c r="J25" s="79">
+        <v>2.8959999999999999</v>
+      </c>
+      <c r="K25" s="79">
+        <v>3.258</v>
+      </c>
+      <c r="L25" s="79">
+        <v>3.62</v>
+      </c>
+      <c r="M25" s="79">
+        <v>3.9820000000000002</v>
+      </c>
+      <c r="N25" s="79">
+        <v>4.3440000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="79">
+        <v>376</v>
+      </c>
+      <c r="D26" s="79">
+        <v>752</v>
+      </c>
+      <c r="E26" s="79">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="F26" s="79">
+        <v>1.504</v>
+      </c>
+      <c r="G26" s="79">
+        <v>1.88</v>
+      </c>
+      <c r="H26" s="79">
+        <v>2.2559999999999998</v>
+      </c>
+      <c r="I26" s="79">
+        <v>2.6320000000000001</v>
+      </c>
+      <c r="J26" s="79">
+        <v>3.008</v>
+      </c>
+      <c r="K26" s="79">
+        <v>3.3839999999999999</v>
+      </c>
+      <c r="L26" s="79">
+        <v>3.76</v>
+      </c>
+      <c r="M26" s="79">
+        <v>4.1360000000000001</v>
+      </c>
+      <c r="N26" s="79">
+        <v>4.5119999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="79">
+        <v>390</v>
+      </c>
+      <c r="D27" s="79">
+        <v>780</v>
+      </c>
+      <c r="E27" s="79">
+        <v>1.17</v>
+      </c>
+      <c r="F27" s="79">
+        <v>1.56</v>
+      </c>
+      <c r="G27" s="79">
+        <v>1.95</v>
+      </c>
+      <c r="H27" s="79">
+        <v>2.34</v>
+      </c>
+      <c r="I27" s="79">
+        <v>2.73</v>
+      </c>
+      <c r="J27" s="79">
+        <v>3.12</v>
+      </c>
+      <c r="K27" s="79">
+        <v>3.51</v>
+      </c>
+      <c r="L27" s="79">
+        <v>3.9</v>
+      </c>
+      <c r="M27" s="79">
+        <v>4.29</v>
+      </c>
+      <c r="N27" s="79">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="79">
+        <v>403</v>
+      </c>
+      <c r="D28" s="79">
+        <v>806</v>
+      </c>
+      <c r="E28" s="79">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="F28" s="79">
+        <v>1.6120000000000001</v>
+      </c>
+      <c r="G28" s="79">
+        <v>2.0150000000000001</v>
+      </c>
+      <c r="H28" s="79">
+        <v>2.4180000000000001</v>
+      </c>
+      <c r="I28" s="79">
+        <v>2.8210000000000002</v>
+      </c>
+      <c r="J28" s="79">
+        <v>3.2240000000000002</v>
+      </c>
+      <c r="K28" s="79">
+        <v>3.6269999999999998</v>
+      </c>
+      <c r="L28" s="79">
+        <v>4.03</v>
+      </c>
+      <c r="M28" s="79">
+        <v>4.4329999999999998</v>
+      </c>
+      <c r="N28" s="79">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B29" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="79">
+        <v>417</v>
+      </c>
+      <c r="D29" s="79">
+        <v>834</v>
+      </c>
+      <c r="E29" s="79">
+        <v>1.2509999999999999</v>
+      </c>
+      <c r="F29" s="79">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="G29" s="79">
+        <v>2.085</v>
+      </c>
+      <c r="H29" s="79">
+        <v>2.5019999999999998</v>
+      </c>
+      <c r="I29" s="79">
+        <v>2.919</v>
+      </c>
+      <c r="J29" s="79">
+        <v>3.3359999999999999</v>
+      </c>
+      <c r="K29" s="79">
+        <v>3.7530000000000001</v>
+      </c>
+      <c r="L29" s="79">
+        <v>4.17</v>
+      </c>
+      <c r="M29" s="79">
+        <v>4.5869999999999997</v>
+      </c>
+      <c r="N29" s="79">
+        <v>5.0039999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B30" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="79">
+        <v>431</v>
+      </c>
+      <c r="D30" s="79">
+        <v>862</v>
+      </c>
+      <c r="E30" s="79">
+        <v>1.2929999999999999</v>
+      </c>
+      <c r="F30" s="79">
+        <v>1.724</v>
+      </c>
+      <c r="G30" s="79">
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="H30" s="79">
+        <v>2.5859999999999999</v>
+      </c>
+      <c r="I30" s="79">
+        <v>3.0169999999999999</v>
+      </c>
+      <c r="J30" s="79">
+        <v>3.448</v>
+      </c>
+      <c r="K30" s="79">
+        <v>3.879</v>
+      </c>
+      <c r="L30" s="79">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="M30" s="79">
+        <v>4.7409999999999997</v>
+      </c>
+      <c r="N30" s="79">
+        <v>5.1719999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B31" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="79">
+        <v>444</v>
+      </c>
+      <c r="D31" s="79">
+        <v>888</v>
+      </c>
+      <c r="E31" s="79">
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="F31" s="79">
+        <v>1.776</v>
+      </c>
+      <c r="G31" s="79">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H31" s="79">
+        <v>2.6640000000000001</v>
+      </c>
+      <c r="I31" s="79">
+        <v>3.1080000000000001</v>
+      </c>
+      <c r="J31" s="79">
+        <v>3.552</v>
+      </c>
+      <c r="K31" s="79">
+        <v>3.996</v>
+      </c>
+      <c r="L31" s="79">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="M31" s="79">
+        <v>4.8840000000000003</v>
+      </c>
+      <c r="N31" s="79">
+        <v>5.3280000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B32" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="79">
+        <v>458</v>
+      </c>
+      <c r="D32" s="79">
+        <v>916</v>
+      </c>
+      <c r="E32" s="79">
+        <v>1.3740000000000001</v>
+      </c>
+      <c r="F32" s="79">
+        <v>1.8320000000000001</v>
+      </c>
+      <c r="G32" s="79">
+        <v>2.29</v>
+      </c>
+      <c r="H32" s="79">
+        <v>2.7480000000000002</v>
+      </c>
+      <c r="I32" s="79">
+        <v>3.206</v>
+      </c>
+      <c r="J32" s="79">
+        <v>3.6640000000000001</v>
+      </c>
+      <c r="K32" s="79">
+        <v>4.1219999999999999</v>
+      </c>
+      <c r="L32" s="79">
+        <v>4.58</v>
+      </c>
+      <c r="M32" s="79">
+        <v>5.0380000000000003</v>
+      </c>
+      <c r="N32" s="79">
+        <v>5.4960000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B33" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="79">
+        <v>472</v>
+      </c>
+      <c r="D33" s="79">
+        <v>944</v>
+      </c>
+      <c r="E33" s="79">
+        <v>1.4159999999999999</v>
+      </c>
+      <c r="F33" s="79">
+        <v>1.8879999999999999</v>
+      </c>
+      <c r="G33" s="79">
+        <v>2.36</v>
+      </c>
+      <c r="H33" s="79">
+        <v>2.8319999999999999</v>
+      </c>
+      <c r="I33" s="79">
+        <v>3.3039999999999998</v>
+      </c>
+      <c r="J33" s="79">
+        <v>3.7759999999999998</v>
+      </c>
+      <c r="K33" s="79">
+        <v>4.2480000000000002</v>
+      </c>
+      <c r="L33" s="79">
+        <v>4.72</v>
+      </c>
+      <c r="M33" s="79">
+        <v>5.1920000000000002</v>
+      </c>
+      <c r="N33" s="79">
+        <v>5.6639999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B34" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="79">
+        <v>485</v>
+      </c>
+      <c r="D34" s="79">
+        <v>970</v>
+      </c>
+      <c r="E34" s="79">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="F34" s="79">
+        <v>1.94</v>
+      </c>
+      <c r="G34" s="79">
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="H34" s="79">
+        <v>2.91</v>
+      </c>
+      <c r="I34" s="79">
+        <v>3.395</v>
+      </c>
+      <c r="J34" s="79">
+        <v>3.88</v>
+      </c>
+      <c r="K34" s="79">
+        <v>4.3650000000000002</v>
+      </c>
+      <c r="L34" s="79">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="M34" s="79">
+        <v>5.335</v>
+      </c>
+      <c r="N34" s="79">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B35" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="79">
+        <v>499</v>
+      </c>
+      <c r="D35" s="79">
+        <v>998</v>
+      </c>
+      <c r="E35" s="79">
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="F35" s="79">
+        <v>1.996</v>
+      </c>
+      <c r="G35" s="79">
+        <v>2.4950000000000001</v>
+      </c>
+      <c r="H35" s="79">
+        <v>2.9940000000000002</v>
+      </c>
+      <c r="I35" s="79">
+        <v>3.4929999999999999</v>
+      </c>
+      <c r="J35" s="79">
+        <v>3.992</v>
+      </c>
+      <c r="K35" s="79">
+        <v>4.4909999999999997</v>
+      </c>
+      <c r="L35" s="79">
+        <v>4.99</v>
+      </c>
+      <c r="M35" s="79">
+        <v>5.4889999999999999</v>
+      </c>
+      <c r="N35" s="79">
+        <v>5.9880000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B36" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" s="79">
+        <v>513</v>
+      </c>
+      <c r="D36" s="79">
+        <v>1.026</v>
+      </c>
+      <c r="E36" s="79">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="F36" s="79">
+        <v>2.052</v>
+      </c>
+      <c r="G36" s="79">
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="H36" s="79">
+        <v>3.0779999999999998</v>
+      </c>
+      <c r="I36" s="79">
+        <v>3.5910000000000002</v>
+      </c>
+      <c r="J36" s="79">
+        <v>4.1040000000000001</v>
+      </c>
+      <c r="K36" s="79">
+        <v>4.617</v>
+      </c>
+      <c r="L36" s="79">
+        <v>5.13</v>
+      </c>
+      <c r="M36" s="79">
+        <v>5.6429999999999998</v>
+      </c>
+      <c r="N36" s="79">
+        <v>6.1559999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B37" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="79">
+        <v>526</v>
+      </c>
+      <c r="D37" s="79">
+        <v>1.052</v>
+      </c>
+      <c r="E37" s="79">
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="F37" s="79">
+        <v>2.1040000000000001</v>
+      </c>
+      <c r="G37" s="79">
+        <v>2.63</v>
+      </c>
+      <c r="H37" s="79">
+        <v>3.1560000000000001</v>
+      </c>
+      <c r="I37" s="79">
+        <v>3.6819999999999999</v>
+      </c>
+      <c r="J37" s="79">
+        <v>4.2080000000000002</v>
+      </c>
+      <c r="K37" s="79">
+        <v>4.734</v>
+      </c>
+      <c r="L37" s="79">
+        <v>5.26</v>
+      </c>
+      <c r="M37" s="79">
+        <v>5.7859999999999996</v>
+      </c>
+      <c r="N37" s="79">
+        <v>6.3120000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B38" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="79">
+        <v>540</v>
+      </c>
+      <c r="D38" s="79">
+        <v>1.08</v>
+      </c>
+      <c r="E38" s="79">
+        <v>1.62</v>
+      </c>
+      <c r="F38" s="79">
+        <v>2.16</v>
+      </c>
+      <c r="G38" s="79">
+        <v>2.7</v>
+      </c>
+      <c r="H38" s="79">
+        <v>3.24</v>
+      </c>
+      <c r="I38" s="79">
+        <v>3.78</v>
+      </c>
+      <c r="J38" s="79">
+        <v>4.32</v>
+      </c>
+      <c r="K38" s="79">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="L38" s="79">
+        <v>5.4</v>
+      </c>
+      <c r="M38" s="79">
+        <v>5.94</v>
+      </c>
+      <c r="N38" s="79">
+        <v>6.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:N3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A4:M39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="81"/>
+      <c r="B5" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="J5" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="K5" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="L5" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="M5" s="77" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="79">
+        <v>141</v>
+      </c>
+      <c r="C6" s="79">
+        <v>282</v>
+      </c>
+      <c r="D6" s="79">
+        <v>423</v>
+      </c>
+      <c r="E6" s="79">
+        <v>564</v>
+      </c>
+      <c r="F6" s="79">
+        <v>705</v>
+      </c>
+      <c r="G6" s="79">
+        <v>846</v>
+      </c>
+      <c r="H6" s="79">
+        <v>987</v>
+      </c>
+      <c r="I6" s="79">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="J6" s="79">
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="K6" s="79">
+        <v>1.41</v>
+      </c>
+      <c r="L6" s="79">
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="M6" s="79">
+        <v>1.6919999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="79">
+        <v>163</v>
+      </c>
+      <c r="C7" s="79">
+        <v>326</v>
+      </c>
+      <c r="D7" s="79">
+        <v>489</v>
+      </c>
+      <c r="E7" s="79">
+        <v>652</v>
+      </c>
+      <c r="F7" s="79">
+        <v>815</v>
+      </c>
+      <c r="G7" s="79">
+        <v>978</v>
+      </c>
+      <c r="H7" s="79">
+        <v>1.141</v>
+      </c>
+      <c r="I7" s="79">
+        <v>1.304</v>
+      </c>
+      <c r="J7" s="79">
+        <v>1.4670000000000001</v>
+      </c>
+      <c r="K7" s="79">
+        <v>1.63</v>
+      </c>
+      <c r="L7" s="79">
+        <v>1.7929999999999999</v>
+      </c>
+      <c r="M7" s="79">
+        <v>1.956</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="79">
+        <v>184</v>
+      </c>
+      <c r="C8" s="79">
+        <v>368</v>
+      </c>
+      <c r="D8" s="79">
+        <v>552</v>
+      </c>
+      <c r="E8" s="79">
+        <v>736</v>
+      </c>
+      <c r="F8" s="79">
+        <v>920</v>
+      </c>
+      <c r="G8" s="79">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="H8" s="79">
+        <v>1.288</v>
+      </c>
+      <c r="I8" s="79">
+        <v>1.472</v>
+      </c>
+      <c r="J8" s="79">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="K8" s="79">
+        <v>1.84</v>
+      </c>
+      <c r="L8" s="79">
+        <v>2.024</v>
+      </c>
+      <c r="M8" s="79">
+        <v>2.2080000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="79">
+        <v>206</v>
+      </c>
+      <c r="C9" s="79">
+        <v>412</v>
+      </c>
+      <c r="D9" s="79">
+        <v>618</v>
+      </c>
+      <c r="E9" s="79">
+        <v>824</v>
+      </c>
+      <c r="F9" s="79">
+        <v>1.03</v>
+      </c>
+      <c r="G9" s="79">
+        <v>1.236</v>
+      </c>
+      <c r="H9" s="79">
+        <v>1.4419999999999999</v>
+      </c>
+      <c r="I9" s="79">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="J9" s="79">
+        <v>1.8540000000000001</v>
+      </c>
+      <c r="K9" s="79">
+        <v>2.06</v>
+      </c>
+      <c r="L9" s="79">
+        <v>2.266</v>
+      </c>
+      <c r="M9" s="79">
+        <v>2.472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="79">
+        <v>228</v>
+      </c>
+      <c r="C10" s="79">
+        <v>456</v>
+      </c>
+      <c r="D10" s="79">
+        <v>684</v>
+      </c>
+      <c r="E10" s="79">
+        <v>912</v>
+      </c>
+      <c r="F10" s="79">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G10" s="79">
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="H10" s="79">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="I10" s="79">
+        <v>1.8240000000000001</v>
+      </c>
+      <c r="J10" s="79">
+        <v>2.052</v>
+      </c>
+      <c r="K10" s="79">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="L10" s="79">
+        <v>2.508</v>
+      </c>
+      <c r="M10" s="79">
+        <v>2.7360000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="79">
+        <v>249</v>
+      </c>
+      <c r="C11" s="79">
+        <v>498</v>
+      </c>
+      <c r="D11" s="79">
+        <v>747</v>
+      </c>
+      <c r="E11" s="79">
+        <v>996</v>
+      </c>
+      <c r="F11" s="79">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="G11" s="79">
+        <v>1.494</v>
+      </c>
+      <c r="H11" s="79">
+        <v>1.7430000000000001</v>
+      </c>
+      <c r="I11" s="79">
+        <v>1.992</v>
+      </c>
+      <c r="J11" s="79">
+        <v>2.2410000000000001</v>
+      </c>
+      <c r="K11" s="79">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="L11" s="79">
+        <v>2.7389999999999999</v>
+      </c>
+      <c r="M11" s="79">
+        <v>2.988</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="79">
+        <v>271</v>
+      </c>
+      <c r="C12" s="79">
+        <v>542</v>
+      </c>
+      <c r="D12" s="79">
+        <v>813</v>
+      </c>
+      <c r="E12" s="79">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="F12" s="79">
+        <v>1.355</v>
+      </c>
+      <c r="G12" s="79">
+        <v>1.6259999999999999</v>
+      </c>
+      <c r="H12" s="79">
+        <v>1.897</v>
+      </c>
+      <c r="I12" s="79">
+        <v>2.1680000000000001</v>
+      </c>
+      <c r="J12" s="79">
+        <v>2.4390000000000001</v>
+      </c>
+      <c r="K12" s="79">
+        <v>2.71</v>
+      </c>
+      <c r="L12" s="79">
+        <v>2.9809999999999999</v>
+      </c>
+      <c r="M12" s="79">
+        <v>3.2519999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="79">
+        <v>293</v>
+      </c>
+      <c r="C13" s="79">
+        <v>586</v>
+      </c>
+      <c r="D13" s="79">
+        <v>879</v>
+      </c>
+      <c r="E13" s="79">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="F13" s="79">
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="G13" s="79">
+        <v>1.758</v>
+      </c>
+      <c r="H13" s="79">
+        <v>2.0510000000000002</v>
+      </c>
+      <c r="I13" s="79">
+        <v>2.3439999999999999</v>
+      </c>
+      <c r="J13" s="79">
+        <v>2.637</v>
+      </c>
+      <c r="K13" s="79">
+        <v>2.93</v>
+      </c>
+      <c r="L13" s="79">
+        <v>3.2229999999999999</v>
+      </c>
+      <c r="M13" s="79">
+        <v>3.516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="79">
+        <v>314</v>
+      </c>
+      <c r="C14" s="79">
+        <v>628</v>
+      </c>
+      <c r="D14" s="79">
+        <v>942</v>
+      </c>
+      <c r="E14" s="79">
+        <v>1.256</v>
+      </c>
+      <c r="F14" s="79">
+        <v>1.57</v>
+      </c>
+      <c r="G14" s="79">
+        <v>1.8839999999999999</v>
+      </c>
+      <c r="H14" s="79">
+        <v>2.198</v>
+      </c>
+      <c r="I14" s="79">
+        <v>2.512</v>
+      </c>
+      <c r="J14" s="79">
+        <v>2.8260000000000001</v>
+      </c>
+      <c r="K14" s="79">
+        <v>3.14</v>
+      </c>
+      <c r="L14" s="79">
+        <v>3.4540000000000002</v>
+      </c>
+      <c r="M14" s="79">
+        <v>3.7679999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="79">
+        <v>336</v>
+      </c>
+      <c r="C15" s="79">
+        <v>672</v>
+      </c>
+      <c r="D15" s="79">
+        <v>1.008</v>
+      </c>
+      <c r="E15" s="79">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="F15" s="79">
+        <v>1.68</v>
+      </c>
+      <c r="G15" s="79">
+        <v>2.016</v>
+      </c>
+      <c r="H15" s="79">
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="I15" s="79">
+        <v>2.6880000000000002</v>
+      </c>
+      <c r="J15" s="79">
+        <v>3.024</v>
+      </c>
+      <c r="K15" s="79">
+        <v>3.36</v>
+      </c>
+      <c r="L15" s="79">
+        <v>3.6960000000000002</v>
+      </c>
+      <c r="M15" s="79">
+        <v>4.032</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="79">
+        <v>358</v>
+      </c>
+      <c r="C16" s="79">
+        <v>716</v>
+      </c>
+      <c r="D16" s="79">
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="E16" s="79">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="F16" s="79">
+        <v>1.79</v>
+      </c>
+      <c r="G16" s="79">
+        <v>2.1480000000000001</v>
+      </c>
+      <c r="H16" s="79">
+        <v>2.5059999999999998</v>
+      </c>
+      <c r="I16" s="79">
+        <v>2.8639999999999999</v>
+      </c>
+      <c r="J16" s="79">
+        <v>3.222</v>
+      </c>
+      <c r="K16" s="79">
+        <v>3.58</v>
+      </c>
+      <c r="L16" s="79">
+        <v>3.9380000000000002</v>
+      </c>
+      <c r="M16" s="79">
+        <v>4.2960000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="79">
+        <v>379</v>
+      </c>
+      <c r="C17" s="79">
+        <v>758</v>
+      </c>
+      <c r="D17" s="79">
+        <v>1.137</v>
+      </c>
+      <c r="E17" s="79">
+        <v>1.516</v>
+      </c>
+      <c r="F17" s="79">
+        <v>1.895</v>
+      </c>
+      <c r="G17" s="79">
+        <v>2.274</v>
+      </c>
+      <c r="H17" s="79">
+        <v>2.653</v>
+      </c>
+      <c r="I17" s="79">
+        <v>3.032</v>
+      </c>
+      <c r="J17" s="79">
+        <v>3.411</v>
+      </c>
+      <c r="K17" s="79">
+        <v>3.79</v>
+      </c>
+      <c r="L17" s="79">
+        <v>4.1689999999999996</v>
+      </c>
+      <c r="M17" s="79">
+        <v>4.548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="79">
+        <v>401</v>
+      </c>
+      <c r="C18" s="79">
+        <v>802</v>
+      </c>
+      <c r="D18" s="79">
+        <v>1.2030000000000001</v>
+      </c>
+      <c r="E18" s="79">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="F18" s="79">
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="G18" s="79">
+        <v>2.4060000000000001</v>
+      </c>
+      <c r="H18" s="79">
+        <v>2.8069999999999999</v>
+      </c>
+      <c r="I18" s="79">
+        <v>3.2080000000000002</v>
+      </c>
+      <c r="J18" s="79">
+        <v>3.609</v>
+      </c>
+      <c r="K18" s="79">
+        <v>4.01</v>
+      </c>
+      <c r="L18" s="79">
+        <v>4.4109999999999996</v>
+      </c>
+      <c r="M18" s="79">
+        <v>4.8120000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="79">
+        <v>423</v>
+      </c>
+      <c r="C19" s="79">
+        <v>846</v>
+      </c>
+      <c r="D19" s="79">
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="E19" s="79">
+        <v>1.6919999999999999</v>
+      </c>
+      <c r="F19" s="79">
+        <v>2.1150000000000002</v>
+      </c>
+      <c r="G19" s="79">
+        <v>2.5379999999999998</v>
+      </c>
+      <c r="H19" s="79">
+        <v>2.9609999999999999</v>
+      </c>
+      <c r="I19" s="79">
+        <v>3.3839999999999999</v>
+      </c>
+      <c r="J19" s="79">
+        <v>3.8069999999999999</v>
+      </c>
+      <c r="K19" s="79">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="L19" s="79">
+        <v>4.6529999999999996</v>
+      </c>
+      <c r="M19" s="79">
+        <v>5.0759999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="79">
+        <v>444</v>
+      </c>
+      <c r="C20" s="79">
+        <v>888</v>
+      </c>
+      <c r="D20" s="79">
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="E20" s="79">
+        <v>1.776</v>
+      </c>
+      <c r="F20" s="79">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G20" s="79">
+        <v>2.6640000000000001</v>
+      </c>
+      <c r="H20" s="79">
+        <v>3.1080000000000001</v>
+      </c>
+      <c r="I20" s="79">
+        <v>3.552</v>
+      </c>
+      <c r="J20" s="79">
+        <v>3.996</v>
+      </c>
+      <c r="K20" s="79">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="L20" s="79">
+        <v>4.8840000000000003</v>
+      </c>
+      <c r="M20" s="79">
+        <v>5.3280000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="79">
+        <v>466</v>
+      </c>
+      <c r="C21" s="79">
+        <v>932</v>
+      </c>
+      <c r="D21" s="79">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="E21" s="79">
+        <v>1.8640000000000001</v>
+      </c>
+      <c r="F21" s="79">
+        <v>2.33</v>
+      </c>
+      <c r="G21" s="79">
+        <v>2.7959999999999998</v>
+      </c>
+      <c r="H21" s="79">
+        <v>3.262</v>
+      </c>
+      <c r="I21" s="79">
+        <v>3.7280000000000002</v>
+      </c>
+      <c r="J21" s="79">
+        <v>4.194</v>
+      </c>
+      <c r="K21" s="79">
+        <v>4.66</v>
+      </c>
+      <c r="L21" s="79">
+        <v>5.1260000000000003</v>
+      </c>
+      <c r="M21" s="79">
+        <v>5.5919999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="79">
+        <v>488</v>
+      </c>
+      <c r="C22" s="79">
+        <v>976</v>
+      </c>
+      <c r="D22" s="79">
+        <v>1.464</v>
+      </c>
+      <c r="E22" s="79">
+        <v>1.952</v>
+      </c>
+      <c r="F22" s="79">
+        <v>2.44</v>
+      </c>
+      <c r="G22" s="79">
+        <v>2.9279999999999999</v>
+      </c>
+      <c r="H22" s="79">
+        <v>3.4159999999999999</v>
+      </c>
+      <c r="I22" s="79">
+        <v>3.9039999999999999</v>
+      </c>
+      <c r="J22" s="79">
+        <v>4.3920000000000003</v>
+      </c>
+      <c r="K22" s="79">
+        <v>4.88</v>
+      </c>
+      <c r="L22" s="79">
+        <v>5.3680000000000003</v>
+      </c>
+      <c r="M22" s="79">
+        <v>5.8559999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="79">
+        <v>509</v>
+      </c>
+      <c r="C23" s="79">
+        <v>1.018</v>
+      </c>
+      <c r="D23" s="79">
+        <v>1.5269999999999999</v>
+      </c>
+      <c r="E23" s="79">
+        <v>2.036</v>
+      </c>
+      <c r="F23" s="79">
+        <v>2.5449999999999999</v>
+      </c>
+      <c r="G23" s="79">
+        <v>3.0539999999999998</v>
+      </c>
+      <c r="H23" s="79">
+        <v>3.5630000000000002</v>
+      </c>
+      <c r="I23" s="79">
+        <v>4.0720000000000001</v>
+      </c>
+      <c r="J23" s="79">
+        <v>4.5810000000000004</v>
+      </c>
+      <c r="K23" s="79">
+        <v>5.09</v>
+      </c>
+      <c r="L23" s="79">
+        <v>5.5990000000000002</v>
+      </c>
+      <c r="M23" s="79">
+        <v>6.1079999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" s="79">
+        <v>531</v>
+      </c>
+      <c r="C24" s="79">
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="D24" s="79">
+        <v>1.593</v>
+      </c>
+      <c r="E24" s="79">
+        <v>2.1240000000000001</v>
+      </c>
+      <c r="F24" s="79">
+        <v>2.6549999999999998</v>
+      </c>
+      <c r="G24" s="79">
+        <v>3.1859999999999999</v>
+      </c>
+      <c r="H24" s="79">
+        <v>3.7170000000000001</v>
+      </c>
+      <c r="I24" s="79">
+        <v>4.2480000000000002</v>
+      </c>
+      <c r="J24" s="79">
+        <v>4.7789999999999999</v>
+      </c>
+      <c r="K24" s="79">
+        <v>5.31</v>
+      </c>
+      <c r="L24" s="79">
+        <v>5.8410000000000002</v>
+      </c>
+      <c r="M24" s="79">
+        <v>6.3719999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="79">
+        <v>553</v>
+      </c>
+      <c r="C25" s="79">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="D25" s="79">
+        <v>1.659</v>
+      </c>
+      <c r="E25" s="79">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="F25" s="79">
+        <v>2.7650000000000001</v>
+      </c>
+      <c r="G25" s="79">
+        <v>3.3180000000000001</v>
+      </c>
+      <c r="H25" s="79">
+        <v>3.871</v>
+      </c>
+      <c r="I25" s="79">
+        <v>4.4240000000000004</v>
+      </c>
+      <c r="J25" s="79">
+        <v>4.9770000000000003</v>
+      </c>
+      <c r="K25" s="79">
+        <v>5.53</v>
+      </c>
+      <c r="L25" s="79">
+        <v>6.0830000000000002</v>
+      </c>
+      <c r="M25" s="79">
+        <v>6.6360000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" s="79">
+        <v>574</v>
+      </c>
+      <c r="C26" s="79">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="D26" s="79">
+        <v>1.722</v>
+      </c>
+      <c r="E26" s="79">
+        <v>2.2959999999999998</v>
+      </c>
+      <c r="F26" s="79">
+        <v>2.87</v>
+      </c>
+      <c r="G26" s="79">
+        <v>3.444</v>
+      </c>
+      <c r="H26" s="79">
+        <v>4.0179999999999998</v>
+      </c>
+      <c r="I26" s="79">
+        <v>4.5919999999999996</v>
+      </c>
+      <c r="J26" s="79">
+        <v>5.1660000000000004</v>
+      </c>
+      <c r="K26" s="79">
+        <v>5.74</v>
+      </c>
+      <c r="L26" s="79">
+        <v>6.3140000000000001</v>
+      </c>
+      <c r="M26" s="79">
+        <v>6.8879999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" s="79">
+        <v>596</v>
+      </c>
+      <c r="C27" s="79">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="D27" s="79">
+        <v>1.788</v>
+      </c>
+      <c r="E27" s="79">
+        <v>2.3839999999999999</v>
+      </c>
+      <c r="F27" s="79">
+        <v>2.98</v>
+      </c>
+      <c r="G27" s="79">
+        <v>3.5760000000000001</v>
+      </c>
+      <c r="H27" s="79">
+        <v>4.1719999999999997</v>
+      </c>
+      <c r="I27" s="79">
+        <v>4.7679999999999998</v>
+      </c>
+      <c r="J27" s="79">
+        <v>5.3639999999999999</v>
+      </c>
+      <c r="K27" s="79">
+        <v>5.96</v>
+      </c>
+      <c r="L27" s="79">
+        <v>6.556</v>
+      </c>
+      <c r="M27" s="79">
+        <v>7.1520000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="79">
+        <v>618</v>
+      </c>
+      <c r="C28" s="79">
+        <v>1.236</v>
+      </c>
+      <c r="D28" s="79">
+        <v>1.8540000000000001</v>
+      </c>
+      <c r="E28" s="79">
+        <v>2.472</v>
+      </c>
+      <c r="F28" s="79">
+        <v>3.09</v>
+      </c>
+      <c r="G28" s="79">
+        <v>3.7080000000000002</v>
+      </c>
+      <c r="H28" s="79">
+        <v>4.3259999999999996</v>
+      </c>
+      <c r="I28" s="79">
+        <v>4.944</v>
+      </c>
+      <c r="J28" s="79">
+        <v>5.5620000000000003</v>
+      </c>
+      <c r="K28" s="79">
+        <v>6.18</v>
+      </c>
+      <c r="L28" s="79">
+        <v>6.798</v>
+      </c>
+      <c r="M28" s="79">
+        <v>7.4160000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="79">
+        <v>639</v>
+      </c>
+      <c r="C29" s="79">
+        <v>1.278</v>
+      </c>
+      <c r="D29" s="79">
+        <v>1.917</v>
+      </c>
+      <c r="E29" s="79">
+        <v>2.556</v>
+      </c>
+      <c r="F29" s="79">
+        <v>3.1949999999999998</v>
+      </c>
+      <c r="G29" s="79">
+        <v>3.8340000000000001</v>
+      </c>
+      <c r="H29" s="79">
+        <v>4.4729999999999999</v>
+      </c>
+      <c r="I29" s="79">
+        <v>5.1120000000000001</v>
+      </c>
+      <c r="J29" s="79">
+        <v>5.7510000000000003</v>
+      </c>
+      <c r="K29" s="79">
+        <v>6.39</v>
+      </c>
+      <c r="L29" s="79">
+        <v>7.0289999999999999</v>
+      </c>
+      <c r="M29" s="79">
+        <v>7.6680000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="B30" s="79">
+        <v>661</v>
+      </c>
+      <c r="C30" s="79">
+        <v>1.3220000000000001</v>
+      </c>
+      <c r="D30" s="79">
+        <v>1.9830000000000001</v>
+      </c>
+      <c r="E30" s="79">
+        <v>2.6440000000000001</v>
+      </c>
+      <c r="F30" s="79">
+        <v>3.3050000000000002</v>
+      </c>
+      <c r="G30" s="79">
+        <v>3.9660000000000002</v>
+      </c>
+      <c r="H30" s="79">
+        <v>4.6269999999999998</v>
+      </c>
+      <c r="I30" s="79">
+        <v>5.2880000000000003</v>
+      </c>
+      <c r="J30" s="79">
+        <v>5.9489999999999998</v>
+      </c>
+      <c r="K30" s="79">
+        <v>6.61</v>
+      </c>
+      <c r="L30" s="79">
+        <v>7.2709999999999999</v>
+      </c>
+      <c r="M30" s="79">
+        <v>7.9320000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="79">
+        <v>683</v>
+      </c>
+      <c r="C31" s="79">
+        <v>1.3660000000000001</v>
+      </c>
+      <c r="D31" s="79">
+        <v>2.0489999999999999</v>
+      </c>
+      <c r="E31" s="79">
+        <v>2.7320000000000002</v>
+      </c>
+      <c r="F31" s="79">
+        <v>3.415</v>
+      </c>
+      <c r="G31" s="79">
+        <v>4.0979999999999999</v>
+      </c>
+      <c r="H31" s="79">
+        <v>4.7809999999999997</v>
+      </c>
+      <c r="I31" s="79">
+        <v>5.4640000000000004</v>
+      </c>
+      <c r="J31" s="79">
+        <v>6.1470000000000002</v>
+      </c>
+      <c r="K31" s="79">
+        <v>6.83</v>
+      </c>
+      <c r="L31" s="79">
+        <v>7.5129999999999999</v>
+      </c>
+      <c r="M31" s="79">
+        <v>8.1959999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="79">
+        <v>704</v>
+      </c>
+      <c r="C32" s="79">
+        <v>1.4079999999999999</v>
+      </c>
+      <c r="D32" s="79">
+        <v>2.1120000000000001</v>
+      </c>
+      <c r="E32" s="79">
+        <v>2.8159999999999998</v>
+      </c>
+      <c r="F32" s="79">
+        <v>3.52</v>
+      </c>
+      <c r="G32" s="79">
+        <v>4.2240000000000002</v>
+      </c>
+      <c r="H32" s="79">
+        <v>4.9279999999999999</v>
+      </c>
+      <c r="I32" s="79">
+        <v>5.6319999999999997</v>
+      </c>
+      <c r="J32" s="79">
+        <v>6.3360000000000003</v>
+      </c>
+      <c r="K32" s="79">
+        <v>7.04</v>
+      </c>
+      <c r="L32" s="79">
+        <v>7.7439999999999998</v>
+      </c>
+      <c r="M32" s="79">
+        <v>8.4480000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="79">
+        <v>726</v>
+      </c>
+      <c r="C33" s="79">
+        <v>1.452</v>
+      </c>
+      <c r="D33" s="79">
+        <v>2.1779999999999999</v>
+      </c>
+      <c r="E33" s="79">
+        <v>2.9039999999999999</v>
+      </c>
+      <c r="F33" s="79">
+        <v>3.63</v>
+      </c>
+      <c r="G33" s="79">
+        <v>4.3559999999999999</v>
+      </c>
+      <c r="H33" s="79">
+        <v>5.0819999999999999</v>
+      </c>
+      <c r="I33" s="79">
+        <v>5.8079999999999998</v>
+      </c>
+      <c r="J33" s="79">
+        <v>6.5339999999999998</v>
+      </c>
+      <c r="K33" s="79">
+        <v>7.26</v>
+      </c>
+      <c r="L33" s="79">
+        <v>7.9859999999999998</v>
+      </c>
+      <c r="M33" s="79">
+        <v>8.7119999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="79">
+        <v>748</v>
+      </c>
+      <c r="C34" s="79">
+        <v>1.496</v>
+      </c>
+      <c r="D34" s="79">
+        <v>2.2440000000000002</v>
+      </c>
+      <c r="E34" s="79">
+        <v>2.992</v>
+      </c>
+      <c r="F34" s="79">
+        <v>3.74</v>
+      </c>
+      <c r="G34" s="79">
+        <v>4.4880000000000004</v>
+      </c>
+      <c r="H34" s="79">
+        <v>5.2359999999999998</v>
+      </c>
+      <c r="I34" s="79">
+        <v>5.984</v>
+      </c>
+      <c r="J34" s="79">
+        <v>6.7320000000000002</v>
+      </c>
+      <c r="K34" s="79">
+        <v>7.48</v>
+      </c>
+      <c r="L34" s="79">
+        <v>8.2279999999999998</v>
+      </c>
+      <c r="M34" s="79">
+        <v>8.9760000000000009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" s="79">
+        <v>769</v>
+      </c>
+      <c r="C35" s="79">
+        <v>1.538</v>
+      </c>
+      <c r="D35" s="79">
+        <v>2.3069999999999999</v>
+      </c>
+      <c r="E35" s="79">
+        <v>3.0760000000000001</v>
+      </c>
+      <c r="F35" s="79">
+        <v>3.8450000000000002</v>
+      </c>
+      <c r="G35" s="79">
+        <v>4.6139999999999999</v>
+      </c>
+      <c r="H35" s="79">
+        <v>5.383</v>
+      </c>
+      <c r="I35" s="79">
+        <v>6.1520000000000001</v>
+      </c>
+      <c r="J35" s="79">
+        <v>6.9210000000000003</v>
+      </c>
+      <c r="K35" s="79">
+        <v>7.69</v>
+      </c>
+      <c r="L35" s="79">
+        <v>8.4589999999999996</v>
+      </c>
+      <c r="M35" s="79">
+        <v>9.2279999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" s="79">
+        <v>791</v>
+      </c>
+      <c r="C36" s="79">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="D36" s="79">
+        <v>2.3730000000000002</v>
+      </c>
+      <c r="E36" s="79">
+        <v>3.1640000000000001</v>
+      </c>
+      <c r="F36" s="79">
+        <v>3.9550000000000001</v>
+      </c>
+      <c r="G36" s="79">
+        <v>4.7460000000000004</v>
+      </c>
+      <c r="H36" s="79">
+        <v>5.5369999999999999</v>
+      </c>
+      <c r="I36" s="79">
+        <v>6.3280000000000003</v>
+      </c>
+      <c r="J36" s="79">
+        <v>7.1189999999999998</v>
+      </c>
+      <c r="K36" s="79">
+        <v>7.91</v>
+      </c>
+      <c r="L36" s="79">
+        <v>8.7010000000000005</v>
+      </c>
+      <c r="M36" s="79">
+        <v>9.4920000000000009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" s="79">
+        <v>813</v>
+      </c>
+      <c r="C37" s="79">
+        <v>1.6259999999999999</v>
+      </c>
+      <c r="D37" s="79">
+        <v>2.4390000000000001</v>
+      </c>
+      <c r="E37" s="79">
+        <v>3.2519999999999998</v>
+      </c>
+      <c r="F37" s="79">
+        <v>4.0650000000000004</v>
+      </c>
+      <c r="G37" s="79">
+        <v>4.8780000000000001</v>
+      </c>
+      <c r="H37" s="79">
+        <v>5.6909999999999998</v>
+      </c>
+      <c r="I37" s="79">
+        <v>6.5039999999999996</v>
+      </c>
+      <c r="J37" s="79">
+        <v>7.3170000000000002</v>
+      </c>
+      <c r="K37" s="79">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="L37" s="79">
+        <v>8.9429999999999996</v>
+      </c>
+      <c r="M37" s="79">
+        <v>9.7560000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38" s="79">
+        <v>834</v>
+      </c>
+      <c r="C38" s="79">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="D38" s="79">
+        <v>2.5019999999999998</v>
+      </c>
+      <c r="E38" s="79">
+        <v>3.3359999999999999</v>
+      </c>
+      <c r="F38" s="79">
+        <v>4.17</v>
+      </c>
+      <c r="G38" s="79">
+        <v>5.0039999999999996</v>
+      </c>
+      <c r="H38" s="79">
+        <v>5.8380000000000001</v>
+      </c>
+      <c r="I38" s="79">
+        <v>6.6719999999999997</v>
+      </c>
+      <c r="J38" s="79">
+        <v>7.5060000000000002</v>
+      </c>
+      <c r="K38" s="79">
+        <v>8.34</v>
+      </c>
+      <c r="L38" s="79">
+        <v>9.1739999999999995</v>
+      </c>
+      <c r="M38" s="79">
+        <v>10.007999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="79">
+        <v>856</v>
+      </c>
+      <c r="C39" s="79">
+        <v>1.712</v>
+      </c>
+      <c r="D39" s="79">
+        <v>2.5680000000000001</v>
+      </c>
+      <c r="E39" s="79">
+        <v>3.4239999999999999</v>
+      </c>
+      <c r="F39" s="79">
+        <v>4.28</v>
+      </c>
+      <c r="G39" s="79">
+        <v>5.1360000000000001</v>
+      </c>
+      <c r="H39" s="79">
+        <v>5.992</v>
+      </c>
+      <c r="I39" s="79">
+        <v>6.8479999999999999</v>
+      </c>
+      <c r="J39" s="79">
+        <v>7.7039999999999997</v>
+      </c>
+      <c r="K39" s="79">
+        <v>8.56</v>
+      </c>
+      <c r="L39" s="79">
+        <v>9.4160000000000004</v>
+      </c>
+      <c r="M39" s="79">
+        <v>10.272</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:M4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A3:N38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="84"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="L4" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="M4" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="N4" s="77" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="79">
+        <v>3.25</v>
+      </c>
+      <c r="C5" s="79">
+        <v>173</v>
+      </c>
+      <c r="D5" s="79">
+        <v>346</v>
+      </c>
+      <c r="E5" s="79">
+        <v>519</v>
+      </c>
+      <c r="F5" s="79">
+        <v>692</v>
+      </c>
+      <c r="G5" s="79">
+        <v>865</v>
+      </c>
+      <c r="H5" s="79">
+        <v>1.038</v>
+      </c>
+      <c r="I5" s="79">
+        <v>1.2110000000000001</v>
+      </c>
+      <c r="J5" s="79">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="K5" s="79">
+        <v>1.5569999999999999</v>
+      </c>
+      <c r="L5" s="79">
+        <v>1.73</v>
+      </c>
+      <c r="M5" s="79">
+        <v>1.903</v>
+      </c>
+      <c r="N5" s="79">
+        <v>2.0760000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="79">
+        <v>3.75</v>
+      </c>
+      <c r="C6" s="79">
+        <v>200</v>
+      </c>
+      <c r="D6" s="79">
+        <v>400</v>
+      </c>
+      <c r="E6" s="79">
+        <v>600</v>
+      </c>
+      <c r="F6" s="79">
+        <v>800</v>
+      </c>
+      <c r="G6" s="79">
+        <v>1</v>
+      </c>
+      <c r="H6" s="79">
+        <v>1.2</v>
+      </c>
+      <c r="I6" s="79">
+        <v>1.4</v>
+      </c>
+      <c r="J6" s="79">
+        <v>1.6</v>
+      </c>
+      <c r="K6" s="79">
+        <v>1.8</v>
+      </c>
+      <c r="L6" s="79">
+        <v>2</v>
+      </c>
+      <c r="M6" s="79">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N6" s="79">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="79">
+        <v>4.25</v>
+      </c>
+      <c r="C7" s="79">
+        <v>227</v>
+      </c>
+      <c r="D7" s="79">
+        <v>454</v>
+      </c>
+      <c r="E7" s="79">
+        <v>681</v>
+      </c>
+      <c r="F7" s="79">
+        <v>908</v>
+      </c>
+      <c r="G7" s="79">
+        <v>1.135</v>
+      </c>
+      <c r="H7" s="79">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I7" s="79">
+        <v>1.589</v>
+      </c>
+      <c r="J7" s="79">
+        <v>1.8160000000000001</v>
+      </c>
+      <c r="K7" s="79">
+        <v>2.0430000000000001</v>
+      </c>
+      <c r="L7" s="79">
+        <v>2.27</v>
+      </c>
+      <c r="M7" s="79">
+        <v>2.4969999999999999</v>
+      </c>
+      <c r="N7" s="79">
+        <v>2.7240000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="79">
+        <v>4.75</v>
+      </c>
+      <c r="C8" s="79">
+        <v>253</v>
+      </c>
+      <c r="D8" s="79">
+        <v>506</v>
+      </c>
+      <c r="E8" s="79">
+        <v>759</v>
+      </c>
+      <c r="F8" s="79">
+        <v>1.012</v>
+      </c>
+      <c r="G8" s="79">
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="H8" s="79">
+        <v>1.518</v>
+      </c>
+      <c r="I8" s="79">
+        <v>1.7709999999999999</v>
+      </c>
+      <c r="J8" s="79">
+        <v>2.024</v>
+      </c>
+      <c r="K8" s="79">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="L8" s="79">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="M8" s="79">
+        <v>2.7829999999999999</v>
+      </c>
+      <c r="N8" s="79">
+        <v>3.036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="79">
+        <v>5.25</v>
+      </c>
+      <c r="C9" s="79">
+        <v>280</v>
+      </c>
+      <c r="D9" s="79">
+        <v>560</v>
+      </c>
+      <c r="E9" s="79">
+        <v>840</v>
+      </c>
+      <c r="F9" s="79">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G9" s="79">
+        <v>1.4</v>
+      </c>
+      <c r="H9" s="79">
+        <v>1.68</v>
+      </c>
+      <c r="I9" s="79">
+        <v>1.96</v>
+      </c>
+      <c r="J9" s="79">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="K9" s="79">
+        <v>2.52</v>
+      </c>
+      <c r="L9" s="79">
+        <v>2.8</v>
+      </c>
+      <c r="M9" s="79">
+        <v>3.08</v>
+      </c>
+      <c r="N9" s="79">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="79">
+        <v>5.75</v>
+      </c>
+      <c r="C10" s="79">
+        <v>307</v>
+      </c>
+      <c r="D10" s="79">
+        <v>614</v>
+      </c>
+      <c r="E10" s="79">
+        <v>921</v>
+      </c>
+      <c r="F10" s="79">
+        <v>1.228</v>
+      </c>
+      <c r="G10" s="79">
+        <v>1.5349999999999999</v>
+      </c>
+      <c r="H10" s="79">
+        <v>1.8420000000000001</v>
+      </c>
+      <c r="I10" s="79">
+        <v>2.149</v>
+      </c>
+      <c r="J10" s="79">
+        <v>2.456</v>
+      </c>
+      <c r="K10" s="79">
+        <v>2.7629999999999999</v>
+      </c>
+      <c r="L10" s="79">
+        <v>3.07</v>
+      </c>
+      <c r="M10" s="79">
+        <v>3.3769999999999998</v>
+      </c>
+      <c r="N10" s="79">
+        <v>3.6840000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="79">
+        <v>6.25</v>
+      </c>
+      <c r="C11" s="79">
+        <v>333</v>
+      </c>
+      <c r="D11" s="79">
+        <v>666</v>
+      </c>
+      <c r="E11" s="79">
+        <v>999</v>
+      </c>
+      <c r="F11" s="79">
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="G11" s="79">
+        <v>1.665</v>
+      </c>
+      <c r="H11" s="79">
+        <v>1.998</v>
+      </c>
+      <c r="I11" s="79">
+        <v>2.331</v>
+      </c>
+      <c r="J11" s="79">
+        <v>2.6640000000000001</v>
+      </c>
+      <c r="K11" s="79">
+        <v>2.9969999999999999</v>
+      </c>
+      <c r="L11" s="79">
+        <v>3.33</v>
+      </c>
+      <c r="M11" s="79">
+        <v>3.6629999999999998</v>
+      </c>
+      <c r="N11" s="79">
+        <v>3.996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="79">
+        <v>6.75</v>
+      </c>
+      <c r="C12" s="79">
+        <v>360</v>
+      </c>
+      <c r="D12" s="79">
+        <v>720</v>
+      </c>
+      <c r="E12" s="79">
+        <v>1.08</v>
+      </c>
+      <c r="F12" s="79">
+        <v>1.44</v>
+      </c>
+      <c r="G12" s="79">
+        <v>1.8</v>
+      </c>
+      <c r="H12" s="79">
+        <v>2.16</v>
+      </c>
+      <c r="I12" s="79">
+        <v>2.52</v>
+      </c>
+      <c r="J12" s="79">
+        <v>2.88</v>
+      </c>
+      <c r="K12" s="79">
+        <v>3.24</v>
+      </c>
+      <c r="L12" s="79">
+        <v>3.6</v>
+      </c>
+      <c r="M12" s="79">
+        <v>3.96</v>
+      </c>
+      <c r="N12" s="79">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="79">
+        <v>7.25</v>
+      </c>
+      <c r="C13" s="79">
+        <v>387</v>
+      </c>
+      <c r="D13" s="79">
+        <v>774</v>
+      </c>
+      <c r="E13" s="79">
+        <v>1.161</v>
+      </c>
+      <c r="F13" s="79">
+        <v>1.548</v>
+      </c>
+      <c r="G13" s="79">
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="H13" s="79">
+        <v>2.3220000000000001</v>
+      </c>
+      <c r="I13" s="79">
+        <v>2.7090000000000001</v>
+      </c>
+      <c r="J13" s="79">
+        <v>3.0960000000000001</v>
+      </c>
+      <c r="K13" s="79">
+        <v>3.4830000000000001</v>
+      </c>
+      <c r="L13" s="79">
+        <v>3.87</v>
+      </c>
+      <c r="M13" s="79">
+        <v>4.2569999999999997</v>
+      </c>
+      <c r="N13" s="79">
+        <v>4.6440000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="79">
+        <v>7.75</v>
+      </c>
+      <c r="C14" s="79">
+        <v>413</v>
+      </c>
+      <c r="D14" s="79">
+        <v>826</v>
+      </c>
+      <c r="E14" s="79">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="F14" s="79">
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="G14" s="79">
+        <v>2.0649999999999999</v>
+      </c>
+      <c r="H14" s="79">
+        <v>2.4780000000000002</v>
+      </c>
+      <c r="I14" s="79">
+        <v>2.891</v>
+      </c>
+      <c r="J14" s="79">
+        <v>3.3039999999999998</v>
+      </c>
+      <c r="K14" s="79">
+        <v>3.7170000000000001</v>
+      </c>
+      <c r="L14" s="79">
+        <v>4.13</v>
+      </c>
+      <c r="M14" s="79">
+        <v>4.5430000000000001</v>
+      </c>
+      <c r="N14" s="79">
+        <v>4.9560000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="79">
+        <v>8.25</v>
+      </c>
+      <c r="C15" s="79">
+        <v>440</v>
+      </c>
+      <c r="D15" s="79">
+        <v>880</v>
+      </c>
+      <c r="E15" s="79">
+        <v>1.32</v>
+      </c>
+      <c r="F15" s="79">
+        <v>1.76</v>
+      </c>
+      <c r="G15" s="79">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H15" s="79">
+        <v>2.64</v>
+      </c>
+      <c r="I15" s="79">
+        <v>3.08</v>
+      </c>
+      <c r="J15" s="79">
+        <v>3.52</v>
+      </c>
+      <c r="K15" s="79">
+        <v>3.96</v>
+      </c>
+      <c r="L15" s="79">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M15" s="79">
+        <v>4.84</v>
+      </c>
+      <c r="N15" s="79">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="79">
+        <v>8.75</v>
+      </c>
+      <c r="C16" s="79">
+        <v>467</v>
+      </c>
+      <c r="D16" s="79">
+        <v>934</v>
+      </c>
+      <c r="E16" s="79">
+        <v>1.401</v>
+      </c>
+      <c r="F16" s="79">
+        <v>1.8680000000000001</v>
+      </c>
+      <c r="G16" s="79">
+        <v>2.335</v>
+      </c>
+      <c r="H16" s="79">
+        <v>2.802</v>
+      </c>
+      <c r="I16" s="79">
+        <v>3.2690000000000001</v>
+      </c>
+      <c r="J16" s="79">
+        <v>3.7360000000000002</v>
+      </c>
+      <c r="K16" s="79">
+        <v>4.2030000000000003</v>
+      </c>
+      <c r="L16" s="79">
+        <v>4.67</v>
+      </c>
+      <c r="M16" s="79">
+        <v>5.1369999999999996</v>
+      </c>
+      <c r="N16" s="79">
+        <v>5.6040000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="79">
+        <v>9.25</v>
+      </c>
+      <c r="C17" s="79">
+        <v>493</v>
+      </c>
+      <c r="D17" s="79">
+        <v>986</v>
+      </c>
+      <c r="E17" s="79">
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="F17" s="79">
+        <v>1.972</v>
+      </c>
+      <c r="G17" s="79">
+        <v>2.4649999999999999</v>
+      </c>
+      <c r="H17" s="79">
+        <v>2.9580000000000002</v>
+      </c>
+      <c r="I17" s="79">
+        <v>3.4510000000000001</v>
+      </c>
+      <c r="J17" s="79">
+        <v>3.944</v>
+      </c>
+      <c r="K17" s="79">
+        <v>4.4370000000000003</v>
+      </c>
+      <c r="L17" s="79">
+        <v>4.93</v>
+      </c>
+      <c r="M17" s="79">
+        <v>5.423</v>
+      </c>
+      <c r="N17" s="79">
+        <v>5.9160000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="79">
+        <v>9.75</v>
+      </c>
+      <c r="C18" s="79">
+        <v>520</v>
+      </c>
+      <c r="D18" s="79">
+        <v>1.04</v>
+      </c>
+      <c r="E18" s="79">
+        <v>1.56</v>
+      </c>
+      <c r="F18" s="79">
+        <v>2.08</v>
+      </c>
+      <c r="G18" s="79">
+        <v>2.6</v>
+      </c>
+      <c r="H18" s="79">
+        <v>3.12</v>
+      </c>
+      <c r="I18" s="79">
+        <v>3.64</v>
+      </c>
+      <c r="J18" s="79">
+        <v>4.16</v>
+      </c>
+      <c r="K18" s="79">
+        <v>4.68</v>
+      </c>
+      <c r="L18" s="79">
+        <v>5.2</v>
+      </c>
+      <c r="M18" s="79">
+        <v>5.72</v>
+      </c>
+      <c r="N18" s="79">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="79">
+        <v>10.25</v>
+      </c>
+      <c r="C19" s="79">
+        <v>547</v>
+      </c>
+      <c r="D19" s="79">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="E19" s="79">
+        <v>1.641</v>
+      </c>
+      <c r="F19" s="79">
+        <v>2.1880000000000002</v>
+      </c>
+      <c r="G19" s="79">
+        <v>2.7349999999999999</v>
+      </c>
+      <c r="H19" s="79">
+        <v>3.282</v>
+      </c>
+      <c r="I19" s="79">
+        <v>3.8290000000000002</v>
+      </c>
+      <c r="J19" s="79">
+        <v>4.3760000000000003</v>
+      </c>
+      <c r="K19" s="79">
+        <v>4.923</v>
+      </c>
+      <c r="L19" s="79">
+        <v>5.47</v>
+      </c>
+      <c r="M19" s="79">
+        <v>6.0170000000000003</v>
+      </c>
+      <c r="N19" s="79">
+        <v>6.5640000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="79">
+        <v>10.75</v>
+      </c>
+      <c r="C20" s="79">
+        <v>573</v>
+      </c>
+      <c r="D20" s="79">
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="E20" s="79">
+        <v>1.7190000000000001</v>
+      </c>
+      <c r="F20" s="79">
+        <v>2.2919999999999998</v>
+      </c>
+      <c r="G20" s="79">
+        <v>2.8650000000000002</v>
+      </c>
+      <c r="H20" s="79">
+        <v>3.4380000000000002</v>
+      </c>
+      <c r="I20" s="79">
+        <v>4.0110000000000001</v>
+      </c>
+      <c r="J20" s="79">
+        <v>4.5839999999999996</v>
+      </c>
+      <c r="K20" s="79">
+        <v>5.157</v>
+      </c>
+      <c r="L20" s="79">
+        <v>5.73</v>
+      </c>
+      <c r="M20" s="79">
+        <v>6.3029999999999999</v>
+      </c>
+      <c r="N20" s="79">
+        <v>6.8760000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" s="79">
+        <v>11.25</v>
+      </c>
+      <c r="C21" s="79">
+        <v>600</v>
+      </c>
+      <c r="D21" s="79">
+        <v>1.2</v>
+      </c>
+      <c r="E21" s="79">
+        <v>1.8</v>
+      </c>
+      <c r="F21" s="79">
+        <v>2.4</v>
+      </c>
+      <c r="G21" s="79">
+        <v>3</v>
+      </c>
+      <c r="H21" s="79">
+        <v>3.6</v>
+      </c>
+      <c r="I21" s="79">
+        <v>4.2</v>
+      </c>
+      <c r="J21" s="79">
+        <v>4.8</v>
+      </c>
+      <c r="K21" s="79">
+        <v>5.4</v>
+      </c>
+      <c r="L21" s="79">
+        <v>6</v>
+      </c>
+      <c r="M21" s="79">
+        <v>6.6</v>
+      </c>
+      <c r="N21" s="79">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="79">
+        <v>11.75</v>
+      </c>
+      <c r="C22" s="79">
+        <v>627</v>
+      </c>
+      <c r="D22" s="79">
+        <v>1.254</v>
+      </c>
+      <c r="E22" s="79">
+        <v>1.881</v>
+      </c>
+      <c r="F22" s="79">
+        <v>2.508</v>
+      </c>
+      <c r="G22" s="79">
+        <v>3.1349999999999998</v>
+      </c>
+      <c r="H22" s="79">
+        <v>3.762</v>
+      </c>
+      <c r="I22" s="79">
+        <v>4.3890000000000002</v>
+      </c>
+      <c r="J22" s="79">
+        <v>5.016</v>
+      </c>
+      <c r="K22" s="79">
+        <v>5.6429999999999998</v>
+      </c>
+      <c r="L22" s="79">
+        <v>6.27</v>
+      </c>
+      <c r="M22" s="79">
+        <v>6.8970000000000002</v>
+      </c>
+      <c r="N22" s="79">
+        <v>7.524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="79">
+        <v>12.25</v>
+      </c>
+      <c r="C23" s="79">
+        <v>653</v>
+      </c>
+      <c r="D23" s="79">
+        <v>1.306</v>
+      </c>
+      <c r="E23" s="79">
+        <v>1.9590000000000001</v>
+      </c>
+      <c r="F23" s="79">
+        <v>2.6120000000000001</v>
+      </c>
+      <c r="G23" s="79">
+        <v>3.2650000000000001</v>
+      </c>
+      <c r="H23" s="79">
+        <v>3.9180000000000001</v>
+      </c>
+      <c r="I23" s="79">
+        <v>4.5709999999999997</v>
+      </c>
+      <c r="J23" s="79">
+        <v>5.2240000000000002</v>
+      </c>
+      <c r="K23" s="79">
+        <v>5.8769999999999998</v>
+      </c>
+      <c r="L23" s="79">
+        <v>6.53</v>
+      </c>
+      <c r="M23" s="79">
+        <v>7.1829999999999998</v>
+      </c>
+      <c r="N23" s="79">
+        <v>7.8360000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="79">
+        <v>12.75</v>
+      </c>
+      <c r="C24" s="79">
+        <v>680</v>
+      </c>
+      <c r="D24" s="79">
+        <v>1.36</v>
+      </c>
+      <c r="E24" s="79">
+        <v>2.04</v>
+      </c>
+      <c r="F24" s="79">
+        <v>2.72</v>
+      </c>
+      <c r="G24" s="79">
+        <v>3.4</v>
+      </c>
+      <c r="H24" s="79">
+        <v>4.08</v>
+      </c>
+      <c r="I24" s="79">
+        <v>4.76</v>
+      </c>
+      <c r="J24" s="79">
+        <v>5.44</v>
+      </c>
+      <c r="K24" s="79">
+        <v>6.12</v>
+      </c>
+      <c r="L24" s="79">
+        <v>6.8</v>
+      </c>
+      <c r="M24" s="79">
+        <v>7.48</v>
+      </c>
+      <c r="N24" s="79">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="79">
+        <v>13.25</v>
+      </c>
+      <c r="C25" s="79">
+        <v>707</v>
+      </c>
+      <c r="D25" s="79">
+        <v>1.4139999999999999</v>
+      </c>
+      <c r="E25" s="79">
+        <v>2.121</v>
+      </c>
+      <c r="F25" s="79">
+        <v>2.8279999999999998</v>
+      </c>
+      <c r="G25" s="79">
+        <v>3.5350000000000001</v>
+      </c>
+      <c r="H25" s="79">
+        <v>4.242</v>
+      </c>
+      <c r="I25" s="79">
+        <v>4.9489999999999998</v>
+      </c>
+      <c r="J25" s="79">
+        <v>5.6559999999999997</v>
+      </c>
+      <c r="K25" s="79">
+        <v>6.3630000000000004</v>
+      </c>
+      <c r="L25" s="79">
+        <v>7.07</v>
+      </c>
+      <c r="M25" s="79">
+        <v>7.7770000000000001</v>
+      </c>
+      <c r="N25" s="79">
+        <v>8.484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" s="79">
+        <v>13.75</v>
+      </c>
+      <c r="C26" s="79">
+        <v>733</v>
+      </c>
+      <c r="D26" s="79">
+        <v>1.466</v>
+      </c>
+      <c r="E26" s="79">
+        <v>2.1989999999999998</v>
+      </c>
+      <c r="F26" s="79">
+        <v>2.9319999999999999</v>
+      </c>
+      <c r="G26" s="79">
+        <v>3.665</v>
+      </c>
+      <c r="H26" s="79">
+        <v>4.3979999999999997</v>
+      </c>
+      <c r="I26" s="79">
+        <v>5.1310000000000002</v>
+      </c>
+      <c r="J26" s="79">
+        <v>5.8639999999999999</v>
+      </c>
+      <c r="K26" s="79">
+        <v>6.5970000000000004</v>
+      </c>
+      <c r="L26" s="79">
+        <v>7.33</v>
+      </c>
+      <c r="M26" s="79">
+        <v>8.0630000000000006</v>
+      </c>
+      <c r="N26" s="79">
+        <v>8.7959999999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" s="79">
+        <v>14.25</v>
+      </c>
+      <c r="C27" s="79">
+        <v>760</v>
+      </c>
+      <c r="D27" s="79">
+        <v>1.52</v>
+      </c>
+      <c r="E27" s="79">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F27" s="79">
+        <v>3.04</v>
+      </c>
+      <c r="G27" s="79">
+        <v>3.8</v>
+      </c>
+      <c r="H27" s="79">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="I27" s="79">
+        <v>5.32</v>
+      </c>
+      <c r="J27" s="79">
+        <v>6.08</v>
+      </c>
+      <c r="K27" s="79">
+        <v>6.84</v>
+      </c>
+      <c r="L27" s="79">
+        <v>7.6</v>
+      </c>
+      <c r="M27" s="79">
+        <v>8.36</v>
+      </c>
+      <c r="N27" s="79">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="79">
+        <v>14.75</v>
+      </c>
+      <c r="C28" s="79">
+        <v>787</v>
+      </c>
+      <c r="D28" s="79">
+        <v>1.5740000000000001</v>
+      </c>
+      <c r="E28" s="79">
+        <v>2.3610000000000002</v>
+      </c>
+      <c r="F28" s="79">
+        <v>3.1480000000000001</v>
+      </c>
+      <c r="G28" s="79">
+        <v>3.9350000000000001</v>
+      </c>
+      <c r="H28" s="79">
+        <v>4.7220000000000004</v>
+      </c>
+      <c r="I28" s="79">
+        <v>5.5090000000000003</v>
+      </c>
+      <c r="J28" s="79">
+        <v>6.2960000000000003</v>
+      </c>
+      <c r="K28" s="79">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="L28" s="79">
+        <v>7.87</v>
+      </c>
+      <c r="M28" s="79">
+        <v>8.657</v>
+      </c>
+      <c r="N28" s="79">
+        <v>9.4440000000000008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" s="79">
+        <v>15.25</v>
+      </c>
+      <c r="C29" s="79">
+        <v>813</v>
+      </c>
+      <c r="D29" s="79">
+        <v>1.6259999999999999</v>
+      </c>
+      <c r="E29" s="79">
+        <v>2.4390000000000001</v>
+      </c>
+      <c r="F29" s="79">
+        <v>3.2519999999999998</v>
+      </c>
+      <c r="G29" s="79">
+        <v>4.0650000000000004</v>
+      </c>
+      <c r="H29" s="79">
+        <v>4.8780000000000001</v>
+      </c>
+      <c r="I29" s="79">
+        <v>5.6909999999999998</v>
+      </c>
+      <c r="J29" s="79">
+        <v>6.5039999999999996</v>
+      </c>
+      <c r="K29" s="79">
+        <v>7.3170000000000002</v>
+      </c>
+      <c r="L29" s="79">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="M29" s="79">
+        <v>8.9429999999999996</v>
+      </c>
+      <c r="N29" s="79">
+        <v>9.7560000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" s="79">
+        <v>15.75</v>
+      </c>
+      <c r="C30" s="79">
+        <v>840</v>
+      </c>
+      <c r="D30" s="79">
+        <v>1.68</v>
+      </c>
+      <c r="E30" s="79">
+        <v>2.52</v>
+      </c>
+      <c r="F30" s="79">
+        <v>3.36</v>
+      </c>
+      <c r="G30" s="79">
+        <v>4.2</v>
+      </c>
+      <c r="H30" s="79">
+        <v>5.04</v>
+      </c>
+      <c r="I30" s="79">
+        <v>5.88</v>
+      </c>
+      <c r="J30" s="79">
+        <v>6.72</v>
+      </c>
+      <c r="K30" s="79">
+        <v>7.56</v>
+      </c>
+      <c r="L30" s="79">
+        <v>8.4</v>
+      </c>
+      <c r="M30" s="79">
+        <v>9.24</v>
+      </c>
+      <c r="N30" s="79">
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="79">
+        <v>16.25</v>
+      </c>
+      <c r="C31" s="79">
+        <v>867</v>
+      </c>
+      <c r="D31" s="79">
+        <v>1.734</v>
+      </c>
+      <c r="E31" s="79">
+        <v>2.601</v>
+      </c>
+      <c r="F31" s="79">
+        <v>3.468</v>
+      </c>
+      <c r="G31" s="79">
+        <v>4.335</v>
+      </c>
+      <c r="H31" s="79">
+        <v>5.202</v>
+      </c>
+      <c r="I31" s="79">
+        <v>6.069</v>
+      </c>
+      <c r="J31" s="79">
+        <v>6.9359999999999999</v>
+      </c>
+      <c r="K31" s="79">
+        <v>7.8029999999999999</v>
+      </c>
+      <c r="L31" s="79">
+        <v>8.67</v>
+      </c>
+      <c r="M31" s="79">
+        <v>9.5370000000000008</v>
+      </c>
+      <c r="N31" s="79">
+        <v>10.404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="79">
+        <v>16.75</v>
+      </c>
+      <c r="C32" s="79">
+        <v>893</v>
+      </c>
+      <c r="D32" s="79">
+        <v>1.786</v>
+      </c>
+      <c r="E32" s="79">
+        <v>2.6789999999999998</v>
+      </c>
+      <c r="F32" s="79">
+        <v>3.5720000000000001</v>
+      </c>
+      <c r="G32" s="79">
+        <v>4.4649999999999999</v>
+      </c>
+      <c r="H32" s="79">
+        <v>5.3579999999999997</v>
+      </c>
+      <c r="I32" s="79">
+        <v>6.2510000000000003</v>
+      </c>
+      <c r="J32" s="79">
+        <v>7.1440000000000001</v>
+      </c>
+      <c r="K32" s="79">
+        <v>8.0370000000000008</v>
+      </c>
+      <c r="L32" s="79">
+        <v>8.93</v>
+      </c>
+      <c r="M32" s="79">
+        <v>9.8230000000000004</v>
+      </c>
+      <c r="N32" s="79">
+        <v>10.715999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="79">
+        <v>17.25</v>
+      </c>
+      <c r="C33" s="79">
+        <v>920</v>
+      </c>
+      <c r="D33" s="79">
+        <v>1.84</v>
+      </c>
+      <c r="E33" s="79">
+        <v>2.76</v>
+      </c>
+      <c r="F33" s="79">
+        <v>3.68</v>
+      </c>
+      <c r="G33" s="79">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H33" s="79">
+        <v>5.52</v>
+      </c>
+      <c r="I33" s="79">
+        <v>6.44</v>
+      </c>
+      <c r="J33" s="79">
+        <v>7.36</v>
+      </c>
+      <c r="K33" s="79">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="L33" s="79">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M33" s="79">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="N33" s="79">
+        <v>11.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" s="79">
+        <v>17.75</v>
+      </c>
+      <c r="C34" s="79">
+        <v>947</v>
+      </c>
+      <c r="D34" s="79">
+        <v>1.8939999999999999</v>
+      </c>
+      <c r="E34" s="79">
+        <v>2.8410000000000002</v>
+      </c>
+      <c r="F34" s="79">
+        <v>3.7879999999999998</v>
+      </c>
+      <c r="G34" s="79">
+        <v>4.7350000000000003</v>
+      </c>
+      <c r="H34" s="79">
+        <v>5.6820000000000004</v>
+      </c>
+      <c r="I34" s="79">
+        <v>6.6289999999999996</v>
+      </c>
+      <c r="J34" s="79">
+        <v>7.5759999999999996</v>
+      </c>
+      <c r="K34" s="79">
+        <v>8.5229999999999997</v>
+      </c>
+      <c r="L34" s="79">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="M34" s="79">
+        <v>10.417</v>
+      </c>
+      <c r="N34" s="79">
+        <v>11.364000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" s="79">
+        <v>18.25</v>
+      </c>
+      <c r="C35" s="79">
+        <v>973</v>
+      </c>
+      <c r="D35" s="79">
+        <v>1.946</v>
+      </c>
+      <c r="E35" s="79">
+        <v>2.919</v>
+      </c>
+      <c r="F35" s="79">
+        <v>3.8919999999999999</v>
+      </c>
+      <c r="G35" s="79">
+        <v>4.8650000000000002</v>
+      </c>
+      <c r="H35" s="79">
+        <v>5.8380000000000001</v>
+      </c>
+      <c r="I35" s="79">
+        <v>6.8109999999999999</v>
+      </c>
+      <c r="J35" s="79">
+        <v>7.7839999999999998</v>
+      </c>
+      <c r="K35" s="79">
+        <v>8.7569999999999997</v>
+      </c>
+      <c r="L35" s="79">
+        <v>9.73</v>
+      </c>
+      <c r="M35" s="79">
+        <v>10.702999999999999</v>
+      </c>
+      <c r="N35" s="79">
+        <v>11.676</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" s="79">
+        <v>18.75</v>
+      </c>
+      <c r="C36" s="79">
+        <v>1</v>
+      </c>
+      <c r="D36" s="79">
+        <v>2</v>
+      </c>
+      <c r="E36" s="79">
+        <v>3</v>
+      </c>
+      <c r="F36" s="79">
+        <v>4</v>
+      </c>
+      <c r="G36" s="79">
+        <v>5</v>
+      </c>
+      <c r="H36" s="79">
+        <v>6</v>
+      </c>
+      <c r="I36" s="79">
+        <v>7</v>
+      </c>
+      <c r="J36" s="79">
+        <v>8</v>
+      </c>
+      <c r="K36" s="79">
+        <v>9</v>
+      </c>
+      <c r="L36" s="79">
+        <v>10</v>
+      </c>
+      <c r="M36" s="79">
+        <v>11</v>
+      </c>
+      <c r="N36" s="79">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="B37" s="79">
+        <v>19.25</v>
+      </c>
+      <c r="C37" s="79">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="D37" s="79">
+        <v>2.0539999999999998</v>
+      </c>
+      <c r="E37" s="79">
+        <v>3.081</v>
+      </c>
+      <c r="F37" s="79">
+        <v>4.1079999999999997</v>
+      </c>
+      <c r="G37" s="79">
+        <v>5.1349999999999998</v>
+      </c>
+      <c r="H37" s="79">
+        <v>6.1619999999999999</v>
+      </c>
+      <c r="I37" s="79">
+        <v>7.1890000000000001</v>
+      </c>
+      <c r="J37" s="79">
+        <v>8.2159999999999993</v>
+      </c>
+      <c r="K37" s="79">
+        <v>9.2430000000000003</v>
+      </c>
+      <c r="L37" s="79">
+        <v>10.27</v>
+      </c>
+      <c r="M37" s="79">
+        <v>11.297000000000001</v>
+      </c>
+      <c r="N37" s="79">
+        <v>12.324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" s="79">
+        <v>19.75</v>
+      </c>
+      <c r="C38" s="79">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="D38" s="79">
+        <v>2.1059999999999999</v>
+      </c>
+      <c r="E38" s="79">
+        <v>3.1589999999999998</v>
+      </c>
+      <c r="F38" s="79">
+        <v>4.2119999999999997</v>
+      </c>
+      <c r="G38" s="79">
+        <v>5.2649999999999997</v>
+      </c>
+      <c r="H38" s="79">
+        <v>6.3179999999999996</v>
+      </c>
+      <c r="I38" s="79">
+        <v>7.3710000000000004</v>
+      </c>
+      <c r="J38" s="79">
+        <v>8.4239999999999995</v>
+      </c>
+      <c r="K38" s="79">
+        <v>9.4770000000000003</v>
+      </c>
+      <c r="L38" s="79">
+        <v>10.53</v>
+      </c>
+      <c r="M38" s="79">
+        <v>11.583</v>
+      </c>
+      <c r="N38" s="79">
+        <v>12.635999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:N3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <dimension ref="A5:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
@@ -2943,7 +7475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4415,7 +8947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4456,7 +8988,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="98" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="92"/>
@@ -4489,7 +9021,7 @@
       <c r="C10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="101" t="s">
+      <c r="D10" s="99" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="84"/>
@@ -4501,7 +9033,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="97" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="95" t="s">
@@ -4555,7 +9087,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="97" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="95" t="s">
@@ -4648,7 +9180,7 @@
       </c>
     </row>
     <row r="22" spans="3:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="97" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="95" t="s">
@@ -4677,7 +9209,7 @@
     </row>
     <row r="24" spans="3:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C24" s="86"/>
-      <c r="D24" s="97" t="s">
+      <c r="D24" s="101" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="15" t="s">
@@ -4692,7 +9224,7 @@
     </row>
     <row r="25" spans="3:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C25" s="86"/>
-      <c r="D25" s="98"/>
+      <c r="D25" s="102"/>
       <c r="E25" s="15" t="s">
         <v>31</v>
       </c>
@@ -4718,7 +9250,7 @@
     </row>
     <row r="27" spans="3:7" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="C27" s="86"/>
-      <c r="D27" s="97" t="s">
+      <c r="D27" s="101" t="s">
         <v>33</v>
       </c>
       <c r="E27" s="15" t="s">
@@ -4773,7 +9305,7 @@
       </c>
     </row>
     <row r="31" spans="3:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C31" s="102" t="s">
+      <c r="C31" s="100" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="95" t="s">
@@ -4801,7 +9333,7 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C33" s="102" t="s">
+      <c r="C33" s="100" t="s">
         <v>44</v>
       </c>
       <c r="D33" s="95" t="s">
@@ -4868,7 +9400,7 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="C38" s="99" t="s">
+      <c r="C38" s="97" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="95" t="s">
@@ -9110,32 +13642,30 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="C22:C29"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C37"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="C41:G41"/>
@@ -9147,6 +13677,8 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C37"/>
     <mergeCell ref="D87:D89"/>
     <mergeCell ref="D90:D92"/>
     <mergeCell ref="D95:D96"/>
@@ -9168,7 +13700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9245,7 +13777,7 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="98" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="92"/>
@@ -18908,4532 +23440,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A4:M39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="82" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="84"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="81"/>
-      <c r="B5" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" s="77" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="77" t="s">
-        <v>154</v>
-      </c>
-      <c r="H5" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="I5" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="J5" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="K5" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="L5" s="77" t="s">
-        <v>159</v>
-      </c>
-      <c r="M5" s="77" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="79">
-        <v>141</v>
-      </c>
-      <c r="C6" s="79">
-        <v>282</v>
-      </c>
-      <c r="D6" s="79">
-        <v>423</v>
-      </c>
-      <c r="E6" s="79">
-        <v>564</v>
-      </c>
-      <c r="F6" s="79">
-        <v>705</v>
-      </c>
-      <c r="G6" s="79">
-        <v>846</v>
-      </c>
-      <c r="H6" s="79">
-        <v>987</v>
-      </c>
-      <c r="I6" s="79">
-        <v>1.1279999999999999</v>
-      </c>
-      <c r="J6" s="79">
-        <v>1.2689999999999999</v>
-      </c>
-      <c r="K6" s="79">
-        <v>1.41</v>
-      </c>
-      <c r="L6" s="79">
-        <v>1.5509999999999999</v>
-      </c>
-      <c r="M6" s="79">
-        <v>1.6919999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="79">
-        <v>163</v>
-      </c>
-      <c r="C7" s="79">
-        <v>326</v>
-      </c>
-      <c r="D7" s="79">
-        <v>489</v>
-      </c>
-      <c r="E7" s="79">
-        <v>652</v>
-      </c>
-      <c r="F7" s="79">
-        <v>815</v>
-      </c>
-      <c r="G7" s="79">
-        <v>978</v>
-      </c>
-      <c r="H7" s="79">
-        <v>1.141</v>
-      </c>
-      <c r="I7" s="79">
-        <v>1.304</v>
-      </c>
-      <c r="J7" s="79">
-        <v>1.4670000000000001</v>
-      </c>
-      <c r="K7" s="79">
-        <v>1.63</v>
-      </c>
-      <c r="L7" s="79">
-        <v>1.7929999999999999</v>
-      </c>
-      <c r="M7" s="79">
-        <v>1.956</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="78" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="79">
-        <v>184</v>
-      </c>
-      <c r="C8" s="79">
-        <v>368</v>
-      </c>
-      <c r="D8" s="79">
-        <v>552</v>
-      </c>
-      <c r="E8" s="79">
-        <v>736</v>
-      </c>
-      <c r="F8" s="79">
-        <v>920</v>
-      </c>
-      <c r="G8" s="79">
-        <v>1.1040000000000001</v>
-      </c>
-      <c r="H8" s="79">
-        <v>1.288</v>
-      </c>
-      <c r="I8" s="79">
-        <v>1.472</v>
-      </c>
-      <c r="J8" s="79">
-        <v>1.6559999999999999</v>
-      </c>
-      <c r="K8" s="79">
-        <v>1.84</v>
-      </c>
-      <c r="L8" s="79">
-        <v>2.024</v>
-      </c>
-      <c r="M8" s="79">
-        <v>2.2080000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="78" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="79">
-        <v>206</v>
-      </c>
-      <c r="C9" s="79">
-        <v>412</v>
-      </c>
-      <c r="D9" s="79">
-        <v>618</v>
-      </c>
-      <c r="E9" s="79">
-        <v>824</v>
-      </c>
-      <c r="F9" s="79">
-        <v>1.03</v>
-      </c>
-      <c r="G9" s="79">
-        <v>1.236</v>
-      </c>
-      <c r="H9" s="79">
-        <v>1.4419999999999999</v>
-      </c>
-      <c r="I9" s="79">
-        <v>1.6479999999999999</v>
-      </c>
-      <c r="J9" s="79">
-        <v>1.8540000000000001</v>
-      </c>
-      <c r="K9" s="79">
-        <v>2.06</v>
-      </c>
-      <c r="L9" s="79">
-        <v>2.266</v>
-      </c>
-      <c r="M9" s="79">
-        <v>2.472</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="78" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" s="79">
-        <v>228</v>
-      </c>
-      <c r="C10" s="79">
-        <v>456</v>
-      </c>
-      <c r="D10" s="79">
-        <v>684</v>
-      </c>
-      <c r="E10" s="79">
-        <v>912</v>
-      </c>
-      <c r="F10" s="79">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="G10" s="79">
-        <v>1.3680000000000001</v>
-      </c>
-      <c r="H10" s="79">
-        <v>1.5960000000000001</v>
-      </c>
-      <c r="I10" s="79">
-        <v>1.8240000000000001</v>
-      </c>
-      <c r="J10" s="79">
-        <v>2.052</v>
-      </c>
-      <c r="K10" s="79">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="L10" s="79">
-        <v>2.508</v>
-      </c>
-      <c r="M10" s="79">
-        <v>2.7360000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="78" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" s="79">
-        <v>249</v>
-      </c>
-      <c r="C11" s="79">
-        <v>498</v>
-      </c>
-      <c r="D11" s="79">
-        <v>747</v>
-      </c>
-      <c r="E11" s="79">
-        <v>996</v>
-      </c>
-      <c r="F11" s="79">
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="G11" s="79">
-        <v>1.494</v>
-      </c>
-      <c r="H11" s="79">
-        <v>1.7430000000000001</v>
-      </c>
-      <c r="I11" s="79">
-        <v>1.992</v>
-      </c>
-      <c r="J11" s="79">
-        <v>2.2410000000000001</v>
-      </c>
-      <c r="K11" s="79">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="L11" s="79">
-        <v>2.7389999999999999</v>
-      </c>
-      <c r="M11" s="79">
-        <v>2.988</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="78" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="79">
-        <v>271</v>
-      </c>
-      <c r="C12" s="79">
-        <v>542</v>
-      </c>
-      <c r="D12" s="79">
-        <v>813</v>
-      </c>
-      <c r="E12" s="79">
-        <v>1.0840000000000001</v>
-      </c>
-      <c r="F12" s="79">
-        <v>1.355</v>
-      </c>
-      <c r="G12" s="79">
-        <v>1.6259999999999999</v>
-      </c>
-      <c r="H12" s="79">
-        <v>1.897</v>
-      </c>
-      <c r="I12" s="79">
-        <v>2.1680000000000001</v>
-      </c>
-      <c r="J12" s="79">
-        <v>2.4390000000000001</v>
-      </c>
-      <c r="K12" s="79">
-        <v>2.71</v>
-      </c>
-      <c r="L12" s="79">
-        <v>2.9809999999999999</v>
-      </c>
-      <c r="M12" s="79">
-        <v>3.2519999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="78" t="s">
-        <v>168</v>
-      </c>
-      <c r="B13" s="79">
-        <v>293</v>
-      </c>
-      <c r="C13" s="79">
-        <v>586</v>
-      </c>
-      <c r="D13" s="79">
-        <v>879</v>
-      </c>
-      <c r="E13" s="79">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="F13" s="79">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="G13" s="79">
-        <v>1.758</v>
-      </c>
-      <c r="H13" s="79">
-        <v>2.0510000000000002</v>
-      </c>
-      <c r="I13" s="79">
-        <v>2.3439999999999999</v>
-      </c>
-      <c r="J13" s="79">
-        <v>2.637</v>
-      </c>
-      <c r="K13" s="79">
-        <v>2.93</v>
-      </c>
-      <c r="L13" s="79">
-        <v>3.2229999999999999</v>
-      </c>
-      <c r="M13" s="79">
-        <v>3.516</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="B14" s="79">
-        <v>314</v>
-      </c>
-      <c r="C14" s="79">
-        <v>628</v>
-      </c>
-      <c r="D14" s="79">
-        <v>942</v>
-      </c>
-      <c r="E14" s="79">
-        <v>1.256</v>
-      </c>
-      <c r="F14" s="79">
-        <v>1.57</v>
-      </c>
-      <c r="G14" s="79">
-        <v>1.8839999999999999</v>
-      </c>
-      <c r="H14" s="79">
-        <v>2.198</v>
-      </c>
-      <c r="I14" s="79">
-        <v>2.512</v>
-      </c>
-      <c r="J14" s="79">
-        <v>2.8260000000000001</v>
-      </c>
-      <c r="K14" s="79">
-        <v>3.14</v>
-      </c>
-      <c r="L14" s="79">
-        <v>3.4540000000000002</v>
-      </c>
-      <c r="M14" s="79">
-        <v>3.7679999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="78" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" s="79">
-        <v>336</v>
-      </c>
-      <c r="C15" s="79">
-        <v>672</v>
-      </c>
-      <c r="D15" s="79">
-        <v>1.008</v>
-      </c>
-      <c r="E15" s="79">
-        <v>1.3440000000000001</v>
-      </c>
-      <c r="F15" s="79">
-        <v>1.68</v>
-      </c>
-      <c r="G15" s="79">
-        <v>2.016</v>
-      </c>
-      <c r="H15" s="79">
-        <v>2.3519999999999999</v>
-      </c>
-      <c r="I15" s="79">
-        <v>2.6880000000000002</v>
-      </c>
-      <c r="J15" s="79">
-        <v>3.024</v>
-      </c>
-      <c r="K15" s="79">
-        <v>3.36</v>
-      </c>
-      <c r="L15" s="79">
-        <v>3.6960000000000002</v>
-      </c>
-      <c r="M15" s="79">
-        <v>4.032</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="79">
-        <v>358</v>
-      </c>
-      <c r="C16" s="79">
-        <v>716</v>
-      </c>
-      <c r="D16" s="79">
-        <v>1.0740000000000001</v>
-      </c>
-      <c r="E16" s="79">
-        <v>1.4319999999999999</v>
-      </c>
-      <c r="F16" s="79">
-        <v>1.79</v>
-      </c>
-      <c r="G16" s="79">
-        <v>2.1480000000000001</v>
-      </c>
-      <c r="H16" s="79">
-        <v>2.5059999999999998</v>
-      </c>
-      <c r="I16" s="79">
-        <v>2.8639999999999999</v>
-      </c>
-      <c r="J16" s="79">
-        <v>3.222</v>
-      </c>
-      <c r="K16" s="79">
-        <v>3.58</v>
-      </c>
-      <c r="L16" s="79">
-        <v>3.9380000000000002</v>
-      </c>
-      <c r="M16" s="79">
-        <v>4.2960000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="78" t="s">
-        <v>172</v>
-      </c>
-      <c r="B17" s="79">
-        <v>379</v>
-      </c>
-      <c r="C17" s="79">
-        <v>758</v>
-      </c>
-      <c r="D17" s="79">
-        <v>1.137</v>
-      </c>
-      <c r="E17" s="79">
-        <v>1.516</v>
-      </c>
-      <c r="F17" s="79">
-        <v>1.895</v>
-      </c>
-      <c r="G17" s="79">
-        <v>2.274</v>
-      </c>
-      <c r="H17" s="79">
-        <v>2.653</v>
-      </c>
-      <c r="I17" s="79">
-        <v>3.032</v>
-      </c>
-      <c r="J17" s="79">
-        <v>3.411</v>
-      </c>
-      <c r="K17" s="79">
-        <v>3.79</v>
-      </c>
-      <c r="L17" s="79">
-        <v>4.1689999999999996</v>
-      </c>
-      <c r="M17" s="79">
-        <v>4.548</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="78" t="s">
-        <v>173</v>
-      </c>
-      <c r="B18" s="79">
-        <v>401</v>
-      </c>
-      <c r="C18" s="79">
-        <v>802</v>
-      </c>
-      <c r="D18" s="79">
-        <v>1.2030000000000001</v>
-      </c>
-      <c r="E18" s="79">
-        <v>1.6040000000000001</v>
-      </c>
-      <c r="F18" s="79">
-        <v>2.0049999999999999</v>
-      </c>
-      <c r="G18" s="79">
-        <v>2.4060000000000001</v>
-      </c>
-      <c r="H18" s="79">
-        <v>2.8069999999999999</v>
-      </c>
-      <c r="I18" s="79">
-        <v>3.2080000000000002</v>
-      </c>
-      <c r="J18" s="79">
-        <v>3.609</v>
-      </c>
-      <c r="K18" s="79">
-        <v>4.01</v>
-      </c>
-      <c r="L18" s="79">
-        <v>4.4109999999999996</v>
-      </c>
-      <c r="M18" s="79">
-        <v>4.8120000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="78" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19" s="79">
-        <v>423</v>
-      </c>
-      <c r="C19" s="79">
-        <v>846</v>
-      </c>
-      <c r="D19" s="79">
-        <v>1.2689999999999999</v>
-      </c>
-      <c r="E19" s="79">
-        <v>1.6919999999999999</v>
-      </c>
-      <c r="F19" s="79">
-        <v>2.1150000000000002</v>
-      </c>
-      <c r="G19" s="79">
-        <v>2.5379999999999998</v>
-      </c>
-      <c r="H19" s="79">
-        <v>2.9609999999999999</v>
-      </c>
-      <c r="I19" s="79">
-        <v>3.3839999999999999</v>
-      </c>
-      <c r="J19" s="79">
-        <v>3.8069999999999999</v>
-      </c>
-      <c r="K19" s="79">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="L19" s="79">
-        <v>4.6529999999999996</v>
-      </c>
-      <c r="M19" s="79">
-        <v>5.0759999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="B20" s="79">
-        <v>444</v>
-      </c>
-      <c r="C20" s="79">
-        <v>888</v>
-      </c>
-      <c r="D20" s="79">
-        <v>1.3320000000000001</v>
-      </c>
-      <c r="E20" s="79">
-        <v>1.776</v>
-      </c>
-      <c r="F20" s="79">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="G20" s="79">
-        <v>2.6640000000000001</v>
-      </c>
-      <c r="H20" s="79">
-        <v>3.1080000000000001</v>
-      </c>
-      <c r="I20" s="79">
-        <v>3.552</v>
-      </c>
-      <c r="J20" s="79">
-        <v>3.996</v>
-      </c>
-      <c r="K20" s="79">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="L20" s="79">
-        <v>4.8840000000000003</v>
-      </c>
-      <c r="M20" s="79">
-        <v>5.3280000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="78" t="s">
-        <v>176</v>
-      </c>
-      <c r="B21" s="79">
-        <v>466</v>
-      </c>
-      <c r="C21" s="79">
-        <v>932</v>
-      </c>
-      <c r="D21" s="79">
-        <v>1.3979999999999999</v>
-      </c>
-      <c r="E21" s="79">
-        <v>1.8640000000000001</v>
-      </c>
-      <c r="F21" s="79">
-        <v>2.33</v>
-      </c>
-      <c r="G21" s="79">
-        <v>2.7959999999999998</v>
-      </c>
-      <c r="H21" s="79">
-        <v>3.262</v>
-      </c>
-      <c r="I21" s="79">
-        <v>3.7280000000000002</v>
-      </c>
-      <c r="J21" s="79">
-        <v>4.194</v>
-      </c>
-      <c r="K21" s="79">
-        <v>4.66</v>
-      </c>
-      <c r="L21" s="79">
-        <v>5.1260000000000003</v>
-      </c>
-      <c r="M21" s="79">
-        <v>5.5919999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="B22" s="79">
-        <v>488</v>
-      </c>
-      <c r="C22" s="79">
-        <v>976</v>
-      </c>
-      <c r="D22" s="79">
-        <v>1.464</v>
-      </c>
-      <c r="E22" s="79">
-        <v>1.952</v>
-      </c>
-      <c r="F22" s="79">
-        <v>2.44</v>
-      </c>
-      <c r="G22" s="79">
-        <v>2.9279999999999999</v>
-      </c>
-      <c r="H22" s="79">
-        <v>3.4159999999999999</v>
-      </c>
-      <c r="I22" s="79">
-        <v>3.9039999999999999</v>
-      </c>
-      <c r="J22" s="79">
-        <v>4.3920000000000003</v>
-      </c>
-      <c r="K22" s="79">
-        <v>4.88</v>
-      </c>
-      <c r="L22" s="79">
-        <v>5.3680000000000003</v>
-      </c>
-      <c r="M22" s="79">
-        <v>5.8559999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="B23" s="79">
-        <v>509</v>
-      </c>
-      <c r="C23" s="79">
-        <v>1.018</v>
-      </c>
-      <c r="D23" s="79">
-        <v>1.5269999999999999</v>
-      </c>
-      <c r="E23" s="79">
-        <v>2.036</v>
-      </c>
-      <c r="F23" s="79">
-        <v>2.5449999999999999</v>
-      </c>
-      <c r="G23" s="79">
-        <v>3.0539999999999998</v>
-      </c>
-      <c r="H23" s="79">
-        <v>3.5630000000000002</v>
-      </c>
-      <c r="I23" s="79">
-        <v>4.0720000000000001</v>
-      </c>
-      <c r="J23" s="79">
-        <v>4.5810000000000004</v>
-      </c>
-      <c r="K23" s="79">
-        <v>5.09</v>
-      </c>
-      <c r="L23" s="79">
-        <v>5.5990000000000002</v>
-      </c>
-      <c r="M23" s="79">
-        <v>6.1079999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="78" t="s">
-        <v>179</v>
-      </c>
-      <c r="B24" s="79">
-        <v>531</v>
-      </c>
-      <c r="C24" s="79">
-        <v>1.0620000000000001</v>
-      </c>
-      <c r="D24" s="79">
-        <v>1.593</v>
-      </c>
-      <c r="E24" s="79">
-        <v>2.1240000000000001</v>
-      </c>
-      <c r="F24" s="79">
-        <v>2.6549999999999998</v>
-      </c>
-      <c r="G24" s="79">
-        <v>3.1859999999999999</v>
-      </c>
-      <c r="H24" s="79">
-        <v>3.7170000000000001</v>
-      </c>
-      <c r="I24" s="79">
-        <v>4.2480000000000002</v>
-      </c>
-      <c r="J24" s="79">
-        <v>4.7789999999999999</v>
-      </c>
-      <c r="K24" s="79">
-        <v>5.31</v>
-      </c>
-      <c r="L24" s="79">
-        <v>5.8410000000000002</v>
-      </c>
-      <c r="M24" s="79">
-        <v>6.3719999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="B25" s="79">
-        <v>553</v>
-      </c>
-      <c r="C25" s="79">
-        <v>1.1060000000000001</v>
-      </c>
-      <c r="D25" s="79">
-        <v>1.659</v>
-      </c>
-      <c r="E25" s="79">
-        <v>2.2120000000000002</v>
-      </c>
-      <c r="F25" s="79">
-        <v>2.7650000000000001</v>
-      </c>
-      <c r="G25" s="79">
-        <v>3.3180000000000001</v>
-      </c>
-      <c r="H25" s="79">
-        <v>3.871</v>
-      </c>
-      <c r="I25" s="79">
-        <v>4.4240000000000004</v>
-      </c>
-      <c r="J25" s="79">
-        <v>4.9770000000000003</v>
-      </c>
-      <c r="K25" s="79">
-        <v>5.53</v>
-      </c>
-      <c r="L25" s="79">
-        <v>6.0830000000000002</v>
-      </c>
-      <c r="M25" s="79">
-        <v>6.6360000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="B26" s="79">
-        <v>574</v>
-      </c>
-      <c r="C26" s="79">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="D26" s="79">
-        <v>1.722</v>
-      </c>
-      <c r="E26" s="79">
-        <v>2.2959999999999998</v>
-      </c>
-      <c r="F26" s="79">
-        <v>2.87</v>
-      </c>
-      <c r="G26" s="79">
-        <v>3.444</v>
-      </c>
-      <c r="H26" s="79">
-        <v>4.0179999999999998</v>
-      </c>
-      <c r="I26" s="79">
-        <v>4.5919999999999996</v>
-      </c>
-      <c r="J26" s="79">
-        <v>5.1660000000000004</v>
-      </c>
-      <c r="K26" s="79">
-        <v>5.74</v>
-      </c>
-      <c r="L26" s="79">
-        <v>6.3140000000000001</v>
-      </c>
-      <c r="M26" s="79">
-        <v>6.8879999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="78" t="s">
-        <v>182</v>
-      </c>
-      <c r="B27" s="79">
-        <v>596</v>
-      </c>
-      <c r="C27" s="79">
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="D27" s="79">
-        <v>1.788</v>
-      </c>
-      <c r="E27" s="79">
-        <v>2.3839999999999999</v>
-      </c>
-      <c r="F27" s="79">
-        <v>2.98</v>
-      </c>
-      <c r="G27" s="79">
-        <v>3.5760000000000001</v>
-      </c>
-      <c r="H27" s="79">
-        <v>4.1719999999999997</v>
-      </c>
-      <c r="I27" s="79">
-        <v>4.7679999999999998</v>
-      </c>
-      <c r="J27" s="79">
-        <v>5.3639999999999999</v>
-      </c>
-      <c r="K27" s="79">
-        <v>5.96</v>
-      </c>
-      <c r="L27" s="79">
-        <v>6.556</v>
-      </c>
-      <c r="M27" s="79">
-        <v>7.1520000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="B28" s="79">
-        <v>618</v>
-      </c>
-      <c r="C28" s="79">
-        <v>1.236</v>
-      </c>
-      <c r="D28" s="79">
-        <v>1.8540000000000001</v>
-      </c>
-      <c r="E28" s="79">
-        <v>2.472</v>
-      </c>
-      <c r="F28" s="79">
-        <v>3.09</v>
-      </c>
-      <c r="G28" s="79">
-        <v>3.7080000000000002</v>
-      </c>
-      <c r="H28" s="79">
-        <v>4.3259999999999996</v>
-      </c>
-      <c r="I28" s="79">
-        <v>4.944</v>
-      </c>
-      <c r="J28" s="79">
-        <v>5.5620000000000003</v>
-      </c>
-      <c r="K28" s="79">
-        <v>6.18</v>
-      </c>
-      <c r="L28" s="79">
-        <v>6.798</v>
-      </c>
-      <c r="M28" s="79">
-        <v>7.4160000000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="78" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" s="79">
-        <v>639</v>
-      </c>
-      <c r="C29" s="79">
-        <v>1.278</v>
-      </c>
-      <c r="D29" s="79">
-        <v>1.917</v>
-      </c>
-      <c r="E29" s="79">
-        <v>2.556</v>
-      </c>
-      <c r="F29" s="79">
-        <v>3.1949999999999998</v>
-      </c>
-      <c r="G29" s="79">
-        <v>3.8340000000000001</v>
-      </c>
-      <c r="H29" s="79">
-        <v>4.4729999999999999</v>
-      </c>
-      <c r="I29" s="79">
-        <v>5.1120000000000001</v>
-      </c>
-      <c r="J29" s="79">
-        <v>5.7510000000000003</v>
-      </c>
-      <c r="K29" s="79">
-        <v>6.39</v>
-      </c>
-      <c r="L29" s="79">
-        <v>7.0289999999999999</v>
-      </c>
-      <c r="M29" s="79">
-        <v>7.6680000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="B30" s="79">
-        <v>661</v>
-      </c>
-      <c r="C30" s="79">
-        <v>1.3220000000000001</v>
-      </c>
-      <c r="D30" s="79">
-        <v>1.9830000000000001</v>
-      </c>
-      <c r="E30" s="79">
-        <v>2.6440000000000001</v>
-      </c>
-      <c r="F30" s="79">
-        <v>3.3050000000000002</v>
-      </c>
-      <c r="G30" s="79">
-        <v>3.9660000000000002</v>
-      </c>
-      <c r="H30" s="79">
-        <v>4.6269999999999998</v>
-      </c>
-      <c r="I30" s="79">
-        <v>5.2880000000000003</v>
-      </c>
-      <c r="J30" s="79">
-        <v>5.9489999999999998</v>
-      </c>
-      <c r="K30" s="79">
-        <v>6.61</v>
-      </c>
-      <c r="L30" s="79">
-        <v>7.2709999999999999</v>
-      </c>
-      <c r="M30" s="79">
-        <v>7.9320000000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="78" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" s="79">
-        <v>683</v>
-      </c>
-      <c r="C31" s="79">
-        <v>1.3660000000000001</v>
-      </c>
-      <c r="D31" s="79">
-        <v>2.0489999999999999</v>
-      </c>
-      <c r="E31" s="79">
-        <v>2.7320000000000002</v>
-      </c>
-      <c r="F31" s="79">
-        <v>3.415</v>
-      </c>
-      <c r="G31" s="79">
-        <v>4.0979999999999999</v>
-      </c>
-      <c r="H31" s="79">
-        <v>4.7809999999999997</v>
-      </c>
-      <c r="I31" s="79">
-        <v>5.4640000000000004</v>
-      </c>
-      <c r="J31" s="79">
-        <v>6.1470000000000002</v>
-      </c>
-      <c r="K31" s="79">
-        <v>6.83</v>
-      </c>
-      <c r="L31" s="79">
-        <v>7.5129999999999999</v>
-      </c>
-      <c r="M31" s="79">
-        <v>8.1959999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="78" t="s">
-        <v>187</v>
-      </c>
-      <c r="B32" s="79">
-        <v>704</v>
-      </c>
-      <c r="C32" s="79">
-        <v>1.4079999999999999</v>
-      </c>
-      <c r="D32" s="79">
-        <v>2.1120000000000001</v>
-      </c>
-      <c r="E32" s="79">
-        <v>2.8159999999999998</v>
-      </c>
-      <c r="F32" s="79">
-        <v>3.52</v>
-      </c>
-      <c r="G32" s="79">
-        <v>4.2240000000000002</v>
-      </c>
-      <c r="H32" s="79">
-        <v>4.9279999999999999</v>
-      </c>
-      <c r="I32" s="79">
-        <v>5.6319999999999997</v>
-      </c>
-      <c r="J32" s="79">
-        <v>6.3360000000000003</v>
-      </c>
-      <c r="K32" s="79">
-        <v>7.04</v>
-      </c>
-      <c r="L32" s="79">
-        <v>7.7439999999999998</v>
-      </c>
-      <c r="M32" s="79">
-        <v>8.4480000000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="B33" s="79">
-        <v>726</v>
-      </c>
-      <c r="C33" s="79">
-        <v>1.452</v>
-      </c>
-      <c r="D33" s="79">
-        <v>2.1779999999999999</v>
-      </c>
-      <c r="E33" s="79">
-        <v>2.9039999999999999</v>
-      </c>
-      <c r="F33" s="79">
-        <v>3.63</v>
-      </c>
-      <c r="G33" s="79">
-        <v>4.3559999999999999</v>
-      </c>
-      <c r="H33" s="79">
-        <v>5.0819999999999999</v>
-      </c>
-      <c r="I33" s="79">
-        <v>5.8079999999999998</v>
-      </c>
-      <c r="J33" s="79">
-        <v>6.5339999999999998</v>
-      </c>
-      <c r="K33" s="79">
-        <v>7.26</v>
-      </c>
-      <c r="L33" s="79">
-        <v>7.9859999999999998</v>
-      </c>
-      <c r="M33" s="79">
-        <v>8.7119999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="B34" s="79">
-        <v>748</v>
-      </c>
-      <c r="C34" s="79">
-        <v>1.496</v>
-      </c>
-      <c r="D34" s="79">
-        <v>2.2440000000000002</v>
-      </c>
-      <c r="E34" s="79">
-        <v>2.992</v>
-      </c>
-      <c r="F34" s="79">
-        <v>3.74</v>
-      </c>
-      <c r="G34" s="79">
-        <v>4.4880000000000004</v>
-      </c>
-      <c r="H34" s="79">
-        <v>5.2359999999999998</v>
-      </c>
-      <c r="I34" s="79">
-        <v>5.984</v>
-      </c>
-      <c r="J34" s="79">
-        <v>6.7320000000000002</v>
-      </c>
-      <c r="K34" s="79">
-        <v>7.48</v>
-      </c>
-      <c r="L34" s="79">
-        <v>8.2279999999999998</v>
-      </c>
-      <c r="M34" s="79">
-        <v>8.9760000000000009</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="B35" s="79">
-        <v>769</v>
-      </c>
-      <c r="C35" s="79">
-        <v>1.538</v>
-      </c>
-      <c r="D35" s="79">
-        <v>2.3069999999999999</v>
-      </c>
-      <c r="E35" s="79">
-        <v>3.0760000000000001</v>
-      </c>
-      <c r="F35" s="79">
-        <v>3.8450000000000002</v>
-      </c>
-      <c r="G35" s="79">
-        <v>4.6139999999999999</v>
-      </c>
-      <c r="H35" s="79">
-        <v>5.383</v>
-      </c>
-      <c r="I35" s="79">
-        <v>6.1520000000000001</v>
-      </c>
-      <c r="J35" s="79">
-        <v>6.9210000000000003</v>
-      </c>
-      <c r="K35" s="79">
-        <v>7.69</v>
-      </c>
-      <c r="L35" s="79">
-        <v>8.4589999999999996</v>
-      </c>
-      <c r="M35" s="79">
-        <v>9.2279999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="B36" s="79">
-        <v>791</v>
-      </c>
-      <c r="C36" s="79">
-        <v>1.5820000000000001</v>
-      </c>
-      <c r="D36" s="79">
-        <v>2.3730000000000002</v>
-      </c>
-      <c r="E36" s="79">
-        <v>3.1640000000000001</v>
-      </c>
-      <c r="F36" s="79">
-        <v>3.9550000000000001</v>
-      </c>
-      <c r="G36" s="79">
-        <v>4.7460000000000004</v>
-      </c>
-      <c r="H36" s="79">
-        <v>5.5369999999999999</v>
-      </c>
-      <c r="I36" s="79">
-        <v>6.3280000000000003</v>
-      </c>
-      <c r="J36" s="79">
-        <v>7.1189999999999998</v>
-      </c>
-      <c r="K36" s="79">
-        <v>7.91</v>
-      </c>
-      <c r="L36" s="79">
-        <v>8.7010000000000005</v>
-      </c>
-      <c r="M36" s="79">
-        <v>9.4920000000000009</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="B37" s="79">
-        <v>813</v>
-      </c>
-      <c r="C37" s="79">
-        <v>1.6259999999999999</v>
-      </c>
-      <c r="D37" s="79">
-        <v>2.4390000000000001</v>
-      </c>
-      <c r="E37" s="79">
-        <v>3.2519999999999998</v>
-      </c>
-      <c r="F37" s="79">
-        <v>4.0650000000000004</v>
-      </c>
-      <c r="G37" s="79">
-        <v>4.8780000000000001</v>
-      </c>
-      <c r="H37" s="79">
-        <v>5.6909999999999998</v>
-      </c>
-      <c r="I37" s="79">
-        <v>6.5039999999999996</v>
-      </c>
-      <c r="J37" s="79">
-        <v>7.3170000000000002</v>
-      </c>
-      <c r="K37" s="79">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="L37" s="79">
-        <v>8.9429999999999996</v>
-      </c>
-      <c r="M37" s="79">
-        <v>9.7560000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="B38" s="79">
-        <v>834</v>
-      </c>
-      <c r="C38" s="79">
-        <v>1.6679999999999999</v>
-      </c>
-      <c r="D38" s="79">
-        <v>2.5019999999999998</v>
-      </c>
-      <c r="E38" s="79">
-        <v>3.3359999999999999</v>
-      </c>
-      <c r="F38" s="79">
-        <v>4.17</v>
-      </c>
-      <c r="G38" s="79">
-        <v>5.0039999999999996</v>
-      </c>
-      <c r="H38" s="79">
-        <v>5.8380000000000001</v>
-      </c>
-      <c r="I38" s="79">
-        <v>6.6719999999999997</v>
-      </c>
-      <c r="J38" s="79">
-        <v>7.5060000000000002</v>
-      </c>
-      <c r="K38" s="79">
-        <v>8.34</v>
-      </c>
-      <c r="L38" s="79">
-        <v>9.1739999999999995</v>
-      </c>
-      <c r="M38" s="79">
-        <v>10.007999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="B39" s="79">
-        <v>856</v>
-      </c>
-      <c r="C39" s="79">
-        <v>1.712</v>
-      </c>
-      <c r="D39" s="79">
-        <v>2.5680000000000001</v>
-      </c>
-      <c r="E39" s="79">
-        <v>3.4239999999999999</v>
-      </c>
-      <c r="F39" s="79">
-        <v>4.28</v>
-      </c>
-      <c r="G39" s="79">
-        <v>5.1360000000000001</v>
-      </c>
-      <c r="H39" s="79">
-        <v>5.992</v>
-      </c>
-      <c r="I39" s="79">
-        <v>6.8479999999999999</v>
-      </c>
-      <c r="J39" s="79">
-        <v>7.7039999999999997</v>
-      </c>
-      <c r="K39" s="79">
-        <v>8.56</v>
-      </c>
-      <c r="L39" s="79">
-        <v>9.4160000000000004</v>
-      </c>
-      <c r="M39" s="79">
-        <v>10.272</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:M4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="B3:N38"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="82" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-    </row>
-    <row r="4" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="81"/>
-      <c r="C4" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="77" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>153</v>
-      </c>
-      <c r="H4" s="77" t="s">
-        <v>154</v>
-      </c>
-      <c r="I4" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="J4" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="K4" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="L4" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="M4" s="77" t="s">
-        <v>159</v>
-      </c>
-      <c r="N4" s="77" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="79">
-        <v>89</v>
-      </c>
-      <c r="D5" s="79">
-        <v>178</v>
-      </c>
-      <c r="E5" s="79">
-        <v>267</v>
-      </c>
-      <c r="F5" s="79">
-        <v>356</v>
-      </c>
-      <c r="G5" s="79">
-        <v>445</v>
-      </c>
-      <c r="H5" s="79">
-        <v>534</v>
-      </c>
-      <c r="I5" s="79">
-        <v>623</v>
-      </c>
-      <c r="J5" s="79">
-        <v>712</v>
-      </c>
-      <c r="K5" s="79">
-        <v>801</v>
-      </c>
-      <c r="L5" s="79">
-        <v>890</v>
-      </c>
-      <c r="M5" s="79">
-        <v>979</v>
-      </c>
-      <c r="N5" s="79">
-        <v>1.0680000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="79">
-        <v>103</v>
-      </c>
-      <c r="D6" s="79">
-        <v>206</v>
-      </c>
-      <c r="E6" s="79">
-        <v>309</v>
-      </c>
-      <c r="F6" s="79">
-        <v>412</v>
-      </c>
-      <c r="G6" s="79">
-        <v>515</v>
-      </c>
-      <c r="H6" s="79">
-        <v>618</v>
-      </c>
-      <c r="I6" s="79">
-        <v>721</v>
-      </c>
-      <c r="J6" s="79">
-        <v>824</v>
-      </c>
-      <c r="K6" s="79">
-        <v>927</v>
-      </c>
-      <c r="L6" s="79">
-        <v>1.03</v>
-      </c>
-      <c r="M6" s="79">
-        <v>1.133</v>
-      </c>
-      <c r="N6" s="79">
-        <v>1.236</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="78" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="79">
-        <v>116</v>
-      </c>
-      <c r="D7" s="79">
-        <v>232</v>
-      </c>
-      <c r="E7" s="79">
-        <v>348</v>
-      </c>
-      <c r="F7" s="79">
-        <v>464</v>
-      </c>
-      <c r="G7" s="79">
-        <v>580</v>
-      </c>
-      <c r="H7" s="79">
-        <v>696</v>
-      </c>
-      <c r="I7" s="79">
-        <v>812</v>
-      </c>
-      <c r="J7" s="79">
-        <v>928</v>
-      </c>
-      <c r="K7" s="79">
-        <v>1.044</v>
-      </c>
-      <c r="L7" s="79">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="M7" s="79">
-        <v>1.276</v>
-      </c>
-      <c r="N7" s="79">
-        <v>1.3919999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="78" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="79">
-        <v>130</v>
-      </c>
-      <c r="D8" s="79">
-        <v>260</v>
-      </c>
-      <c r="E8" s="79">
-        <v>390</v>
-      </c>
-      <c r="F8" s="79">
-        <v>520</v>
-      </c>
-      <c r="G8" s="79">
-        <v>650</v>
-      </c>
-      <c r="H8" s="79">
-        <v>780</v>
-      </c>
-      <c r="I8" s="79">
-        <v>910</v>
-      </c>
-      <c r="J8" s="79">
-        <v>1.04</v>
-      </c>
-      <c r="K8" s="79">
-        <v>1.17</v>
-      </c>
-      <c r="L8" s="79">
-        <v>1.3</v>
-      </c>
-      <c r="M8" s="79">
-        <v>1.43</v>
-      </c>
-      <c r="N8" s="79">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="78" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="79">
-        <v>144</v>
-      </c>
-      <c r="D9" s="79">
-        <v>288</v>
-      </c>
-      <c r="E9" s="79">
-        <v>432</v>
-      </c>
-      <c r="F9" s="79">
-        <v>576</v>
-      </c>
-      <c r="G9" s="79">
-        <v>720</v>
-      </c>
-      <c r="H9" s="79">
-        <v>864</v>
-      </c>
-      <c r="I9" s="79">
-        <v>1.008</v>
-      </c>
-      <c r="J9" s="79">
-        <v>1.1519999999999999</v>
-      </c>
-      <c r="K9" s="79">
-        <v>1.296</v>
-      </c>
-      <c r="L9" s="79">
-        <v>1.44</v>
-      </c>
-      <c r="M9" s="79">
-        <v>1.5840000000000001</v>
-      </c>
-      <c r="N9" s="79">
-        <v>1.728</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="78" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="79">
-        <v>157</v>
-      </c>
-      <c r="D10" s="79">
-        <v>314</v>
-      </c>
-      <c r="E10" s="79">
-        <v>471</v>
-      </c>
-      <c r="F10" s="79">
-        <v>628</v>
-      </c>
-      <c r="G10" s="79">
-        <v>785</v>
-      </c>
-      <c r="H10" s="79">
-        <v>942</v>
-      </c>
-      <c r="I10" s="79">
-        <v>1.099</v>
-      </c>
-      <c r="J10" s="79">
-        <v>1.256</v>
-      </c>
-      <c r="K10" s="79">
-        <v>1.413</v>
-      </c>
-      <c r="L10" s="79">
-        <v>1.57</v>
-      </c>
-      <c r="M10" s="79">
-        <v>1.7270000000000001</v>
-      </c>
-      <c r="N10" s="79">
-        <v>1.8839999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="78" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="79">
-        <v>171</v>
-      </c>
-      <c r="D11" s="79">
-        <v>342</v>
-      </c>
-      <c r="E11" s="79">
-        <v>513</v>
-      </c>
-      <c r="F11" s="79">
-        <v>684</v>
-      </c>
-      <c r="G11" s="79">
-        <v>855</v>
-      </c>
-      <c r="H11" s="79">
-        <v>1.026</v>
-      </c>
-      <c r="I11" s="79">
-        <v>1.1970000000000001</v>
-      </c>
-      <c r="J11" s="79">
-        <v>1.3680000000000001</v>
-      </c>
-      <c r="K11" s="79">
-        <v>1.5389999999999999</v>
-      </c>
-      <c r="L11" s="79">
-        <v>1.71</v>
-      </c>
-      <c r="M11" s="79">
-        <v>1.881</v>
-      </c>
-      <c r="N11" s="79">
-        <v>2.052</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="78" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="79">
-        <v>185</v>
-      </c>
-      <c r="D12" s="79">
-        <v>370</v>
-      </c>
-      <c r="E12" s="79">
-        <v>555</v>
-      </c>
-      <c r="F12" s="79">
-        <v>740</v>
-      </c>
-      <c r="G12" s="79">
-        <v>925</v>
-      </c>
-      <c r="H12" s="79">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I12" s="79">
-        <v>1.2949999999999999</v>
-      </c>
-      <c r="J12" s="79">
-        <v>1.48</v>
-      </c>
-      <c r="K12" s="79">
-        <v>1.665</v>
-      </c>
-      <c r="L12" s="79">
-        <v>1.85</v>
-      </c>
-      <c r="M12" s="79">
-        <v>2.0350000000000001</v>
-      </c>
-      <c r="N12" s="79">
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="79">
-        <v>198</v>
-      </c>
-      <c r="D13" s="79">
-        <v>396</v>
-      </c>
-      <c r="E13" s="79">
-        <v>594</v>
-      </c>
-      <c r="F13" s="79">
-        <v>792</v>
-      </c>
-      <c r="G13" s="79">
-        <v>990</v>
-      </c>
-      <c r="H13" s="79">
-        <v>1.1879999999999999</v>
-      </c>
-      <c r="I13" s="79">
-        <v>1.3859999999999999</v>
-      </c>
-      <c r="J13" s="79">
-        <v>1.5840000000000001</v>
-      </c>
-      <c r="K13" s="79">
-        <v>1.782</v>
-      </c>
-      <c r="L13" s="79">
-        <v>1.98</v>
-      </c>
-      <c r="M13" s="79">
-        <v>2.1779999999999999</v>
-      </c>
-      <c r="N13" s="79">
-        <v>2.3759999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="78" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="79">
-        <v>212</v>
-      </c>
-      <c r="D14" s="79">
-        <v>424</v>
-      </c>
-      <c r="E14" s="79">
-        <v>636</v>
-      </c>
-      <c r="F14" s="79">
-        <v>848</v>
-      </c>
-      <c r="G14" s="79">
-        <v>1.06</v>
-      </c>
-      <c r="H14" s="79">
-        <v>1.272</v>
-      </c>
-      <c r="I14" s="79">
-        <v>1.484</v>
-      </c>
-      <c r="J14" s="79">
-        <v>1.696</v>
-      </c>
-      <c r="K14" s="79">
-        <v>1.9079999999999999</v>
-      </c>
-      <c r="L14" s="79">
-        <v>2.12</v>
-      </c>
-      <c r="M14" s="79">
-        <v>2.3319999999999999</v>
-      </c>
-      <c r="N14" s="79">
-        <v>2.544</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="79">
-        <v>226</v>
-      </c>
-      <c r="D15" s="79">
-        <v>452</v>
-      </c>
-      <c r="E15" s="79">
-        <v>678</v>
-      </c>
-      <c r="F15" s="79">
-        <v>904</v>
-      </c>
-      <c r="G15" s="79">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="H15" s="79">
-        <v>1.3560000000000001</v>
-      </c>
-      <c r="I15" s="79">
-        <v>1.5820000000000001</v>
-      </c>
-      <c r="J15" s="79">
-        <v>1.8080000000000001</v>
-      </c>
-      <c r="K15" s="79">
-        <v>2.0339999999999998</v>
-      </c>
-      <c r="L15" s="79">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="M15" s="79">
-        <v>2.4860000000000002</v>
-      </c>
-      <c r="N15" s="79">
-        <v>2.7120000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="78" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="79">
-        <v>239</v>
-      </c>
-      <c r="D16" s="79">
-        <v>478</v>
-      </c>
-      <c r="E16" s="79">
-        <v>717</v>
-      </c>
-      <c r="F16" s="79">
-        <v>956</v>
-      </c>
-      <c r="G16" s="79">
-        <v>1.1950000000000001</v>
-      </c>
-      <c r="H16" s="79">
-        <v>1.4339999999999999</v>
-      </c>
-      <c r="I16" s="79">
-        <v>1.673</v>
-      </c>
-      <c r="J16" s="79">
-        <v>1.9119999999999999</v>
-      </c>
-      <c r="K16" s="79">
-        <v>2.1509999999999998</v>
-      </c>
-      <c r="L16" s="79">
-        <v>2.39</v>
-      </c>
-      <c r="M16" s="79">
-        <v>2.629</v>
-      </c>
-      <c r="N16" s="79">
-        <v>2.8679999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="78" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="79">
-        <v>253</v>
-      </c>
-      <c r="D17" s="79">
-        <v>506</v>
-      </c>
-      <c r="E17" s="79">
-        <v>759</v>
-      </c>
-      <c r="F17" s="79">
-        <v>1.012</v>
-      </c>
-      <c r="G17" s="79">
-        <v>1.2649999999999999</v>
-      </c>
-      <c r="H17" s="79">
-        <v>1.518</v>
-      </c>
-      <c r="I17" s="79">
-        <v>1.7709999999999999</v>
-      </c>
-      <c r="J17" s="79">
-        <v>2.024</v>
-      </c>
-      <c r="K17" s="79">
-        <v>2.2770000000000001</v>
-      </c>
-      <c r="L17" s="79">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="M17" s="79">
-        <v>2.7829999999999999</v>
-      </c>
-      <c r="N17" s="79">
-        <v>3.036</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="78" t="s">
-        <v>174</v>
-      </c>
-      <c r="C18" s="79">
-        <v>267</v>
-      </c>
-      <c r="D18" s="79">
-        <v>534</v>
-      </c>
-      <c r="E18" s="79">
-        <v>801</v>
-      </c>
-      <c r="F18" s="79">
-        <v>1.0680000000000001</v>
-      </c>
-      <c r="G18" s="79">
-        <v>1.335</v>
-      </c>
-      <c r="H18" s="79">
-        <v>1.6020000000000001</v>
-      </c>
-      <c r="I18" s="79">
-        <v>1.869</v>
-      </c>
-      <c r="J18" s="79">
-        <v>2.1360000000000001</v>
-      </c>
-      <c r="K18" s="79">
-        <v>2.403</v>
-      </c>
-      <c r="L18" s="79">
-        <v>2.67</v>
-      </c>
-      <c r="M18" s="79">
-        <v>2.9369999999999998</v>
-      </c>
-      <c r="N18" s="79">
-        <v>3.2040000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="79">
-        <v>280</v>
-      </c>
-      <c r="D19" s="79">
-        <v>560</v>
-      </c>
-      <c r="E19" s="79">
-        <v>840</v>
-      </c>
-      <c r="F19" s="79">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G19" s="79">
-        <v>1.4</v>
-      </c>
-      <c r="H19" s="79">
-        <v>1.68</v>
-      </c>
-      <c r="I19" s="79">
-        <v>1.96</v>
-      </c>
-      <c r="J19" s="79">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="K19" s="79">
-        <v>2.52</v>
-      </c>
-      <c r="L19" s="79">
-        <v>2.8</v>
-      </c>
-      <c r="M19" s="79">
-        <v>3.08</v>
-      </c>
-      <c r="N19" s="79">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="78" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="79">
-        <v>294</v>
-      </c>
-      <c r="D20" s="79">
-        <v>588</v>
-      </c>
-      <c r="E20" s="79">
-        <v>882</v>
-      </c>
-      <c r="F20" s="79">
-        <v>1.1759999999999999</v>
-      </c>
-      <c r="G20" s="79">
-        <v>1.47</v>
-      </c>
-      <c r="H20" s="79">
-        <v>1.764</v>
-      </c>
-      <c r="I20" s="79">
-        <v>2.0579999999999998</v>
-      </c>
-      <c r="J20" s="79">
-        <v>2.3519999999999999</v>
-      </c>
-      <c r="K20" s="79">
-        <v>2.6459999999999999</v>
-      </c>
-      <c r="L20" s="79">
-        <v>2.94</v>
-      </c>
-      <c r="M20" s="79">
-        <v>3.234</v>
-      </c>
-      <c r="N20" s="79">
-        <v>3.528</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="C21" s="79">
-        <v>308</v>
-      </c>
-      <c r="D21" s="79">
-        <v>616</v>
-      </c>
-      <c r="E21" s="79">
-        <v>924</v>
-      </c>
-      <c r="F21" s="79">
-        <v>1.232</v>
-      </c>
-      <c r="G21" s="79">
-        <v>1.54</v>
-      </c>
-      <c r="H21" s="79">
-        <v>1.8480000000000001</v>
-      </c>
-      <c r="I21" s="79">
-        <v>2.1560000000000001</v>
-      </c>
-      <c r="J21" s="79">
-        <v>2.464</v>
-      </c>
-      <c r="K21" s="79">
-        <v>2.7719999999999998</v>
-      </c>
-      <c r="L21" s="79">
-        <v>3.08</v>
-      </c>
-      <c r="M21" s="79">
-        <v>3.3879999999999999</v>
-      </c>
-      <c r="N21" s="79">
-        <v>3.6960000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="79">
-        <v>321</v>
-      </c>
-      <c r="D22" s="79">
-        <v>642</v>
-      </c>
-      <c r="E22" s="79">
-        <v>963</v>
-      </c>
-      <c r="F22" s="79">
-        <v>1.284</v>
-      </c>
-      <c r="G22" s="79">
-        <v>1.605</v>
-      </c>
-      <c r="H22" s="79">
-        <v>1.9259999999999999</v>
-      </c>
-      <c r="I22" s="79">
-        <v>2.2469999999999999</v>
-      </c>
-      <c r="J22" s="79">
-        <v>2.5680000000000001</v>
-      </c>
-      <c r="K22" s="79">
-        <v>2.8889999999999998</v>
-      </c>
-      <c r="L22" s="79">
-        <v>3.21</v>
-      </c>
-      <c r="M22" s="79">
-        <v>3.5310000000000001</v>
-      </c>
-      <c r="N22" s="79">
-        <v>3.8519999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="78" t="s">
-        <v>179</v>
-      </c>
-      <c r="C23" s="79">
-        <v>335</v>
-      </c>
-      <c r="D23" s="79">
-        <v>670</v>
-      </c>
-      <c r="E23" s="79">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="F23" s="79">
-        <v>1.34</v>
-      </c>
-      <c r="G23" s="79">
-        <v>1.675</v>
-      </c>
-      <c r="H23" s="79">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="I23" s="79">
-        <v>2.3450000000000002</v>
-      </c>
-      <c r="J23" s="79">
-        <v>2.68</v>
-      </c>
-      <c r="K23" s="79">
-        <v>3.0150000000000001</v>
-      </c>
-      <c r="L23" s="79">
-        <v>3.35</v>
-      </c>
-      <c r="M23" s="79">
-        <v>3.6850000000000001</v>
-      </c>
-      <c r="N23" s="79">
-        <v>4.0199999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="C24" s="79">
-        <v>349</v>
-      </c>
-      <c r="D24" s="79">
-        <v>698</v>
-      </c>
-      <c r="E24" s="79">
-        <v>1.0469999999999999</v>
-      </c>
-      <c r="F24" s="79">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="G24" s="79">
-        <v>1.7450000000000001</v>
-      </c>
-      <c r="H24" s="79">
-        <v>2.0939999999999999</v>
-      </c>
-      <c r="I24" s="79">
-        <v>2.4430000000000001</v>
-      </c>
-      <c r="J24" s="79">
-        <v>2.7919999999999998</v>
-      </c>
-      <c r="K24" s="79">
-        <v>3.141</v>
-      </c>
-      <c r="L24" s="79">
-        <v>3.49</v>
-      </c>
-      <c r="M24" s="79">
-        <v>3.839</v>
-      </c>
-      <c r="N24" s="79">
-        <v>4.1879999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="C25" s="79">
-        <v>362</v>
-      </c>
-      <c r="D25" s="79">
-        <v>724</v>
-      </c>
-      <c r="E25" s="79">
-        <v>1.0860000000000001</v>
-      </c>
-      <c r="F25" s="79">
-        <v>1.448</v>
-      </c>
-      <c r="G25" s="79">
-        <v>1.81</v>
-      </c>
-      <c r="H25" s="79">
-        <v>2.1720000000000002</v>
-      </c>
-      <c r="I25" s="79">
-        <v>2.5339999999999998</v>
-      </c>
-      <c r="J25" s="79">
-        <v>2.8959999999999999</v>
-      </c>
-      <c r="K25" s="79">
-        <v>3.258</v>
-      </c>
-      <c r="L25" s="79">
-        <v>3.62</v>
-      </c>
-      <c r="M25" s="79">
-        <v>3.9820000000000002</v>
-      </c>
-      <c r="N25" s="79">
-        <v>4.3440000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="78" t="s">
-        <v>182</v>
-      </c>
-      <c r="C26" s="79">
-        <v>376</v>
-      </c>
-      <c r="D26" s="79">
-        <v>752</v>
-      </c>
-      <c r="E26" s="79">
-        <v>1.1279999999999999</v>
-      </c>
-      <c r="F26" s="79">
-        <v>1.504</v>
-      </c>
-      <c r="G26" s="79">
-        <v>1.88</v>
-      </c>
-      <c r="H26" s="79">
-        <v>2.2559999999999998</v>
-      </c>
-      <c r="I26" s="79">
-        <v>2.6320000000000001</v>
-      </c>
-      <c r="J26" s="79">
-        <v>3.008</v>
-      </c>
-      <c r="K26" s="79">
-        <v>3.3839999999999999</v>
-      </c>
-      <c r="L26" s="79">
-        <v>3.76</v>
-      </c>
-      <c r="M26" s="79">
-        <v>4.1360000000000001</v>
-      </c>
-      <c r="N26" s="79">
-        <v>4.5119999999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" s="79">
-        <v>390</v>
-      </c>
-      <c r="D27" s="79">
-        <v>780</v>
-      </c>
-      <c r="E27" s="79">
-        <v>1.17</v>
-      </c>
-      <c r="F27" s="79">
-        <v>1.56</v>
-      </c>
-      <c r="G27" s="79">
-        <v>1.95</v>
-      </c>
-      <c r="H27" s="79">
-        <v>2.34</v>
-      </c>
-      <c r="I27" s="79">
-        <v>2.73</v>
-      </c>
-      <c r="J27" s="79">
-        <v>3.12</v>
-      </c>
-      <c r="K27" s="79">
-        <v>3.51</v>
-      </c>
-      <c r="L27" s="79">
-        <v>3.9</v>
-      </c>
-      <c r="M27" s="79">
-        <v>4.29</v>
-      </c>
-      <c r="N27" s="79">
-        <v>4.68</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="78" t="s">
-        <v>184</v>
-      </c>
-      <c r="C28" s="79">
-        <v>403</v>
-      </c>
-      <c r="D28" s="79">
-        <v>806</v>
-      </c>
-      <c r="E28" s="79">
-        <v>1.2090000000000001</v>
-      </c>
-      <c r="F28" s="79">
-        <v>1.6120000000000001</v>
-      </c>
-      <c r="G28" s="79">
-        <v>2.0150000000000001</v>
-      </c>
-      <c r="H28" s="79">
-        <v>2.4180000000000001</v>
-      </c>
-      <c r="I28" s="79">
-        <v>2.8210000000000002</v>
-      </c>
-      <c r="J28" s="79">
-        <v>3.2240000000000002</v>
-      </c>
-      <c r="K28" s="79">
-        <v>3.6269999999999998</v>
-      </c>
-      <c r="L28" s="79">
-        <v>4.03</v>
-      </c>
-      <c r="M28" s="79">
-        <v>4.4329999999999998</v>
-      </c>
-      <c r="N28" s="79">
-        <v>4.8360000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B29" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" s="79">
-        <v>417</v>
-      </c>
-      <c r="D29" s="79">
-        <v>834</v>
-      </c>
-      <c r="E29" s="79">
-        <v>1.2509999999999999</v>
-      </c>
-      <c r="F29" s="79">
-        <v>1.6679999999999999</v>
-      </c>
-      <c r="G29" s="79">
-        <v>2.085</v>
-      </c>
-      <c r="H29" s="79">
-        <v>2.5019999999999998</v>
-      </c>
-      <c r="I29" s="79">
-        <v>2.919</v>
-      </c>
-      <c r="J29" s="79">
-        <v>3.3359999999999999</v>
-      </c>
-      <c r="K29" s="79">
-        <v>3.7530000000000001</v>
-      </c>
-      <c r="L29" s="79">
-        <v>4.17</v>
-      </c>
-      <c r="M29" s="79">
-        <v>4.5869999999999997</v>
-      </c>
-      <c r="N29" s="79">
-        <v>5.0039999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B30" s="78" t="s">
-        <v>186</v>
-      </c>
-      <c r="C30" s="79">
-        <v>431</v>
-      </c>
-      <c r="D30" s="79">
-        <v>862</v>
-      </c>
-      <c r="E30" s="79">
-        <v>1.2929999999999999</v>
-      </c>
-      <c r="F30" s="79">
-        <v>1.724</v>
-      </c>
-      <c r="G30" s="79">
-        <v>2.1549999999999998</v>
-      </c>
-      <c r="H30" s="79">
-        <v>2.5859999999999999</v>
-      </c>
-      <c r="I30" s="79">
-        <v>3.0169999999999999</v>
-      </c>
-      <c r="J30" s="79">
-        <v>3.448</v>
-      </c>
-      <c r="K30" s="79">
-        <v>3.879</v>
-      </c>
-      <c r="L30" s="79">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="M30" s="79">
-        <v>4.7409999999999997</v>
-      </c>
-      <c r="N30" s="79">
-        <v>5.1719999999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B31" s="78" t="s">
-        <v>187</v>
-      </c>
-      <c r="C31" s="79">
-        <v>444</v>
-      </c>
-      <c r="D31" s="79">
-        <v>888</v>
-      </c>
-      <c r="E31" s="79">
-        <v>1.3320000000000001</v>
-      </c>
-      <c r="F31" s="79">
-        <v>1.776</v>
-      </c>
-      <c r="G31" s="79">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="H31" s="79">
-        <v>2.6640000000000001</v>
-      </c>
-      <c r="I31" s="79">
-        <v>3.1080000000000001</v>
-      </c>
-      <c r="J31" s="79">
-        <v>3.552</v>
-      </c>
-      <c r="K31" s="79">
-        <v>3.996</v>
-      </c>
-      <c r="L31" s="79">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="M31" s="79">
-        <v>4.8840000000000003</v>
-      </c>
-      <c r="N31" s="79">
-        <v>5.3280000000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B32" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="C32" s="79">
-        <v>458</v>
-      </c>
-      <c r="D32" s="79">
-        <v>916</v>
-      </c>
-      <c r="E32" s="79">
-        <v>1.3740000000000001</v>
-      </c>
-      <c r="F32" s="79">
-        <v>1.8320000000000001</v>
-      </c>
-      <c r="G32" s="79">
-        <v>2.29</v>
-      </c>
-      <c r="H32" s="79">
-        <v>2.7480000000000002</v>
-      </c>
-      <c r="I32" s="79">
-        <v>3.206</v>
-      </c>
-      <c r="J32" s="79">
-        <v>3.6640000000000001</v>
-      </c>
-      <c r="K32" s="79">
-        <v>4.1219999999999999</v>
-      </c>
-      <c r="L32" s="79">
-        <v>4.58</v>
-      </c>
-      <c r="M32" s="79">
-        <v>5.0380000000000003</v>
-      </c>
-      <c r="N32" s="79">
-        <v>5.4960000000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B33" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="C33" s="79">
-        <v>472</v>
-      </c>
-      <c r="D33" s="79">
-        <v>944</v>
-      </c>
-      <c r="E33" s="79">
-        <v>1.4159999999999999</v>
-      </c>
-      <c r="F33" s="79">
-        <v>1.8879999999999999</v>
-      </c>
-      <c r="G33" s="79">
-        <v>2.36</v>
-      </c>
-      <c r="H33" s="79">
-        <v>2.8319999999999999</v>
-      </c>
-      <c r="I33" s="79">
-        <v>3.3039999999999998</v>
-      </c>
-      <c r="J33" s="79">
-        <v>3.7759999999999998</v>
-      </c>
-      <c r="K33" s="79">
-        <v>4.2480000000000002</v>
-      </c>
-      <c r="L33" s="79">
-        <v>4.72</v>
-      </c>
-      <c r="M33" s="79">
-        <v>5.1920000000000002</v>
-      </c>
-      <c r="N33" s="79">
-        <v>5.6639999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B34" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="C34" s="79">
-        <v>485</v>
-      </c>
-      <c r="D34" s="79">
-        <v>970</v>
-      </c>
-      <c r="E34" s="79">
-        <v>1.4550000000000001</v>
-      </c>
-      <c r="F34" s="79">
-        <v>1.94</v>
-      </c>
-      <c r="G34" s="79">
-        <v>2.4249999999999998</v>
-      </c>
-      <c r="H34" s="79">
-        <v>2.91</v>
-      </c>
-      <c r="I34" s="79">
-        <v>3.395</v>
-      </c>
-      <c r="J34" s="79">
-        <v>3.88</v>
-      </c>
-      <c r="K34" s="79">
-        <v>4.3650000000000002</v>
-      </c>
-      <c r="L34" s="79">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="M34" s="79">
-        <v>5.335</v>
-      </c>
-      <c r="N34" s="79">
-        <v>5.82</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B35" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="C35" s="79">
-        <v>499</v>
-      </c>
-      <c r="D35" s="79">
-        <v>998</v>
-      </c>
-      <c r="E35" s="79">
-        <v>1.4970000000000001</v>
-      </c>
-      <c r="F35" s="79">
-        <v>1.996</v>
-      </c>
-      <c r="G35" s="79">
-        <v>2.4950000000000001</v>
-      </c>
-      <c r="H35" s="79">
-        <v>2.9940000000000002</v>
-      </c>
-      <c r="I35" s="79">
-        <v>3.4929999999999999</v>
-      </c>
-      <c r="J35" s="79">
-        <v>3.992</v>
-      </c>
-      <c r="K35" s="79">
-        <v>4.4909999999999997</v>
-      </c>
-      <c r="L35" s="79">
-        <v>4.99</v>
-      </c>
-      <c r="M35" s="79">
-        <v>5.4889999999999999</v>
-      </c>
-      <c r="N35" s="79">
-        <v>5.9880000000000004</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B36" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="C36" s="79">
-        <v>513</v>
-      </c>
-      <c r="D36" s="79">
-        <v>1.026</v>
-      </c>
-      <c r="E36" s="79">
-        <v>1.5389999999999999</v>
-      </c>
-      <c r="F36" s="79">
-        <v>2.052</v>
-      </c>
-      <c r="G36" s="79">
-        <v>2.5649999999999999</v>
-      </c>
-      <c r="H36" s="79">
-        <v>3.0779999999999998</v>
-      </c>
-      <c r="I36" s="79">
-        <v>3.5910000000000002</v>
-      </c>
-      <c r="J36" s="79">
-        <v>4.1040000000000001</v>
-      </c>
-      <c r="K36" s="79">
-        <v>4.617</v>
-      </c>
-      <c r="L36" s="79">
-        <v>5.13</v>
-      </c>
-      <c r="M36" s="79">
-        <v>5.6429999999999998</v>
-      </c>
-      <c r="N36" s="79">
-        <v>6.1559999999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B37" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="C37" s="79">
-        <v>526</v>
-      </c>
-      <c r="D37" s="79">
-        <v>1.052</v>
-      </c>
-      <c r="E37" s="79">
-        <v>1.5780000000000001</v>
-      </c>
-      <c r="F37" s="79">
-        <v>2.1040000000000001</v>
-      </c>
-      <c r="G37" s="79">
-        <v>2.63</v>
-      </c>
-      <c r="H37" s="79">
-        <v>3.1560000000000001</v>
-      </c>
-      <c r="I37" s="79">
-        <v>3.6819999999999999</v>
-      </c>
-      <c r="J37" s="79">
-        <v>4.2080000000000002</v>
-      </c>
-      <c r="K37" s="79">
-        <v>4.734</v>
-      </c>
-      <c r="L37" s="79">
-        <v>5.26</v>
-      </c>
-      <c r="M37" s="79">
-        <v>5.7859999999999996</v>
-      </c>
-      <c r="N37" s="79">
-        <v>6.3120000000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B38" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="C38" s="79">
-        <v>540</v>
-      </c>
-      <c r="D38" s="79">
-        <v>1.08</v>
-      </c>
-      <c r="E38" s="79">
-        <v>1.62</v>
-      </c>
-      <c r="F38" s="79">
-        <v>2.16</v>
-      </c>
-      <c r="G38" s="79">
-        <v>2.7</v>
-      </c>
-      <c r="H38" s="79">
-        <v>3.24</v>
-      </c>
-      <c r="I38" s="79">
-        <v>3.78</v>
-      </c>
-      <c r="J38" s="79">
-        <v>4.32</v>
-      </c>
-      <c r="K38" s="79">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="L38" s="79">
-        <v>5.4</v>
-      </c>
-      <c r="M38" s="79">
-        <v>5.94</v>
-      </c>
-      <c r="N38" s="79">
-        <v>6.48</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:N3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A3:N38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="80" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="80" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="82" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="81"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="77" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>153</v>
-      </c>
-      <c r="H4" s="77" t="s">
-        <v>154</v>
-      </c>
-      <c r="I4" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="J4" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="K4" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="L4" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="M4" s="77" t="s">
-        <v>159</v>
-      </c>
-      <c r="N4" s="77" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="79">
-        <v>3.25</v>
-      </c>
-      <c r="C5" s="79">
-        <v>173</v>
-      </c>
-      <c r="D5" s="79">
-        <v>346</v>
-      </c>
-      <c r="E5" s="79">
-        <v>519</v>
-      </c>
-      <c r="F5" s="79">
-        <v>692</v>
-      </c>
-      <c r="G5" s="79">
-        <v>865</v>
-      </c>
-      <c r="H5" s="79">
-        <v>1.038</v>
-      </c>
-      <c r="I5" s="79">
-        <v>1.2110000000000001</v>
-      </c>
-      <c r="J5" s="79">
-        <v>1.3839999999999999</v>
-      </c>
-      <c r="K5" s="79">
-        <v>1.5569999999999999</v>
-      </c>
-      <c r="L5" s="79">
-        <v>1.73</v>
-      </c>
-      <c r="M5" s="79">
-        <v>1.903</v>
-      </c>
-      <c r="N5" s="79">
-        <v>2.0760000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="79">
-        <v>3.75</v>
-      </c>
-      <c r="C6" s="79">
-        <v>200</v>
-      </c>
-      <c r="D6" s="79">
-        <v>400</v>
-      </c>
-      <c r="E6" s="79">
-        <v>600</v>
-      </c>
-      <c r="F6" s="79">
-        <v>800</v>
-      </c>
-      <c r="G6" s="79">
-        <v>1</v>
-      </c>
-      <c r="H6" s="79">
-        <v>1.2</v>
-      </c>
-      <c r="I6" s="79">
-        <v>1.4</v>
-      </c>
-      <c r="J6" s="79">
-        <v>1.6</v>
-      </c>
-      <c r="K6" s="79">
-        <v>1.8</v>
-      </c>
-      <c r="L6" s="79">
-        <v>2</v>
-      </c>
-      <c r="M6" s="79">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N6" s="79">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="78" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="79">
-        <v>4.25</v>
-      </c>
-      <c r="C7" s="79">
-        <v>227</v>
-      </c>
-      <c r="D7" s="79">
-        <v>454</v>
-      </c>
-      <c r="E7" s="79">
-        <v>681</v>
-      </c>
-      <c r="F7" s="79">
-        <v>908</v>
-      </c>
-      <c r="G7" s="79">
-        <v>1.135</v>
-      </c>
-      <c r="H7" s="79">
-        <v>1.3620000000000001</v>
-      </c>
-      <c r="I7" s="79">
-        <v>1.589</v>
-      </c>
-      <c r="J7" s="79">
-        <v>1.8160000000000001</v>
-      </c>
-      <c r="K7" s="79">
-        <v>2.0430000000000001</v>
-      </c>
-      <c r="L7" s="79">
-        <v>2.27</v>
-      </c>
-      <c r="M7" s="79">
-        <v>2.4969999999999999</v>
-      </c>
-      <c r="N7" s="79">
-        <v>2.7240000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="78" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="79">
-        <v>4.75</v>
-      </c>
-      <c r="C8" s="79">
-        <v>253</v>
-      </c>
-      <c r="D8" s="79">
-        <v>506</v>
-      </c>
-      <c r="E8" s="79">
-        <v>759</v>
-      </c>
-      <c r="F8" s="79">
-        <v>1.012</v>
-      </c>
-      <c r="G8" s="79">
-        <v>1.2649999999999999</v>
-      </c>
-      <c r="H8" s="79">
-        <v>1.518</v>
-      </c>
-      <c r="I8" s="79">
-        <v>1.7709999999999999</v>
-      </c>
-      <c r="J8" s="79">
-        <v>2.024</v>
-      </c>
-      <c r="K8" s="79">
-        <v>2.2770000000000001</v>
-      </c>
-      <c r="L8" s="79">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="M8" s="79">
-        <v>2.7829999999999999</v>
-      </c>
-      <c r="N8" s="79">
-        <v>3.036</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="78" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="79">
-        <v>5.25</v>
-      </c>
-      <c r="C9" s="79">
-        <v>280</v>
-      </c>
-      <c r="D9" s="79">
-        <v>560</v>
-      </c>
-      <c r="E9" s="79">
-        <v>840</v>
-      </c>
-      <c r="F9" s="79">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G9" s="79">
-        <v>1.4</v>
-      </c>
-      <c r="H9" s="79">
-        <v>1.68</v>
-      </c>
-      <c r="I9" s="79">
-        <v>1.96</v>
-      </c>
-      <c r="J9" s="79">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="K9" s="79">
-        <v>2.52</v>
-      </c>
-      <c r="L9" s="79">
-        <v>2.8</v>
-      </c>
-      <c r="M9" s="79">
-        <v>3.08</v>
-      </c>
-      <c r="N9" s="79">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="78" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="79">
-        <v>5.75</v>
-      </c>
-      <c r="C10" s="79">
-        <v>307</v>
-      </c>
-      <c r="D10" s="79">
-        <v>614</v>
-      </c>
-      <c r="E10" s="79">
-        <v>921</v>
-      </c>
-      <c r="F10" s="79">
-        <v>1.228</v>
-      </c>
-      <c r="G10" s="79">
-        <v>1.5349999999999999</v>
-      </c>
-      <c r="H10" s="79">
-        <v>1.8420000000000001</v>
-      </c>
-      <c r="I10" s="79">
-        <v>2.149</v>
-      </c>
-      <c r="J10" s="79">
-        <v>2.456</v>
-      </c>
-      <c r="K10" s="79">
-        <v>2.7629999999999999</v>
-      </c>
-      <c r="L10" s="79">
-        <v>3.07</v>
-      </c>
-      <c r="M10" s="79">
-        <v>3.3769999999999998</v>
-      </c>
-      <c r="N10" s="79">
-        <v>3.6840000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="78" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" s="79">
-        <v>6.25</v>
-      </c>
-      <c r="C11" s="79">
-        <v>333</v>
-      </c>
-      <c r="D11" s="79">
-        <v>666</v>
-      </c>
-      <c r="E11" s="79">
-        <v>999</v>
-      </c>
-      <c r="F11" s="79">
-        <v>1.3320000000000001</v>
-      </c>
-      <c r="G11" s="79">
-        <v>1.665</v>
-      </c>
-      <c r="H11" s="79">
-        <v>1.998</v>
-      </c>
-      <c r="I11" s="79">
-        <v>2.331</v>
-      </c>
-      <c r="J11" s="79">
-        <v>2.6640000000000001</v>
-      </c>
-      <c r="K11" s="79">
-        <v>2.9969999999999999</v>
-      </c>
-      <c r="L11" s="79">
-        <v>3.33</v>
-      </c>
-      <c r="M11" s="79">
-        <v>3.6629999999999998</v>
-      </c>
-      <c r="N11" s="79">
-        <v>3.996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="78" t="s">
-        <v>168</v>
-      </c>
-      <c r="B12" s="79">
-        <v>6.75</v>
-      </c>
-      <c r="C12" s="79">
-        <v>360</v>
-      </c>
-      <c r="D12" s="79">
-        <v>720</v>
-      </c>
-      <c r="E12" s="79">
-        <v>1.08</v>
-      </c>
-      <c r="F12" s="79">
-        <v>1.44</v>
-      </c>
-      <c r="G12" s="79">
-        <v>1.8</v>
-      </c>
-      <c r="H12" s="79">
-        <v>2.16</v>
-      </c>
-      <c r="I12" s="79">
-        <v>2.52</v>
-      </c>
-      <c r="J12" s="79">
-        <v>2.88</v>
-      </c>
-      <c r="K12" s="79">
-        <v>3.24</v>
-      </c>
-      <c r="L12" s="79">
-        <v>3.6</v>
-      </c>
-      <c r="M12" s="79">
-        <v>3.96</v>
-      </c>
-      <c r="N12" s="79">
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" s="79">
-        <v>7.25</v>
-      </c>
-      <c r="C13" s="79">
-        <v>387</v>
-      </c>
-      <c r="D13" s="79">
-        <v>774</v>
-      </c>
-      <c r="E13" s="79">
-        <v>1.161</v>
-      </c>
-      <c r="F13" s="79">
-        <v>1.548</v>
-      </c>
-      <c r="G13" s="79">
-        <v>1.9350000000000001</v>
-      </c>
-      <c r="H13" s="79">
-        <v>2.3220000000000001</v>
-      </c>
-      <c r="I13" s="79">
-        <v>2.7090000000000001</v>
-      </c>
-      <c r="J13" s="79">
-        <v>3.0960000000000001</v>
-      </c>
-      <c r="K13" s="79">
-        <v>3.4830000000000001</v>
-      </c>
-      <c r="L13" s="79">
-        <v>3.87</v>
-      </c>
-      <c r="M13" s="79">
-        <v>4.2569999999999997</v>
-      </c>
-      <c r="N13" s="79">
-        <v>4.6440000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" s="79">
-        <v>7.75</v>
-      </c>
-      <c r="C14" s="79">
-        <v>413</v>
-      </c>
-      <c r="D14" s="79">
-        <v>826</v>
-      </c>
-      <c r="E14" s="79">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="F14" s="79">
-        <v>1.6519999999999999</v>
-      </c>
-      <c r="G14" s="79">
-        <v>2.0649999999999999</v>
-      </c>
-      <c r="H14" s="79">
-        <v>2.4780000000000002</v>
-      </c>
-      <c r="I14" s="79">
-        <v>2.891</v>
-      </c>
-      <c r="J14" s="79">
-        <v>3.3039999999999998</v>
-      </c>
-      <c r="K14" s="79">
-        <v>3.7170000000000001</v>
-      </c>
-      <c r="L14" s="79">
-        <v>4.13</v>
-      </c>
-      <c r="M14" s="79">
-        <v>4.5430000000000001</v>
-      </c>
-      <c r="N14" s="79">
-        <v>4.9560000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="B15" s="79">
-        <v>8.25</v>
-      </c>
-      <c r="C15" s="79">
-        <v>440</v>
-      </c>
-      <c r="D15" s="79">
-        <v>880</v>
-      </c>
-      <c r="E15" s="79">
-        <v>1.32</v>
-      </c>
-      <c r="F15" s="79">
-        <v>1.76</v>
-      </c>
-      <c r="G15" s="79">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H15" s="79">
-        <v>2.64</v>
-      </c>
-      <c r="I15" s="79">
-        <v>3.08</v>
-      </c>
-      <c r="J15" s="79">
-        <v>3.52</v>
-      </c>
-      <c r="K15" s="79">
-        <v>3.96</v>
-      </c>
-      <c r="L15" s="79">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="M15" s="79">
-        <v>4.84</v>
-      </c>
-      <c r="N15" s="79">
-        <v>5.28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="78" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="79">
-        <v>8.75</v>
-      </c>
-      <c r="C16" s="79">
-        <v>467</v>
-      </c>
-      <c r="D16" s="79">
-        <v>934</v>
-      </c>
-      <c r="E16" s="79">
-        <v>1.401</v>
-      </c>
-      <c r="F16" s="79">
-        <v>1.8680000000000001</v>
-      </c>
-      <c r="G16" s="79">
-        <v>2.335</v>
-      </c>
-      <c r="H16" s="79">
-        <v>2.802</v>
-      </c>
-      <c r="I16" s="79">
-        <v>3.2690000000000001</v>
-      </c>
-      <c r="J16" s="79">
-        <v>3.7360000000000002</v>
-      </c>
-      <c r="K16" s="79">
-        <v>4.2030000000000003</v>
-      </c>
-      <c r="L16" s="79">
-        <v>4.67</v>
-      </c>
-      <c r="M16" s="79">
-        <v>5.1369999999999996</v>
-      </c>
-      <c r="N16" s="79">
-        <v>5.6040000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="78" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="79">
-        <v>9.25</v>
-      </c>
-      <c r="C17" s="79">
-        <v>493</v>
-      </c>
-      <c r="D17" s="79">
-        <v>986</v>
-      </c>
-      <c r="E17" s="79">
-        <v>1.4790000000000001</v>
-      </c>
-      <c r="F17" s="79">
-        <v>1.972</v>
-      </c>
-      <c r="G17" s="79">
-        <v>2.4649999999999999</v>
-      </c>
-      <c r="H17" s="79">
-        <v>2.9580000000000002</v>
-      </c>
-      <c r="I17" s="79">
-        <v>3.4510000000000001</v>
-      </c>
-      <c r="J17" s="79">
-        <v>3.944</v>
-      </c>
-      <c r="K17" s="79">
-        <v>4.4370000000000003</v>
-      </c>
-      <c r="L17" s="79">
-        <v>4.93</v>
-      </c>
-      <c r="M17" s="79">
-        <v>5.423</v>
-      </c>
-      <c r="N17" s="79">
-        <v>5.9160000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="78" t="s">
-        <v>174</v>
-      </c>
-      <c r="B18" s="79">
-        <v>9.75</v>
-      </c>
-      <c r="C18" s="79">
-        <v>520</v>
-      </c>
-      <c r="D18" s="79">
-        <v>1.04</v>
-      </c>
-      <c r="E18" s="79">
-        <v>1.56</v>
-      </c>
-      <c r="F18" s="79">
-        <v>2.08</v>
-      </c>
-      <c r="G18" s="79">
-        <v>2.6</v>
-      </c>
-      <c r="H18" s="79">
-        <v>3.12</v>
-      </c>
-      <c r="I18" s="79">
-        <v>3.64</v>
-      </c>
-      <c r="J18" s="79">
-        <v>4.16</v>
-      </c>
-      <c r="K18" s="79">
-        <v>4.68</v>
-      </c>
-      <c r="L18" s="79">
-        <v>5.2</v>
-      </c>
-      <c r="M18" s="79">
-        <v>5.72</v>
-      </c>
-      <c r="N18" s="79">
-        <v>6.24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="B19" s="79">
-        <v>10.25</v>
-      </c>
-      <c r="C19" s="79">
-        <v>547</v>
-      </c>
-      <c r="D19" s="79">
-        <v>1.0940000000000001</v>
-      </c>
-      <c r="E19" s="79">
-        <v>1.641</v>
-      </c>
-      <c r="F19" s="79">
-        <v>2.1880000000000002</v>
-      </c>
-      <c r="G19" s="79">
-        <v>2.7349999999999999</v>
-      </c>
-      <c r="H19" s="79">
-        <v>3.282</v>
-      </c>
-      <c r="I19" s="79">
-        <v>3.8290000000000002</v>
-      </c>
-      <c r="J19" s="79">
-        <v>4.3760000000000003</v>
-      </c>
-      <c r="K19" s="79">
-        <v>4.923</v>
-      </c>
-      <c r="L19" s="79">
-        <v>5.47</v>
-      </c>
-      <c r="M19" s="79">
-        <v>6.0170000000000003</v>
-      </c>
-      <c r="N19" s="79">
-        <v>6.5640000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="78" t="s">
-        <v>176</v>
-      </c>
-      <c r="B20" s="79">
-        <v>10.75</v>
-      </c>
-      <c r="C20" s="79">
-        <v>573</v>
-      </c>
-      <c r="D20" s="79">
-        <v>1.1459999999999999</v>
-      </c>
-      <c r="E20" s="79">
-        <v>1.7190000000000001</v>
-      </c>
-      <c r="F20" s="79">
-        <v>2.2919999999999998</v>
-      </c>
-      <c r="G20" s="79">
-        <v>2.8650000000000002</v>
-      </c>
-      <c r="H20" s="79">
-        <v>3.4380000000000002</v>
-      </c>
-      <c r="I20" s="79">
-        <v>4.0110000000000001</v>
-      </c>
-      <c r="J20" s="79">
-        <v>4.5839999999999996</v>
-      </c>
-      <c r="K20" s="79">
-        <v>5.157</v>
-      </c>
-      <c r="L20" s="79">
-        <v>5.73</v>
-      </c>
-      <c r="M20" s="79">
-        <v>6.3029999999999999</v>
-      </c>
-      <c r="N20" s="79">
-        <v>6.8760000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="B21" s="79">
-        <v>11.25</v>
-      </c>
-      <c r="C21" s="79">
-        <v>600</v>
-      </c>
-      <c r="D21" s="79">
-        <v>1.2</v>
-      </c>
-      <c r="E21" s="79">
-        <v>1.8</v>
-      </c>
-      <c r="F21" s="79">
-        <v>2.4</v>
-      </c>
-      <c r="G21" s="79">
-        <v>3</v>
-      </c>
-      <c r="H21" s="79">
-        <v>3.6</v>
-      </c>
-      <c r="I21" s="79">
-        <v>4.2</v>
-      </c>
-      <c r="J21" s="79">
-        <v>4.8</v>
-      </c>
-      <c r="K21" s="79">
-        <v>5.4</v>
-      </c>
-      <c r="L21" s="79">
-        <v>6</v>
-      </c>
-      <c r="M21" s="79">
-        <v>6.6</v>
-      </c>
-      <c r="N21" s="79">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="B22" s="79">
-        <v>11.75</v>
-      </c>
-      <c r="C22" s="79">
-        <v>627</v>
-      </c>
-      <c r="D22" s="79">
-        <v>1.254</v>
-      </c>
-      <c r="E22" s="79">
-        <v>1.881</v>
-      </c>
-      <c r="F22" s="79">
-        <v>2.508</v>
-      </c>
-      <c r="G22" s="79">
-        <v>3.1349999999999998</v>
-      </c>
-      <c r="H22" s="79">
-        <v>3.762</v>
-      </c>
-      <c r="I22" s="79">
-        <v>4.3890000000000002</v>
-      </c>
-      <c r="J22" s="79">
-        <v>5.016</v>
-      </c>
-      <c r="K22" s="79">
-        <v>5.6429999999999998</v>
-      </c>
-      <c r="L22" s="79">
-        <v>6.27</v>
-      </c>
-      <c r="M22" s="79">
-        <v>6.8970000000000002</v>
-      </c>
-      <c r="N22" s="79">
-        <v>7.524</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="78" t="s">
-        <v>179</v>
-      </c>
-      <c r="B23" s="79">
-        <v>12.25</v>
-      </c>
-      <c r="C23" s="79">
-        <v>653</v>
-      </c>
-      <c r="D23" s="79">
-        <v>1.306</v>
-      </c>
-      <c r="E23" s="79">
-        <v>1.9590000000000001</v>
-      </c>
-      <c r="F23" s="79">
-        <v>2.6120000000000001</v>
-      </c>
-      <c r="G23" s="79">
-        <v>3.2650000000000001</v>
-      </c>
-      <c r="H23" s="79">
-        <v>3.9180000000000001</v>
-      </c>
-      <c r="I23" s="79">
-        <v>4.5709999999999997</v>
-      </c>
-      <c r="J23" s="79">
-        <v>5.2240000000000002</v>
-      </c>
-      <c r="K23" s="79">
-        <v>5.8769999999999998</v>
-      </c>
-      <c r="L23" s="79">
-        <v>6.53</v>
-      </c>
-      <c r="M23" s="79">
-        <v>7.1829999999999998</v>
-      </c>
-      <c r="N23" s="79">
-        <v>7.8360000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="B24" s="79">
-        <v>12.75</v>
-      </c>
-      <c r="C24" s="79">
-        <v>680</v>
-      </c>
-      <c r="D24" s="79">
-        <v>1.36</v>
-      </c>
-      <c r="E24" s="79">
-        <v>2.04</v>
-      </c>
-      <c r="F24" s="79">
-        <v>2.72</v>
-      </c>
-      <c r="G24" s="79">
-        <v>3.4</v>
-      </c>
-      <c r="H24" s="79">
-        <v>4.08</v>
-      </c>
-      <c r="I24" s="79">
-        <v>4.76</v>
-      </c>
-      <c r="J24" s="79">
-        <v>5.44</v>
-      </c>
-      <c r="K24" s="79">
-        <v>6.12</v>
-      </c>
-      <c r="L24" s="79">
-        <v>6.8</v>
-      </c>
-      <c r="M24" s="79">
-        <v>7.48</v>
-      </c>
-      <c r="N24" s="79">
-        <v>8.16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="B25" s="79">
-        <v>13.25</v>
-      </c>
-      <c r="C25" s="79">
-        <v>707</v>
-      </c>
-      <c r="D25" s="79">
-        <v>1.4139999999999999</v>
-      </c>
-      <c r="E25" s="79">
-        <v>2.121</v>
-      </c>
-      <c r="F25" s="79">
-        <v>2.8279999999999998</v>
-      </c>
-      <c r="G25" s="79">
-        <v>3.5350000000000001</v>
-      </c>
-      <c r="H25" s="79">
-        <v>4.242</v>
-      </c>
-      <c r="I25" s="79">
-        <v>4.9489999999999998</v>
-      </c>
-      <c r="J25" s="79">
-        <v>5.6559999999999997</v>
-      </c>
-      <c r="K25" s="79">
-        <v>6.3630000000000004</v>
-      </c>
-      <c r="L25" s="79">
-        <v>7.07</v>
-      </c>
-      <c r="M25" s="79">
-        <v>7.7770000000000001</v>
-      </c>
-      <c r="N25" s="79">
-        <v>8.484</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="78" t="s">
-        <v>182</v>
-      </c>
-      <c r="B26" s="79">
-        <v>13.75</v>
-      </c>
-      <c r="C26" s="79">
-        <v>733</v>
-      </c>
-      <c r="D26" s="79">
-        <v>1.466</v>
-      </c>
-      <c r="E26" s="79">
-        <v>2.1989999999999998</v>
-      </c>
-      <c r="F26" s="79">
-        <v>2.9319999999999999</v>
-      </c>
-      <c r="G26" s="79">
-        <v>3.665</v>
-      </c>
-      <c r="H26" s="79">
-        <v>4.3979999999999997</v>
-      </c>
-      <c r="I26" s="79">
-        <v>5.1310000000000002</v>
-      </c>
-      <c r="J26" s="79">
-        <v>5.8639999999999999</v>
-      </c>
-      <c r="K26" s="79">
-        <v>6.5970000000000004</v>
-      </c>
-      <c r="L26" s="79">
-        <v>7.33</v>
-      </c>
-      <c r="M26" s="79">
-        <v>8.0630000000000006</v>
-      </c>
-      <c r="N26" s="79">
-        <v>8.7959999999999994</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="B27" s="79">
-        <v>14.25</v>
-      </c>
-      <c r="C27" s="79">
-        <v>760</v>
-      </c>
-      <c r="D27" s="79">
-        <v>1.52</v>
-      </c>
-      <c r="E27" s="79">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="F27" s="79">
-        <v>3.04</v>
-      </c>
-      <c r="G27" s="79">
-        <v>3.8</v>
-      </c>
-      <c r="H27" s="79">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="I27" s="79">
-        <v>5.32</v>
-      </c>
-      <c r="J27" s="79">
-        <v>6.08</v>
-      </c>
-      <c r="K27" s="79">
-        <v>6.84</v>
-      </c>
-      <c r="L27" s="79">
-        <v>7.6</v>
-      </c>
-      <c r="M27" s="79">
-        <v>8.36</v>
-      </c>
-      <c r="N27" s="79">
-        <v>9.1199999999999992</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="78" t="s">
-        <v>184</v>
-      </c>
-      <c r="B28" s="79">
-        <v>14.75</v>
-      </c>
-      <c r="C28" s="79">
-        <v>787</v>
-      </c>
-      <c r="D28" s="79">
-        <v>1.5740000000000001</v>
-      </c>
-      <c r="E28" s="79">
-        <v>2.3610000000000002</v>
-      </c>
-      <c r="F28" s="79">
-        <v>3.1480000000000001</v>
-      </c>
-      <c r="G28" s="79">
-        <v>3.9350000000000001</v>
-      </c>
-      <c r="H28" s="79">
-        <v>4.7220000000000004</v>
-      </c>
-      <c r="I28" s="79">
-        <v>5.5090000000000003</v>
-      </c>
-      <c r="J28" s="79">
-        <v>6.2960000000000003</v>
-      </c>
-      <c r="K28" s="79">
-        <v>7.0830000000000002</v>
-      </c>
-      <c r="L28" s="79">
-        <v>7.87</v>
-      </c>
-      <c r="M28" s="79">
-        <v>8.657</v>
-      </c>
-      <c r="N28" s="79">
-        <v>9.4440000000000008</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="B29" s="79">
-        <v>15.25</v>
-      </c>
-      <c r="C29" s="79">
-        <v>813</v>
-      </c>
-      <c r="D29" s="79">
-        <v>1.6259999999999999</v>
-      </c>
-      <c r="E29" s="79">
-        <v>2.4390000000000001</v>
-      </c>
-      <c r="F29" s="79">
-        <v>3.2519999999999998</v>
-      </c>
-      <c r="G29" s="79">
-        <v>4.0650000000000004</v>
-      </c>
-      <c r="H29" s="79">
-        <v>4.8780000000000001</v>
-      </c>
-      <c r="I29" s="79">
-        <v>5.6909999999999998</v>
-      </c>
-      <c r="J29" s="79">
-        <v>6.5039999999999996</v>
-      </c>
-      <c r="K29" s="79">
-        <v>7.3170000000000002</v>
-      </c>
-      <c r="L29" s="79">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="M29" s="79">
-        <v>8.9429999999999996</v>
-      </c>
-      <c r="N29" s="79">
-        <v>9.7560000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="78" t="s">
-        <v>186</v>
-      </c>
-      <c r="B30" s="79">
-        <v>15.75</v>
-      </c>
-      <c r="C30" s="79">
-        <v>840</v>
-      </c>
-      <c r="D30" s="79">
-        <v>1.68</v>
-      </c>
-      <c r="E30" s="79">
-        <v>2.52</v>
-      </c>
-      <c r="F30" s="79">
-        <v>3.36</v>
-      </c>
-      <c r="G30" s="79">
-        <v>4.2</v>
-      </c>
-      <c r="H30" s="79">
-        <v>5.04</v>
-      </c>
-      <c r="I30" s="79">
-        <v>5.88</v>
-      </c>
-      <c r="J30" s="79">
-        <v>6.72</v>
-      </c>
-      <c r="K30" s="79">
-        <v>7.56</v>
-      </c>
-      <c r="L30" s="79">
-        <v>8.4</v>
-      </c>
-      <c r="M30" s="79">
-        <v>9.24</v>
-      </c>
-      <c r="N30" s="79">
-        <v>10.08</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="78" t="s">
-        <v>187</v>
-      </c>
-      <c r="B31" s="79">
-        <v>16.25</v>
-      </c>
-      <c r="C31" s="79">
-        <v>867</v>
-      </c>
-      <c r="D31" s="79">
-        <v>1.734</v>
-      </c>
-      <c r="E31" s="79">
-        <v>2.601</v>
-      </c>
-      <c r="F31" s="79">
-        <v>3.468</v>
-      </c>
-      <c r="G31" s="79">
-        <v>4.335</v>
-      </c>
-      <c r="H31" s="79">
-        <v>5.202</v>
-      </c>
-      <c r="I31" s="79">
-        <v>6.069</v>
-      </c>
-      <c r="J31" s="79">
-        <v>6.9359999999999999</v>
-      </c>
-      <c r="K31" s="79">
-        <v>7.8029999999999999</v>
-      </c>
-      <c r="L31" s="79">
-        <v>8.67</v>
-      </c>
-      <c r="M31" s="79">
-        <v>9.5370000000000008</v>
-      </c>
-      <c r="N31" s="79">
-        <v>10.404</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" s="79">
-        <v>16.75</v>
-      </c>
-      <c r="C32" s="79">
-        <v>893</v>
-      </c>
-      <c r="D32" s="79">
-        <v>1.786</v>
-      </c>
-      <c r="E32" s="79">
-        <v>2.6789999999999998</v>
-      </c>
-      <c r="F32" s="79">
-        <v>3.5720000000000001</v>
-      </c>
-      <c r="G32" s="79">
-        <v>4.4649999999999999</v>
-      </c>
-      <c r="H32" s="79">
-        <v>5.3579999999999997</v>
-      </c>
-      <c r="I32" s="79">
-        <v>6.2510000000000003</v>
-      </c>
-      <c r="J32" s="79">
-        <v>7.1440000000000001</v>
-      </c>
-      <c r="K32" s="79">
-        <v>8.0370000000000008</v>
-      </c>
-      <c r="L32" s="79">
-        <v>8.93</v>
-      </c>
-      <c r="M32" s="79">
-        <v>9.8230000000000004</v>
-      </c>
-      <c r="N32" s="79">
-        <v>10.715999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="B33" s="79">
-        <v>17.25</v>
-      </c>
-      <c r="C33" s="79">
-        <v>920</v>
-      </c>
-      <c r="D33" s="79">
-        <v>1.84</v>
-      </c>
-      <c r="E33" s="79">
-        <v>2.76</v>
-      </c>
-      <c r="F33" s="79">
-        <v>3.68</v>
-      </c>
-      <c r="G33" s="79">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H33" s="79">
-        <v>5.52</v>
-      </c>
-      <c r="I33" s="79">
-        <v>6.44</v>
-      </c>
-      <c r="J33" s="79">
-        <v>7.36</v>
-      </c>
-      <c r="K33" s="79">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="L33" s="79">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="M33" s="79">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="N33" s="79">
-        <v>11.04</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="B34" s="79">
-        <v>17.75</v>
-      </c>
-      <c r="C34" s="79">
-        <v>947</v>
-      </c>
-      <c r="D34" s="79">
-        <v>1.8939999999999999</v>
-      </c>
-      <c r="E34" s="79">
-        <v>2.8410000000000002</v>
-      </c>
-      <c r="F34" s="79">
-        <v>3.7879999999999998</v>
-      </c>
-      <c r="G34" s="79">
-        <v>4.7350000000000003</v>
-      </c>
-      <c r="H34" s="79">
-        <v>5.6820000000000004</v>
-      </c>
-      <c r="I34" s="79">
-        <v>6.6289999999999996</v>
-      </c>
-      <c r="J34" s="79">
-        <v>7.5759999999999996</v>
-      </c>
-      <c r="K34" s="79">
-        <v>8.5229999999999997</v>
-      </c>
-      <c r="L34" s="79">
-        <v>9.4700000000000006</v>
-      </c>
-      <c r="M34" s="79">
-        <v>10.417</v>
-      </c>
-      <c r="N34" s="79">
-        <v>11.364000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="B35" s="79">
-        <v>18.25</v>
-      </c>
-      <c r="C35" s="79">
-        <v>973</v>
-      </c>
-      <c r="D35" s="79">
-        <v>1.946</v>
-      </c>
-      <c r="E35" s="79">
-        <v>2.919</v>
-      </c>
-      <c r="F35" s="79">
-        <v>3.8919999999999999</v>
-      </c>
-      <c r="G35" s="79">
-        <v>4.8650000000000002</v>
-      </c>
-      <c r="H35" s="79">
-        <v>5.8380000000000001</v>
-      </c>
-      <c r="I35" s="79">
-        <v>6.8109999999999999</v>
-      </c>
-      <c r="J35" s="79">
-        <v>7.7839999999999998</v>
-      </c>
-      <c r="K35" s="79">
-        <v>8.7569999999999997</v>
-      </c>
-      <c r="L35" s="79">
-        <v>9.73</v>
-      </c>
-      <c r="M35" s="79">
-        <v>10.702999999999999</v>
-      </c>
-      <c r="N35" s="79">
-        <v>11.676</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="B36" s="79">
-        <v>18.75</v>
-      </c>
-      <c r="C36" s="79">
-        <v>1</v>
-      </c>
-      <c r="D36" s="79">
-        <v>2</v>
-      </c>
-      <c r="E36" s="79">
-        <v>3</v>
-      </c>
-      <c r="F36" s="79">
-        <v>4</v>
-      </c>
-      <c r="G36" s="79">
-        <v>5</v>
-      </c>
-      <c r="H36" s="79">
-        <v>6</v>
-      </c>
-      <c r="I36" s="79">
-        <v>7</v>
-      </c>
-      <c r="J36" s="79">
-        <v>8</v>
-      </c>
-      <c r="K36" s="79">
-        <v>9</v>
-      </c>
-      <c r="L36" s="79">
-        <v>10</v>
-      </c>
-      <c r="M36" s="79">
-        <v>11</v>
-      </c>
-      <c r="N36" s="79">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="B37" s="79">
-        <v>19.25</v>
-      </c>
-      <c r="C37" s="79">
-        <v>1.0269999999999999</v>
-      </c>
-      <c r="D37" s="79">
-        <v>2.0539999999999998</v>
-      </c>
-      <c r="E37" s="79">
-        <v>3.081</v>
-      </c>
-      <c r="F37" s="79">
-        <v>4.1079999999999997</v>
-      </c>
-      <c r="G37" s="79">
-        <v>5.1349999999999998</v>
-      </c>
-      <c r="H37" s="79">
-        <v>6.1619999999999999</v>
-      </c>
-      <c r="I37" s="79">
-        <v>7.1890000000000001</v>
-      </c>
-      <c r="J37" s="79">
-        <v>8.2159999999999993</v>
-      </c>
-      <c r="K37" s="79">
-        <v>9.2430000000000003</v>
-      </c>
-      <c r="L37" s="79">
-        <v>10.27</v>
-      </c>
-      <c r="M37" s="79">
-        <v>11.297000000000001</v>
-      </c>
-      <c r="N37" s="79">
-        <v>12.324</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="B38" s="79">
-        <v>19.75</v>
-      </c>
-      <c r="C38" s="79">
-        <v>1.0529999999999999</v>
-      </c>
-      <c r="D38" s="79">
-        <v>2.1059999999999999</v>
-      </c>
-      <c r="E38" s="79">
-        <v>3.1589999999999998</v>
-      </c>
-      <c r="F38" s="79">
-        <v>4.2119999999999997</v>
-      </c>
-      <c r="G38" s="79">
-        <v>5.2649999999999997</v>
-      </c>
-      <c r="H38" s="79">
-        <v>6.3179999999999996</v>
-      </c>
-      <c r="I38" s="79">
-        <v>7.3710000000000004</v>
-      </c>
-      <c r="J38" s="79">
-        <v>8.4239999999999995</v>
-      </c>
-      <c r="K38" s="79">
-        <v>9.4770000000000003</v>
-      </c>
-      <c r="L38" s="79">
-        <v>10.53</v>
-      </c>
-      <c r="M38" s="79">
-        <v>11.583</v>
-      </c>
-      <c r="N38" s="79">
-        <v>12.635999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:N3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
